--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9303869846141608</v>
+        <v>0.9303869846141585</v>
       </c>
       <c r="D2">
-        <v>0.9436007331212989</v>
+        <v>0.9436007331212966</v>
       </c>
       <c r="E2">
-        <v>0.945862992012202</v>
+        <v>0.9458629920121998</v>
       </c>
       <c r="F2">
-        <v>0.9477428694074939</v>
+        <v>0.9477428694074923</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033942105354746</v>
+        <v>1.033942105354745</v>
       </c>
       <c r="J2">
-        <v>0.954869738061223</v>
+        <v>0.9548697380612208</v>
       </c>
       <c r="K2">
-        <v>0.9559060365390943</v>
+        <v>0.9559060365390921</v>
       </c>
       <c r="L2">
-        <v>0.9581318719880471</v>
+        <v>0.9581318719880447</v>
       </c>
       <c r="M2">
-        <v>0.9599816520387321</v>
+        <v>0.9599816520387304</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9446706371459139</v>
+        <v>0.9446706371459173</v>
       </c>
       <c r="D3">
-        <v>0.9561999334179752</v>
+        <v>0.9561999334179779</v>
       </c>
       <c r="E3">
-        <v>0.9578843353419237</v>
+        <v>0.957884335341927</v>
       </c>
       <c r="F3">
-        <v>0.9617157303537123</v>
+        <v>0.9617157303537149</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037230452728243</v>
       </c>
       <c r="J3">
-        <v>0.9667923580799807</v>
+        <v>0.966792358079984</v>
       </c>
       <c r="K3">
-        <v>0.9674257148095581</v>
+        <v>0.9674257148095612</v>
       </c>
       <c r="L3">
-        <v>0.9690860478092391</v>
+        <v>0.9690860478092421</v>
       </c>
       <c r="M3">
-        <v>0.9728630917436414</v>
+        <v>0.9728630917436439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9533740152231894</v>
+        <v>0.9533740152231913</v>
       </c>
       <c r="D4">
-        <v>0.9638870163557435</v>
+        <v>0.9638870163557451</v>
       </c>
       <c r="E4">
-        <v>0.9652217689088243</v>
+        <v>0.9652217689088256</v>
       </c>
       <c r="F4">
-        <v>0.9702245121703529</v>
+        <v>0.9702245121703549</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039202664217629</v>
       </c>
       <c r="J4">
-        <v>0.9740505975974687</v>
+        <v>0.9740505975974704</v>
       </c>
       <c r="K4">
-        <v>0.974441761477724</v>
+        <v>0.9744417614777254</v>
       </c>
       <c r="L4">
-        <v>0.9757588864568462</v>
+        <v>0.9757588864568475</v>
       </c>
       <c r="M4">
-        <v>0.9806961008330473</v>
+        <v>0.9806961008330493</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569178889214168</v>
+        <v>0.9569178889214173</v>
       </c>
       <c r="D5">
-        <v>0.9670191670954604</v>
+        <v>0.9670191670954611</v>
       </c>
       <c r="E5">
-        <v>0.9682120916143773</v>
+        <v>0.9682120916143778</v>
       </c>
       <c r="F5">
-        <v>0.9736874956073223</v>
+        <v>0.9736874956073228</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039997798435311</v>
       </c>
       <c r="J5">
-        <v>0.9770042411779477</v>
+        <v>0.9770042411779482</v>
       </c>
       <c r="K5">
-        <v>0.9772975742705224</v>
+        <v>0.9772975742705229</v>
       </c>
       <c r="L5">
-        <v>0.978475264968438</v>
+        <v>0.9784752649684383</v>
       </c>
       <c r="M5">
-        <v>0.9838813446020196</v>
+        <v>0.9838813446020199</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9575065363616689</v>
+        <v>0.9575065363616718</v>
       </c>
       <c r="D6">
-        <v>0.9675395412173414</v>
+        <v>0.967539541217344</v>
       </c>
       <c r="E6">
-        <v>0.9687089385341049</v>
+        <v>0.9687089385341073</v>
       </c>
       <c r="F6">
-        <v>0.9742625990803588</v>
+        <v>0.9742625990803609</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040129396222562</v>
+        <v>1.040129396222563</v>
       </c>
       <c r="J6">
-        <v>0.9774947380575346</v>
+        <v>0.9774947380575375</v>
       </c>
       <c r="K6">
-        <v>0.9777718671624646</v>
+        <v>0.9777718671624669</v>
       </c>
       <c r="L6">
-        <v>0.978926415604254</v>
+        <v>0.9789264156042564</v>
       </c>
       <c r="M6">
-        <v>0.9844101630448667</v>
+        <v>0.9844101630448688</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534218039711516</v>
+        <v>0.9534218039711497</v>
       </c>
       <c r="D7">
-        <v>0.9639292451114548</v>
+        <v>0.9639292451114533</v>
       </c>
       <c r="E7">
-        <v>0.9652620830199505</v>
+        <v>0.9652620830199491</v>
       </c>
       <c r="F7">
-        <v>0.9702712171904286</v>
+        <v>0.9702712171904274</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039213418493584</v>
+        <v>1.039213418493583</v>
       </c>
       <c r="J7">
-        <v>0.9740904345764207</v>
+        <v>0.9740904345764191</v>
       </c>
       <c r="K7">
-        <v>0.9744802761044762</v>
+        <v>0.9744802761044745</v>
       </c>
       <c r="L7">
-        <v>0.9757955195920118</v>
+        <v>0.9757955195920103</v>
       </c>
       <c r="M7">
-        <v>0.9807390708173785</v>
+        <v>0.9807390708173775</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9353351754962009</v>
+        <v>0.9353351754961992</v>
       </c>
       <c r="D8">
-        <v>0.947962995106449</v>
+        <v>0.9479629951064473</v>
       </c>
       <c r="E8">
-        <v>0.9500245113708047</v>
+        <v>0.9500245113708028</v>
       </c>
       <c r="F8">
-        <v>0.9525842441362058</v>
+        <v>0.9525842441362041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035087792607151</v>
+        <v>1.035087792607152</v>
       </c>
       <c r="J8">
-        <v>0.9590012524406735</v>
+        <v>0.9590012524406715</v>
       </c>
       <c r="K8">
-        <v>0.9598972363973096</v>
+        <v>0.9598972363973078</v>
       </c>
       <c r="L8">
-        <v>0.9619268649322662</v>
+        <v>0.9619268649322642</v>
       </c>
       <c r="M8">
-        <v>0.9644472485710884</v>
+        <v>0.964447248571087</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.898516297357361</v>
+        <v>0.8985162973573584</v>
       </c>
       <c r="D9">
-        <v>0.915569373064</v>
+        <v>0.9155693730639974</v>
       </c>
       <c r="E9">
-        <v>0.919138527472073</v>
+        <v>0.9191385274720707</v>
       </c>
       <c r="F9">
-        <v>0.9165592872165144</v>
+        <v>0.9165592872165125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026437773870719</v>
+        <v>1.026437773870718</v>
       </c>
       <c r="J9">
-        <v>0.9282426964343573</v>
+        <v>0.9282426964343548</v>
       </c>
       <c r="K9">
-        <v>0.9301988893791149</v>
+        <v>0.9301988893791125</v>
       </c>
       <c r="L9">
-        <v>0.9336955669696997</v>
+        <v>0.9336955669696971</v>
       </c>
       <c r="M9">
-        <v>0.931168627344323</v>
+        <v>0.931168627344321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8690272567443464</v>
+        <v>0.8690272567443451</v>
       </c>
       <c r="D10">
-        <v>0.8897446217631719</v>
+        <v>0.8897446217631706</v>
       </c>
       <c r="E10">
-        <v>0.8945442923218965</v>
+        <v>0.894544292321895</v>
       </c>
       <c r="F10">
-        <v>0.8877454880533729</v>
+        <v>0.8877454880533718</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01937527805531</v>
       </c>
       <c r="J10">
-        <v>0.903609258881361</v>
+        <v>0.9036092588813597</v>
       </c>
       <c r="K10">
-        <v>0.9064374760380896</v>
+        <v>0.9064374760380882</v>
       </c>
       <c r="L10">
-        <v>0.9111199471389273</v>
+        <v>0.9111199471389259</v>
       </c>
       <c r="M10">
-        <v>0.904487661403173</v>
+        <v>0.9044876614031722</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.854490228208643</v>
+        <v>0.8544902282086437</v>
       </c>
       <c r="D11">
-        <v>0.8770583970648974</v>
+        <v>0.8770583970648982</v>
       </c>
       <c r="E11">
-        <v>0.8824722442319887</v>
+        <v>0.8824722442319894</v>
       </c>
       <c r="F11">
-        <v>0.8735705634290241</v>
+        <v>0.8735705634290243</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015876430203497</v>
       </c>
       <c r="J11">
-        <v>0.8914778594524614</v>
+        <v>0.8914778594524622</v>
       </c>
       <c r="K11">
-        <v>0.8947420469823983</v>
+        <v>0.8947420469823991</v>
       </c>
       <c r="L11">
-        <v>0.9000122703822793</v>
+        <v>0.9000122703822797</v>
       </c>
       <c r="M11">
-        <v>0.8913480251478987</v>
+        <v>0.891348025147899</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8487428202170907</v>
+        <v>0.8487428202170862</v>
       </c>
       <c r="D12">
-        <v>0.8720514676558986</v>
+        <v>0.8720514676558947</v>
       </c>
       <c r="E12">
-        <v>0.8777095364247647</v>
+        <v>0.877709536424761</v>
       </c>
       <c r="F12">
-        <v>0.8679733937734512</v>
+        <v>0.867973393773448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014492455826605</v>
+        <v>1.014492455826604</v>
       </c>
       <c r="J12">
-        <v>0.8866849160840632</v>
+        <v>0.8866849160840593</v>
       </c>
       <c r="K12">
-        <v>0.8901224577069108</v>
+        <v>0.8901224577069068</v>
       </c>
       <c r="L12">
-        <v>0.8956256118628306</v>
+        <v>0.8956256118628271</v>
       </c>
       <c r="M12">
-        <v>0.8861577500311909</v>
+        <v>0.8861577500311877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8499931657435732</v>
+        <v>0.8499931657435709</v>
       </c>
       <c r="D13">
-        <v>0.8731402883667893</v>
+        <v>0.8731402883667871</v>
       </c>
       <c r="E13">
-        <v>0.8787451589419694</v>
+        <v>0.8787451589419674</v>
       </c>
       <c r="F13">
-        <v>0.8691906816199437</v>
+        <v>0.8691906816199418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014793528451087</v>
+        <v>1.014793528451086</v>
       </c>
       <c r="J13">
-        <v>0.8877274346928626</v>
+        <v>0.8877274346928606</v>
       </c>
       <c r="K13">
-        <v>0.8911272175977374</v>
+        <v>0.8911272175977354</v>
       </c>
       <c r="L13">
-        <v>0.8965796714574116</v>
+        <v>0.8965796714574096</v>
       </c>
       <c r="M13">
-        <v>0.8872866264611062</v>
+        <v>0.8872866264611042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8540228601408213</v>
+        <v>0.8540228601408192</v>
       </c>
       <c r="D14">
-        <v>0.8766510539632471</v>
+        <v>0.8766510539632453</v>
       </c>
       <c r="E14">
-        <v>0.8820847309964334</v>
+        <v>0.8820847309964316</v>
       </c>
       <c r="F14">
-        <v>0.8731152515640214</v>
+        <v>0.8731152515640203</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015763887393915</v>
       </c>
       <c r="J14">
-        <v>0.8910880279615556</v>
+        <v>0.8910880279615538</v>
       </c>
       <c r="K14">
-        <v>0.8943662921066583</v>
+        <v>0.8943662921066565</v>
       </c>
       <c r="L14">
-        <v>0.8996554453873705</v>
+        <v>0.899655445387369</v>
       </c>
       <c r="M14">
-        <v>0.8909258494347588</v>
+        <v>0.8909258494347575</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8564564759024179</v>
+        <v>0.8564564759024208</v>
       </c>
       <c r="D15">
-        <v>0.878772478538557</v>
+        <v>0.8787724785385592</v>
       </c>
       <c r="E15">
-        <v>0.8841029577215255</v>
+        <v>0.8841029577215277</v>
       </c>
       <c r="F15">
-        <v>0.8754863907810015</v>
+        <v>0.8754863907810035</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016349892166841</v>
       </c>
       <c r="J15">
-        <v>0.8931180509262164</v>
+        <v>0.893118050926219</v>
       </c>
       <c r="K15">
-        <v>0.8963230570747073</v>
+        <v>0.8963230570747097</v>
       </c>
       <c r="L15">
-        <v>0.9015136638738239</v>
+        <v>0.9015136638738261</v>
       </c>
       <c r="M15">
-        <v>0.8931243500894005</v>
+        <v>0.8931243500894026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8699486139516255</v>
+        <v>0.8699486139516273</v>
       </c>
       <c r="D16">
-        <v>0.8905497078545411</v>
+        <v>0.8905497078545426</v>
       </c>
       <c r="E16">
-        <v>0.8953106215994548</v>
+        <v>0.8953106215994561</v>
       </c>
       <c r="F16">
-        <v>0.8886446689037779</v>
+        <v>0.8886446689037797</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019596831963803</v>
       </c>
       <c r="J16">
-        <v>0.9043784981354538</v>
+        <v>0.9043784981354552</v>
       </c>
       <c r="K16">
-        <v>0.9071792100234206</v>
+        <v>0.9071792100234219</v>
       </c>
       <c r="L16">
-        <v>0.9118244984861363</v>
+        <v>0.9118244984861376</v>
       </c>
       <c r="M16">
-        <v>0.9053209048994351</v>
+        <v>0.9053209048994368</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -994,13 +994,13 @@
         <v>0.8778914252546973</v>
       </c>
       <c r="D17">
-        <v>0.8974950958771416</v>
+        <v>0.8974950958771412</v>
       </c>
       <c r="E17">
-        <v>0.9019227295900119</v>
+        <v>0.9019227295900122</v>
       </c>
       <c r="F17">
-        <v>0.896399632413181</v>
+        <v>0.8963996324131811</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.021505087854026</v>
       </c>
       <c r="J17">
-        <v>0.9110113346338201</v>
+        <v>0.9110113346338202</v>
       </c>
       <c r="K17">
-        <v>0.9135755901239048</v>
+        <v>0.9135755901239045</v>
       </c>
       <c r="L17">
-        <v>0.9179006849903402</v>
+        <v>0.9179006849903405</v>
       </c>
       <c r="M17">
         <v>0.9125057056193955</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8823607084682676</v>
+        <v>0.8823607084682658</v>
       </c>
       <c r="D18">
-        <v>0.9014069465471384</v>
+        <v>0.9014069465471364</v>
       </c>
       <c r="E18">
-        <v>0.9056477042703907</v>
+        <v>0.9056477042703887</v>
       </c>
       <c r="F18">
-        <v>0.900765616247437</v>
+        <v>0.9007656162474353</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022577149158409</v>
       </c>
       <c r="J18">
-        <v>0.9147444670988887</v>
+        <v>0.9147444670988867</v>
       </c>
       <c r="K18">
-        <v>0.9171762096279296</v>
+        <v>0.9171762096279278</v>
       </c>
       <c r="L18">
-        <v>0.9213214162720356</v>
+        <v>0.9213214162720337</v>
       </c>
       <c r="M18">
-        <v>0.9165494340518636</v>
+        <v>0.916549434051862</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.8838587892796309</v>
       </c>
       <c r="D19">
-        <v>0.9027187782376316</v>
+        <v>0.9027187782376314</v>
       </c>
       <c r="E19">
-        <v>0.9068970013618802</v>
+        <v>0.9068970013618797</v>
       </c>
       <c r="F19">
-        <v>0.9022294204172165</v>
+        <v>0.9022294204172163</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.022936169789843</v>
       </c>
       <c r="J19">
-        <v>0.9159959209217277</v>
+        <v>0.9159959209217274</v>
       </c>
       <c r="K19">
-        <v>0.9183833352505892</v>
+        <v>0.9183833352505889</v>
       </c>
       <c r="L19">
-        <v>0.9224682899586216</v>
+        <v>0.922468289958621</v>
       </c>
       <c r="M19">
-        <v>0.9179049764592688</v>
+        <v>0.9179049764592687</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8770566372440946</v>
+        <v>0.877056637244095</v>
       </c>
       <c r="D20">
-        <v>0.8967647270383813</v>
+        <v>0.8967647270383815</v>
       </c>
       <c r="E20">
-        <v>0.9012273182906092</v>
+        <v>0.9012273182906091</v>
       </c>
       <c r="F20">
-        <v>0.8955843209669131</v>
+        <v>0.8955843209669135</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021304695923867</v>
       </c>
       <c r="J20">
-        <v>0.910314116611798</v>
+        <v>0.9103141166117983</v>
       </c>
       <c r="K20">
-        <v>0.9129031669152234</v>
+        <v>0.9129031669152233</v>
       </c>
       <c r="L20">
-        <v>0.9172618843728669</v>
+        <v>0.9172618843728667</v>
       </c>
       <c r="M20">
-        <v>0.9117504685905649</v>
+        <v>0.9117504685905653</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8528466780633881</v>
+        <v>0.8528466780633913</v>
       </c>
       <c r="D21">
-        <v>0.8756260785282106</v>
+        <v>0.8756260785282135</v>
       </c>
       <c r="E21">
-        <v>0.8811096828327283</v>
+        <v>0.8811096828327311</v>
       </c>
       <c r="F21">
-        <v>0.8719695338656843</v>
+        <v>0.8719695338656869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015480658790357</v>
+        <v>1.015480658790358</v>
       </c>
       <c r="J21">
-        <v>0.8901070350607947</v>
+        <v>0.8901070350607977</v>
       </c>
       <c r="K21">
-        <v>0.8934207404938825</v>
+        <v>0.8934207404938854</v>
       </c>
       <c r="L21">
-        <v>0.8987575419735898</v>
+        <v>0.8987575419735926</v>
       </c>
       <c r="M21">
-        <v>0.8898634840026224</v>
+        <v>0.8898634840026248</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8355361736186403</v>
+        <v>0.8355361736186414</v>
       </c>
       <c r="D22">
-        <v>0.8605660971485385</v>
+        <v>0.8605660971485396</v>
       </c>
       <c r="E22">
-        <v>0.8667883901781196</v>
+        <v>0.8667883901781205</v>
       </c>
       <c r="F22">
-        <v>0.8551296887668419</v>
+        <v>0.8551296887668425</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011314099510031</v>
       </c>
       <c r="J22">
-        <v>0.8756803677967246</v>
+        <v>0.8756803677967256</v>
       </c>
       <c r="K22">
-        <v>0.8795182191658404</v>
+        <v>0.8795182191658414</v>
       </c>
       <c r="L22">
-        <v>0.8855577709112363</v>
+        <v>0.8855577709112372</v>
       </c>
       <c r="M22">
-        <v>0.8742444701165193</v>
+        <v>0.8742444701165198</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8449505890607151</v>
+        <v>0.8449505890607109</v>
       </c>
       <c r="D23">
-        <v>0.8687506311627021</v>
+        <v>0.8687506311626979</v>
       </c>
       <c r="E23">
-        <v>0.8745702790402955</v>
+        <v>0.8745702790402913</v>
       </c>
       <c r="F23">
-        <v>0.8642827496977744</v>
+        <v>0.8642827496977707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013579422298378</v>
+        <v>1.013579422298377</v>
       </c>
       <c r="J23">
-        <v>0.8835236733795687</v>
+        <v>0.8835236733795645</v>
       </c>
       <c r="K23">
-        <v>0.8870758871459654</v>
+        <v>0.8870758871459613</v>
       </c>
       <c r="L23">
-        <v>0.8927329014631098</v>
+        <v>0.8927329014631057</v>
       </c>
       <c r="M23">
-        <v>0.8827348984879455</v>
+        <v>0.8827348984879421</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8774343420094524</v>
+        <v>0.8774343420094516</v>
       </c>
       <c r="D24">
-        <v>0.8970951749459745</v>
+        <v>0.8970951749459737</v>
       </c>
       <c r="E24">
-        <v>0.9015419474158057</v>
+        <v>0.9015419474158051</v>
       </c>
       <c r="F24">
-        <v>0.8959532060921591</v>
+        <v>0.8959532060921584</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021395369836051</v>
       </c>
       <c r="J24">
-        <v>0.9106295741457002</v>
+        <v>0.9106295741456996</v>
       </c>
       <c r="K24">
-        <v>0.9132074042098876</v>
+        <v>0.9132074042098868</v>
       </c>
       <c r="L24">
-        <v>0.917550908056749</v>
+        <v>0.9175509080567483</v>
       </c>
       <c r="M24">
-        <v>0.9120921771905469</v>
+        <v>0.9120921771905466</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9087571243777786</v>
+        <v>0.9087571243777768</v>
       </c>
       <c r="D25">
-        <v>0.9245636639605401</v>
+        <v>0.9245636639605384</v>
       </c>
       <c r="E25">
-        <v>0.9277102695858024</v>
+        <v>0.9277102695858011</v>
       </c>
       <c r="F25">
-        <v>0.9265773894051327</v>
+        <v>0.9265773894051311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028868719162771</v>
+        <v>1.02886871916277</v>
       </c>
       <c r="J25">
-        <v>0.9368001990644946</v>
+        <v>0.9368001990644932</v>
       </c>
       <c r="K25">
-        <v>0.9384579812687998</v>
+        <v>0.9384579812687983</v>
       </c>
       <c r="L25">
-        <v>0.9415450244450453</v>
+        <v>0.941545024445044</v>
       </c>
       <c r="M25">
-        <v>0.9404335277696418</v>
+        <v>0.9404335277696405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9303869846141585</v>
+        <v>0.9303869846141608</v>
       </c>
       <c r="D2">
-        <v>0.9436007331212966</v>
+        <v>0.9436007331212989</v>
       </c>
       <c r="E2">
-        <v>0.9458629920121998</v>
+        <v>0.945862992012202</v>
       </c>
       <c r="F2">
-        <v>0.9477428694074923</v>
+        <v>0.9477428694074939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033942105354745</v>
+        <v>1.033942105354746</v>
       </c>
       <c r="J2">
-        <v>0.9548697380612208</v>
+        <v>0.954869738061223</v>
       </c>
       <c r="K2">
-        <v>0.9559060365390921</v>
+        <v>0.9559060365390943</v>
       </c>
       <c r="L2">
-        <v>0.9581318719880447</v>
+        <v>0.9581318719880471</v>
       </c>
       <c r="M2">
-        <v>0.9599816520387304</v>
+        <v>0.9599816520387321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9446706371459173</v>
+        <v>0.9446706371459139</v>
       </c>
       <c r="D3">
-        <v>0.9561999334179779</v>
+        <v>0.9561999334179752</v>
       </c>
       <c r="E3">
-        <v>0.957884335341927</v>
+        <v>0.9578843353419237</v>
       </c>
       <c r="F3">
-        <v>0.9617157303537149</v>
+        <v>0.9617157303537123</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037230452728243</v>
       </c>
       <c r="J3">
-        <v>0.966792358079984</v>
+        <v>0.9667923580799807</v>
       </c>
       <c r="K3">
-        <v>0.9674257148095612</v>
+        <v>0.9674257148095581</v>
       </c>
       <c r="L3">
-        <v>0.9690860478092421</v>
+        <v>0.9690860478092391</v>
       </c>
       <c r="M3">
-        <v>0.9728630917436439</v>
+        <v>0.9728630917436414</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9533740152231913</v>
+        <v>0.9533740152231894</v>
       </c>
       <c r="D4">
-        <v>0.9638870163557451</v>
+        <v>0.9638870163557435</v>
       </c>
       <c r="E4">
-        <v>0.9652217689088256</v>
+        <v>0.9652217689088243</v>
       </c>
       <c r="F4">
-        <v>0.9702245121703549</v>
+        <v>0.9702245121703529</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039202664217629</v>
       </c>
       <c r="J4">
-        <v>0.9740505975974704</v>
+        <v>0.9740505975974687</v>
       </c>
       <c r="K4">
-        <v>0.9744417614777254</v>
+        <v>0.974441761477724</v>
       </c>
       <c r="L4">
-        <v>0.9757588864568475</v>
+        <v>0.9757588864568462</v>
       </c>
       <c r="M4">
-        <v>0.9806961008330493</v>
+        <v>0.9806961008330473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569178889214173</v>
+        <v>0.9569178889214168</v>
       </c>
       <c r="D5">
-        <v>0.9670191670954611</v>
+        <v>0.9670191670954604</v>
       </c>
       <c r="E5">
-        <v>0.9682120916143778</v>
+        <v>0.9682120916143773</v>
       </c>
       <c r="F5">
-        <v>0.9736874956073228</v>
+        <v>0.9736874956073223</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039997798435311</v>
       </c>
       <c r="J5">
-        <v>0.9770042411779482</v>
+        <v>0.9770042411779477</v>
       </c>
       <c r="K5">
-        <v>0.9772975742705229</v>
+        <v>0.9772975742705224</v>
       </c>
       <c r="L5">
-        <v>0.9784752649684383</v>
+        <v>0.978475264968438</v>
       </c>
       <c r="M5">
-        <v>0.9838813446020199</v>
+        <v>0.9838813446020196</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9575065363616718</v>
+        <v>0.9575065363616689</v>
       </c>
       <c r="D6">
-        <v>0.967539541217344</v>
+        <v>0.9675395412173414</v>
       </c>
       <c r="E6">
-        <v>0.9687089385341073</v>
+        <v>0.9687089385341049</v>
       </c>
       <c r="F6">
-        <v>0.9742625990803609</v>
+        <v>0.9742625990803588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040129396222563</v>
+        <v>1.040129396222562</v>
       </c>
       <c r="J6">
-        <v>0.9774947380575375</v>
+        <v>0.9774947380575346</v>
       </c>
       <c r="K6">
-        <v>0.9777718671624669</v>
+        <v>0.9777718671624646</v>
       </c>
       <c r="L6">
-        <v>0.9789264156042564</v>
+        <v>0.978926415604254</v>
       </c>
       <c r="M6">
-        <v>0.9844101630448688</v>
+        <v>0.9844101630448667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534218039711497</v>
+        <v>0.9534218039711516</v>
       </c>
       <c r="D7">
-        <v>0.9639292451114533</v>
+        <v>0.9639292451114548</v>
       </c>
       <c r="E7">
-        <v>0.9652620830199491</v>
+        <v>0.9652620830199505</v>
       </c>
       <c r="F7">
-        <v>0.9702712171904274</v>
+        <v>0.9702712171904286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039213418493583</v>
+        <v>1.039213418493584</v>
       </c>
       <c r="J7">
-        <v>0.9740904345764191</v>
+        <v>0.9740904345764207</v>
       </c>
       <c r="K7">
-        <v>0.9744802761044745</v>
+        <v>0.9744802761044762</v>
       </c>
       <c r="L7">
-        <v>0.9757955195920103</v>
+        <v>0.9757955195920118</v>
       </c>
       <c r="M7">
-        <v>0.9807390708173775</v>
+        <v>0.9807390708173785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9353351754961992</v>
+        <v>0.9353351754962009</v>
       </c>
       <c r="D8">
-        <v>0.9479629951064473</v>
+        <v>0.947962995106449</v>
       </c>
       <c r="E8">
-        <v>0.9500245113708028</v>
+        <v>0.9500245113708047</v>
       </c>
       <c r="F8">
-        <v>0.9525842441362041</v>
+        <v>0.9525842441362058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035087792607152</v>
+        <v>1.035087792607151</v>
       </c>
       <c r="J8">
-        <v>0.9590012524406715</v>
+        <v>0.9590012524406735</v>
       </c>
       <c r="K8">
-        <v>0.9598972363973078</v>
+        <v>0.9598972363973096</v>
       </c>
       <c r="L8">
-        <v>0.9619268649322642</v>
+        <v>0.9619268649322662</v>
       </c>
       <c r="M8">
-        <v>0.964447248571087</v>
+        <v>0.9644472485710884</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8985162973573584</v>
+        <v>0.898516297357361</v>
       </c>
       <c r="D9">
-        <v>0.9155693730639974</v>
+        <v>0.915569373064</v>
       </c>
       <c r="E9">
-        <v>0.9191385274720707</v>
+        <v>0.919138527472073</v>
       </c>
       <c r="F9">
-        <v>0.9165592872165125</v>
+        <v>0.9165592872165144</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026437773870718</v>
+        <v>1.026437773870719</v>
       </c>
       <c r="J9">
-        <v>0.9282426964343548</v>
+        <v>0.9282426964343573</v>
       </c>
       <c r="K9">
-        <v>0.9301988893791125</v>
+        <v>0.9301988893791149</v>
       </c>
       <c r="L9">
-        <v>0.9336955669696971</v>
+        <v>0.9336955669696997</v>
       </c>
       <c r="M9">
-        <v>0.931168627344321</v>
+        <v>0.931168627344323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8690272567443451</v>
+        <v>0.8690272567443464</v>
       </c>
       <c r="D10">
-        <v>0.8897446217631706</v>
+        <v>0.8897446217631719</v>
       </c>
       <c r="E10">
-        <v>0.894544292321895</v>
+        <v>0.8945442923218965</v>
       </c>
       <c r="F10">
-        <v>0.8877454880533718</v>
+        <v>0.8877454880533729</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01937527805531</v>
       </c>
       <c r="J10">
-        <v>0.9036092588813597</v>
+        <v>0.903609258881361</v>
       </c>
       <c r="K10">
-        <v>0.9064374760380882</v>
+        <v>0.9064374760380896</v>
       </c>
       <c r="L10">
-        <v>0.9111199471389259</v>
+        <v>0.9111199471389273</v>
       </c>
       <c r="M10">
-        <v>0.9044876614031722</v>
+        <v>0.904487661403173</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8544902282086437</v>
+        <v>0.854490228208643</v>
       </c>
       <c r="D11">
-        <v>0.8770583970648982</v>
+        <v>0.8770583970648974</v>
       </c>
       <c r="E11">
-        <v>0.8824722442319894</v>
+        <v>0.8824722442319887</v>
       </c>
       <c r="F11">
-        <v>0.8735705634290243</v>
+        <v>0.8735705634290241</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015876430203497</v>
       </c>
       <c r="J11">
-        <v>0.8914778594524622</v>
+        <v>0.8914778594524614</v>
       </c>
       <c r="K11">
-        <v>0.8947420469823991</v>
+        <v>0.8947420469823983</v>
       </c>
       <c r="L11">
-        <v>0.9000122703822797</v>
+        <v>0.9000122703822793</v>
       </c>
       <c r="M11">
-        <v>0.891348025147899</v>
+        <v>0.8913480251478987</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8487428202170862</v>
+        <v>0.8487428202170907</v>
       </c>
       <c r="D12">
-        <v>0.8720514676558947</v>
+        <v>0.8720514676558986</v>
       </c>
       <c r="E12">
-        <v>0.877709536424761</v>
+        <v>0.8777095364247647</v>
       </c>
       <c r="F12">
-        <v>0.867973393773448</v>
+        <v>0.8679733937734512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014492455826604</v>
+        <v>1.014492455826605</v>
       </c>
       <c r="J12">
-        <v>0.8866849160840593</v>
+        <v>0.8866849160840632</v>
       </c>
       <c r="K12">
-        <v>0.8901224577069068</v>
+        <v>0.8901224577069108</v>
       </c>
       <c r="L12">
-        <v>0.8956256118628271</v>
+        <v>0.8956256118628306</v>
       </c>
       <c r="M12">
-        <v>0.8861577500311877</v>
+        <v>0.8861577500311909</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8499931657435709</v>
+        <v>0.8499931657435732</v>
       </c>
       <c r="D13">
-        <v>0.8731402883667871</v>
+        <v>0.8731402883667893</v>
       </c>
       <c r="E13">
-        <v>0.8787451589419674</v>
+        <v>0.8787451589419694</v>
       </c>
       <c r="F13">
-        <v>0.8691906816199418</v>
+        <v>0.8691906816199437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014793528451086</v>
+        <v>1.014793528451087</v>
       </c>
       <c r="J13">
-        <v>0.8877274346928606</v>
+        <v>0.8877274346928626</v>
       </c>
       <c r="K13">
-        <v>0.8911272175977354</v>
+        <v>0.8911272175977374</v>
       </c>
       <c r="L13">
-        <v>0.8965796714574096</v>
+        <v>0.8965796714574116</v>
       </c>
       <c r="M13">
-        <v>0.8872866264611042</v>
+        <v>0.8872866264611062</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8540228601408192</v>
+        <v>0.8540228601408213</v>
       </c>
       <c r="D14">
-        <v>0.8766510539632453</v>
+        <v>0.8766510539632471</v>
       </c>
       <c r="E14">
-        <v>0.8820847309964316</v>
+        <v>0.8820847309964334</v>
       </c>
       <c r="F14">
-        <v>0.8731152515640203</v>
+        <v>0.8731152515640214</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.015763887393915</v>
       </c>
       <c r="J14">
-        <v>0.8910880279615538</v>
+        <v>0.8910880279615556</v>
       </c>
       <c r="K14">
-        <v>0.8943662921066565</v>
+        <v>0.8943662921066583</v>
       </c>
       <c r="L14">
-        <v>0.899655445387369</v>
+        <v>0.8996554453873705</v>
       </c>
       <c r="M14">
-        <v>0.8909258494347575</v>
+        <v>0.8909258494347588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8564564759024208</v>
+        <v>0.8564564759024179</v>
       </c>
       <c r="D15">
-        <v>0.8787724785385592</v>
+        <v>0.878772478538557</v>
       </c>
       <c r="E15">
-        <v>0.8841029577215277</v>
+        <v>0.8841029577215255</v>
       </c>
       <c r="F15">
-        <v>0.8754863907810035</v>
+        <v>0.8754863907810015</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016349892166841</v>
       </c>
       <c r="J15">
-        <v>0.893118050926219</v>
+        <v>0.8931180509262164</v>
       </c>
       <c r="K15">
-        <v>0.8963230570747097</v>
+        <v>0.8963230570747073</v>
       </c>
       <c r="L15">
-        <v>0.9015136638738261</v>
+        <v>0.9015136638738239</v>
       </c>
       <c r="M15">
-        <v>0.8931243500894026</v>
+        <v>0.8931243500894005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8699486139516273</v>
+        <v>0.8699486139516255</v>
       </c>
       <c r="D16">
-        <v>0.8905497078545426</v>
+        <v>0.8905497078545411</v>
       </c>
       <c r="E16">
-        <v>0.8953106215994561</v>
+        <v>0.8953106215994548</v>
       </c>
       <c r="F16">
-        <v>0.8886446689037797</v>
+        <v>0.8886446689037779</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019596831963803</v>
       </c>
       <c r="J16">
-        <v>0.9043784981354552</v>
+        <v>0.9043784981354538</v>
       </c>
       <c r="K16">
-        <v>0.9071792100234219</v>
+        <v>0.9071792100234206</v>
       </c>
       <c r="L16">
-        <v>0.9118244984861376</v>
+        <v>0.9118244984861363</v>
       </c>
       <c r="M16">
-        <v>0.9053209048994368</v>
+        <v>0.9053209048994351</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -994,13 +994,13 @@
         <v>0.8778914252546973</v>
       </c>
       <c r="D17">
-        <v>0.8974950958771412</v>
+        <v>0.8974950958771416</v>
       </c>
       <c r="E17">
-        <v>0.9019227295900122</v>
+        <v>0.9019227295900119</v>
       </c>
       <c r="F17">
-        <v>0.8963996324131811</v>
+        <v>0.896399632413181</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.021505087854026</v>
       </c>
       <c r="J17">
-        <v>0.9110113346338202</v>
+        <v>0.9110113346338201</v>
       </c>
       <c r="K17">
-        <v>0.9135755901239045</v>
+        <v>0.9135755901239048</v>
       </c>
       <c r="L17">
-        <v>0.9179006849903405</v>
+        <v>0.9179006849903402</v>
       </c>
       <c r="M17">
         <v>0.9125057056193955</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8823607084682658</v>
+        <v>0.8823607084682676</v>
       </c>
       <c r="D18">
-        <v>0.9014069465471364</v>
+        <v>0.9014069465471384</v>
       </c>
       <c r="E18">
-        <v>0.9056477042703887</v>
+        <v>0.9056477042703907</v>
       </c>
       <c r="F18">
-        <v>0.9007656162474353</v>
+        <v>0.900765616247437</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022577149158409</v>
       </c>
       <c r="J18">
-        <v>0.9147444670988867</v>
+        <v>0.9147444670988887</v>
       </c>
       <c r="K18">
-        <v>0.9171762096279278</v>
+        <v>0.9171762096279296</v>
       </c>
       <c r="L18">
-        <v>0.9213214162720337</v>
+        <v>0.9213214162720356</v>
       </c>
       <c r="M18">
-        <v>0.916549434051862</v>
+        <v>0.9165494340518636</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.8838587892796309</v>
       </c>
       <c r="D19">
-        <v>0.9027187782376314</v>
+        <v>0.9027187782376316</v>
       </c>
       <c r="E19">
-        <v>0.9068970013618797</v>
+        <v>0.9068970013618802</v>
       </c>
       <c r="F19">
-        <v>0.9022294204172163</v>
+        <v>0.9022294204172165</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.022936169789843</v>
       </c>
       <c r="J19">
-        <v>0.9159959209217274</v>
+        <v>0.9159959209217277</v>
       </c>
       <c r="K19">
-        <v>0.9183833352505889</v>
+        <v>0.9183833352505892</v>
       </c>
       <c r="L19">
-        <v>0.922468289958621</v>
+        <v>0.9224682899586216</v>
       </c>
       <c r="M19">
-        <v>0.9179049764592687</v>
+        <v>0.9179049764592688</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.877056637244095</v>
+        <v>0.8770566372440946</v>
       </c>
       <c r="D20">
-        <v>0.8967647270383815</v>
+        <v>0.8967647270383813</v>
       </c>
       <c r="E20">
-        <v>0.9012273182906091</v>
+        <v>0.9012273182906092</v>
       </c>
       <c r="F20">
-        <v>0.8955843209669135</v>
+        <v>0.8955843209669131</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021304695923867</v>
       </c>
       <c r="J20">
-        <v>0.9103141166117983</v>
+        <v>0.910314116611798</v>
       </c>
       <c r="K20">
-        <v>0.9129031669152233</v>
+        <v>0.9129031669152234</v>
       </c>
       <c r="L20">
-        <v>0.9172618843728667</v>
+        <v>0.9172618843728669</v>
       </c>
       <c r="M20">
-        <v>0.9117504685905653</v>
+        <v>0.9117504685905649</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8528466780633913</v>
+        <v>0.8528466780633881</v>
       </c>
       <c r="D21">
-        <v>0.8756260785282135</v>
+        <v>0.8756260785282106</v>
       </c>
       <c r="E21">
-        <v>0.8811096828327311</v>
+        <v>0.8811096828327283</v>
       </c>
       <c r="F21">
-        <v>0.8719695338656869</v>
+        <v>0.8719695338656843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015480658790358</v>
+        <v>1.015480658790357</v>
       </c>
       <c r="J21">
-        <v>0.8901070350607977</v>
+        <v>0.8901070350607947</v>
       </c>
       <c r="K21">
-        <v>0.8934207404938854</v>
+        <v>0.8934207404938825</v>
       </c>
       <c r="L21">
-        <v>0.8987575419735926</v>
+        <v>0.8987575419735898</v>
       </c>
       <c r="M21">
-        <v>0.8898634840026248</v>
+        <v>0.8898634840026224</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8355361736186414</v>
+        <v>0.8355361736186403</v>
       </c>
       <c r="D22">
-        <v>0.8605660971485396</v>
+        <v>0.8605660971485385</v>
       </c>
       <c r="E22">
-        <v>0.8667883901781205</v>
+        <v>0.8667883901781196</v>
       </c>
       <c r="F22">
-        <v>0.8551296887668425</v>
+        <v>0.8551296887668419</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011314099510031</v>
       </c>
       <c r="J22">
-        <v>0.8756803677967256</v>
+        <v>0.8756803677967246</v>
       </c>
       <c r="K22">
-        <v>0.8795182191658414</v>
+        <v>0.8795182191658404</v>
       </c>
       <c r="L22">
-        <v>0.8855577709112372</v>
+        <v>0.8855577709112363</v>
       </c>
       <c r="M22">
-        <v>0.8742444701165198</v>
+        <v>0.8742444701165193</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8449505890607109</v>
+        <v>0.8449505890607151</v>
       </c>
       <c r="D23">
-        <v>0.8687506311626979</v>
+        <v>0.8687506311627021</v>
       </c>
       <c r="E23">
-        <v>0.8745702790402913</v>
+        <v>0.8745702790402955</v>
       </c>
       <c r="F23">
-        <v>0.8642827496977707</v>
+        <v>0.8642827496977744</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013579422298377</v>
+        <v>1.013579422298378</v>
       </c>
       <c r="J23">
-        <v>0.8835236733795645</v>
+        <v>0.8835236733795687</v>
       </c>
       <c r="K23">
-        <v>0.8870758871459613</v>
+        <v>0.8870758871459654</v>
       </c>
       <c r="L23">
-        <v>0.8927329014631057</v>
+        <v>0.8927329014631098</v>
       </c>
       <c r="M23">
-        <v>0.8827348984879421</v>
+        <v>0.8827348984879455</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8774343420094516</v>
+        <v>0.8774343420094524</v>
       </c>
       <c r="D24">
-        <v>0.8970951749459737</v>
+        <v>0.8970951749459745</v>
       </c>
       <c r="E24">
-        <v>0.9015419474158051</v>
+        <v>0.9015419474158057</v>
       </c>
       <c r="F24">
-        <v>0.8959532060921584</v>
+        <v>0.8959532060921591</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021395369836051</v>
       </c>
       <c r="J24">
-        <v>0.9106295741456996</v>
+        <v>0.9106295741457002</v>
       </c>
       <c r="K24">
-        <v>0.9132074042098868</v>
+        <v>0.9132074042098876</v>
       </c>
       <c r="L24">
-        <v>0.9175509080567483</v>
+        <v>0.917550908056749</v>
       </c>
       <c r="M24">
-        <v>0.9120921771905466</v>
+        <v>0.9120921771905469</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9087571243777768</v>
+        <v>0.9087571243777786</v>
       </c>
       <c r="D25">
-        <v>0.9245636639605384</v>
+        <v>0.9245636639605401</v>
       </c>
       <c r="E25">
-        <v>0.9277102695858011</v>
+        <v>0.9277102695858024</v>
       </c>
       <c r="F25">
-        <v>0.9265773894051311</v>
+        <v>0.9265773894051327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02886871916277</v>
+        <v>1.028868719162771</v>
       </c>
       <c r="J25">
-        <v>0.9368001990644932</v>
+        <v>0.9368001990644946</v>
       </c>
       <c r="K25">
-        <v>0.9384579812687983</v>
+        <v>0.9384579812687998</v>
       </c>
       <c r="L25">
-        <v>0.941545024445044</v>
+        <v>0.9415450244450453</v>
       </c>
       <c r="M25">
-        <v>0.9404335277696405</v>
+        <v>0.9404335277696418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9303869846141608</v>
+        <v>0.9336134084339839</v>
       </c>
       <c r="D2">
-        <v>0.9436007331212989</v>
+        <v>0.9465594322580917</v>
       </c>
       <c r="E2">
-        <v>0.945862992012202</v>
+        <v>0.948633335090512</v>
       </c>
       <c r="F2">
-        <v>0.9477428694074939</v>
+        <v>0.9502193159078823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033942105354746</v>
+        <v>1.034578887938331</v>
       </c>
       <c r="J2">
-        <v>0.954869738061223</v>
+        <v>0.9579787972915975</v>
       </c>
       <c r="K2">
-        <v>0.9559060365390943</v>
+        <v>0.9588171441610223</v>
       </c>
       <c r="L2">
-        <v>0.9581318719880471</v>
+        <v>0.9608579144817566</v>
       </c>
       <c r="M2">
-        <v>0.9599816520387321</v>
+        <v>0.9624186827974496</v>
+      </c>
+      <c r="N2">
+        <v>0.9593392370654557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9446706371459139</v>
+        <v>0.9478407171647205</v>
       </c>
       <c r="D3">
-        <v>0.9561999334179752</v>
+        <v>0.9591135121527415</v>
       </c>
       <c r="E3">
-        <v>0.9578843353419237</v>
+        <v>0.960611805416082</v>
       </c>
       <c r="F3">
-        <v>0.9617157303537123</v>
+        <v>0.9641366690539865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037230452728243</v>
+        <v>1.037854864574409</v>
       </c>
       <c r="J3">
-        <v>0.9667923580799807</v>
+        <v>0.9698618630697543</v>
       </c>
       <c r="K3">
-        <v>0.9674257148095581</v>
+        <v>0.9702977280320598</v>
       </c>
       <c r="L3">
-        <v>0.9690860478092391</v>
+        <v>0.971774770556775</v>
       </c>
       <c r="M3">
-        <v>0.9728630917436414</v>
+        <v>0.9752499689818653</v>
+      </c>
+      <c r="N3">
+        <v>0.9712391781600235</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9533740152231894</v>
+        <v>0.9565136715782477</v>
       </c>
       <c r="D4">
-        <v>0.9638870163557435</v>
+        <v>0.9667763592819476</v>
       </c>
       <c r="E4">
-        <v>0.9652217689088243</v>
+        <v>0.9679261886020101</v>
       </c>
       <c r="F4">
-        <v>0.9702245121703529</v>
+        <v>0.9726152004572478</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039202664217629</v>
+        <v>1.039820428916699</v>
       </c>
       <c r="J4">
-        <v>0.9740505975974687</v>
+        <v>0.9770991976967591</v>
       </c>
       <c r="K4">
-        <v>0.974441761477724</v>
+        <v>0.977293022854911</v>
       </c>
       <c r="L4">
-        <v>0.9757588864568462</v>
+        <v>0.9784277766674631</v>
       </c>
       <c r="M4">
-        <v>0.9806961008330473</v>
+        <v>0.983055772365079</v>
+      </c>
+      <c r="N4">
+        <v>0.978486790632333</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569178889214168</v>
+        <v>0.9600459488991299</v>
       </c>
       <c r="D5">
-        <v>0.9670191670954604</v>
+        <v>0.9698993028211882</v>
       </c>
       <c r="E5">
-        <v>0.9682120916143773</v>
+        <v>0.9709077497323776</v>
       </c>
       <c r="F5">
-        <v>0.9736874956073223</v>
+        <v>0.9760665923324754</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039997798435311</v>
+        <v>1.040613040508416</v>
       </c>
       <c r="J5">
-        <v>0.9770042411779477</v>
+        <v>0.9800449793198652</v>
       </c>
       <c r="K5">
-        <v>0.9772975742705224</v>
+        <v>0.9801410101344633</v>
       </c>
       <c r="L5">
-        <v>0.978475264968438</v>
+        <v>0.9811366712515669</v>
       </c>
       <c r="M5">
-        <v>0.9838813446020196</v>
+        <v>0.9862306216235462</v>
+      </c>
+      <c r="N5">
+        <v>0.9814367556032297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9575065363616689</v>
+        <v>0.9606327131650678</v>
       </c>
       <c r="D6">
-        <v>0.9675395412173414</v>
+        <v>0.9704181835710121</v>
       </c>
       <c r="E6">
-        <v>0.9687089385341049</v>
+        <v>0.9714031752916135</v>
       </c>
       <c r="F6">
-        <v>0.9742625990803588</v>
+        <v>0.9766398099298692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040129396222562</v>
+        <v>1.040744229383453</v>
       </c>
       <c r="J6">
-        <v>0.9774947380575346</v>
+        <v>0.9805342057124955</v>
       </c>
       <c r="K6">
-        <v>0.9777718671624646</v>
+        <v>0.9806140371832354</v>
       </c>
       <c r="L6">
-        <v>0.978926415604254</v>
+        <v>0.9815866110056349</v>
       </c>
       <c r="M6">
-        <v>0.9844101630448667</v>
+        <v>0.986757750744965</v>
+      </c>
+      <c r="N6">
+        <v>0.9819266767534526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9534218039711516</v>
+        <v>0.9565613009674779</v>
       </c>
       <c r="D7">
-        <v>0.9639292451114548</v>
+        <v>0.9668184613862413</v>
       </c>
       <c r="E7">
-        <v>0.9652620830199505</v>
+        <v>0.967966382210299</v>
       </c>
       <c r="F7">
-        <v>0.9702712171904286</v>
+        <v>0.9726617464279136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039213418493584</v>
+        <v>1.039831148477153</v>
       </c>
       <c r="J7">
-        <v>0.9740904345764207</v>
+        <v>0.9771389262046711</v>
       </c>
       <c r="K7">
-        <v>0.9744802761044762</v>
+        <v>0.9773314295997305</v>
       </c>
       <c r="L7">
-        <v>0.9757955195920118</v>
+        <v>0.9784643066502071</v>
       </c>
       <c r="M7">
-        <v>0.9807390708173785</v>
+        <v>0.9830985996010895</v>
+      </c>
+      <c r="N7">
+        <v>0.978526575559283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9353351754962009</v>
+        <v>0.9385411337283894</v>
       </c>
       <c r="D8">
-        <v>0.947962995106449</v>
+        <v>0.9509052754407673</v>
       </c>
       <c r="E8">
-        <v>0.9500245113708047</v>
+        <v>0.9527792589175461</v>
       </c>
       <c r="F8">
-        <v>0.9525842441362058</v>
+        <v>0.9550405977740293</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035087792607151</v>
+        <v>1.035720076442588</v>
       </c>
       <c r="J8">
-        <v>0.9590012524406735</v>
+        <v>0.9620958366941291</v>
       </c>
       <c r="K8">
-        <v>0.9598972363973096</v>
+        <v>0.9627940590682347</v>
       </c>
       <c r="L8">
-        <v>0.9619268649322662</v>
+        <v>0.9646392765728852</v>
       </c>
       <c r="M8">
-        <v>0.9644472485710884</v>
+        <v>0.9668660950990576</v>
+      </c>
+      <c r="N8">
+        <v>0.9634621231361695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.898516297357361</v>
+        <v>0.9019022115603781</v>
       </c>
       <c r="D9">
-        <v>0.915569373064</v>
+        <v>0.9186567843380097</v>
       </c>
       <c r="E9">
-        <v>0.919138527472073</v>
+        <v>0.9220309630392659</v>
       </c>
       <c r="F9">
-        <v>0.9165592872165144</v>
+        <v>0.9191902907054373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026437773870719</v>
+        <v>1.027109609032648</v>
       </c>
       <c r="J9">
-        <v>0.9282426964343573</v>
+        <v>0.9314674398712987</v>
       </c>
       <c r="K9">
-        <v>0.9301988893791149</v>
+        <v>0.9332235630222652</v>
       </c>
       <c r="L9">
-        <v>0.9336955669696997</v>
+        <v>0.9365298089778796</v>
       </c>
       <c r="M9">
-        <v>0.931168627344323</v>
+        <v>0.9337462845286392</v>
+      </c>
+      <c r="N9">
+        <v>0.9327902304767248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8690272567443464</v>
+        <v>0.8726143762538503</v>
       </c>
       <c r="D10">
-        <v>0.8897446217631719</v>
+        <v>0.8929954504441756</v>
       </c>
       <c r="E10">
-        <v>0.8945442923218965</v>
+        <v>0.8975914465696655</v>
       </c>
       <c r="F10">
-        <v>0.8877454880533729</v>
+        <v>0.8905680121098616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01937527805531</v>
+        <v>1.020091011307868</v>
       </c>
       <c r="J10">
-        <v>0.903609258881361</v>
+        <v>0.906984280522332</v>
       </c>
       <c r="K10">
-        <v>0.9064374760380896</v>
+        <v>0.9096087400763971</v>
       </c>
       <c r="L10">
-        <v>0.9111199471389273</v>
+        <v>0.9140935685985349</v>
       </c>
       <c r="M10">
-        <v>0.904487661403173</v>
+        <v>0.9072406398119228</v>
+      </c>
+      <c r="N10">
+        <v>0.9082723022332245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.854490228208643</v>
+        <v>0.8582016920092793</v>
       </c>
       <c r="D11">
-        <v>0.8770583970648974</v>
+        <v>0.8804105008941564</v>
       </c>
       <c r="E11">
-        <v>0.8824722442319887</v>
+        <v>0.8856151704906293</v>
       </c>
       <c r="F11">
-        <v>0.8735705634290241</v>
+        <v>0.8765101776643361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015876430203497</v>
+        <v>1.016619072871852</v>
       </c>
       <c r="J11">
-        <v>0.8914778594524614</v>
+        <v>0.8949471380360957</v>
       </c>
       <c r="K11">
-        <v>0.8947420469823983</v>
+        <v>0.8980049402946184</v>
       </c>
       <c r="L11">
-        <v>0.9000122703822793</v>
+        <v>0.9030729093690274</v>
       </c>
       <c r="M11">
-        <v>0.8913480251478987</v>
+        <v>0.8942085057554499</v>
+      </c>
+      <c r="N11">
+        <v>0.8962180656239788</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8487428202170907</v>
+        <v>0.8525090597978893</v>
       </c>
       <c r="D12">
-        <v>0.8720514676558986</v>
+        <v>0.87544822622726</v>
       </c>
       <c r="E12">
-        <v>0.8777095364247647</v>
+        <v>0.8808946697475796</v>
       </c>
       <c r="F12">
-        <v>0.8679733937734512</v>
+        <v>0.8709643536052094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014492455826605</v>
+        <v>1.015246902639132</v>
       </c>
       <c r="J12">
-        <v>0.8866849160840632</v>
+        <v>0.890195951090907</v>
       </c>
       <c r="K12">
-        <v>0.8901224577069108</v>
+        <v>0.8934258878121291</v>
       </c>
       <c r="L12">
-        <v>0.8956256118628306</v>
+        <v>0.8987247280333717</v>
       </c>
       <c r="M12">
-        <v>0.8861577500311909</v>
+        <v>0.8890654227263897</v>
+      </c>
+      <c r="N12">
+        <v>0.8914601314483589</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8499931657435732</v>
+        <v>0.8537471946733554</v>
       </c>
       <c r="D13">
-        <v>0.8731402883667893</v>
+        <v>0.8765270907039039</v>
       </c>
       <c r="E13">
-        <v>0.8787451589419694</v>
+        <v>0.8819208827839369</v>
       </c>
       <c r="F13">
-        <v>0.8691906816199437</v>
+        <v>0.8721702066501068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014793528451087</v>
+        <v>1.015545346401933</v>
       </c>
       <c r="J13">
-        <v>0.8877274346928626</v>
+        <v>0.8912291505102785</v>
       </c>
       <c r="K13">
-        <v>0.8911272175977374</v>
+        <v>0.8944216033163793</v>
       </c>
       <c r="L13">
-        <v>0.8965796714574116</v>
+        <v>0.8996702036965565</v>
       </c>
       <c r="M13">
-        <v>0.8872866264611062</v>
+        <v>0.8901837870442132</v>
+      </c>
+      <c r="N13">
+        <v>0.8924947981294153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8540228601408213</v>
+        <v>0.8577386514082054</v>
       </c>
       <c r="D14">
-        <v>0.8766510539632471</v>
+        <v>0.8800066848847984</v>
       </c>
       <c r="E14">
-        <v>0.8820847309964334</v>
+        <v>0.8852309914524064</v>
       </c>
       <c r="F14">
-        <v>0.8731152515640214</v>
+        <v>0.8760589270787915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015763887393915</v>
+        <v>1.01650746370111</v>
       </c>
       <c r="J14">
-        <v>0.8910880279615556</v>
+        <v>0.8945606007569209</v>
       </c>
       <c r="K14">
-        <v>0.8943662921066583</v>
+        <v>0.8976323845349573</v>
       </c>
       <c r="L14">
-        <v>0.8996554453873705</v>
+        <v>0.9027191213451194</v>
       </c>
       <c r="M14">
-        <v>0.8909258494347588</v>
+        <v>0.8937900617884638</v>
+      </c>
+      <c r="N14">
+        <v>0.8958309794175311</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8564564759024179</v>
+        <v>0.8601499712559443</v>
       </c>
       <c r="D15">
-        <v>0.878772478538557</v>
+        <v>0.8821099387841314</v>
       </c>
       <c r="E15">
-        <v>0.8841029577215255</v>
+        <v>0.8872320404116448</v>
       </c>
       <c r="F15">
-        <v>0.8754863907810015</v>
+        <v>0.8784091326103427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016349892166841</v>
+        <v>1.017088656183628</v>
       </c>
       <c r="J15">
-        <v>0.8931180509262164</v>
+        <v>0.8965736604291189</v>
       </c>
       <c r="K15">
-        <v>0.8963230570747073</v>
+        <v>0.8995726737341685</v>
       </c>
       <c r="L15">
-        <v>0.9015136638738239</v>
+        <v>0.9045616983659452</v>
       </c>
       <c r="M15">
-        <v>0.8931243500894005</v>
+        <v>0.8959693292875019</v>
+      </c>
+      <c r="N15">
+        <v>0.8978468978653645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8699486139516255</v>
+        <v>0.8735284780590231</v>
       </c>
       <c r="D16">
-        <v>0.8905497078545411</v>
+        <v>0.8937946322444488</v>
       </c>
       <c r="E16">
-        <v>0.8953106215994548</v>
+        <v>0.8983521900818198</v>
       </c>
       <c r="F16">
-        <v>0.8886446689037779</v>
+        <v>0.8914603350966482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019596831963803</v>
+        <v>1.020310989990929</v>
       </c>
       <c r="J16">
-        <v>0.9043784981354538</v>
+        <v>0.9077480466489748</v>
       </c>
       <c r="K16">
-        <v>0.9071792100234206</v>
+        <v>0.9103451473418448</v>
       </c>
       <c r="L16">
-        <v>0.9118244984861363</v>
+        <v>0.9147930592095185</v>
       </c>
       <c r="M16">
-        <v>0.9053209048994351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.908067592945258</v>
+      </c>
+      <c r="N16">
+        <v>0.9090371529953725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8778914252546973</v>
+        <v>0.881411545270304</v>
       </c>
       <c r="D17">
-        <v>0.8974950958771416</v>
+        <v>0.9006914286452742</v>
       </c>
       <c r="E17">
-        <v>0.9019227295900119</v>
+        <v>0.9049183169728726</v>
       </c>
       <c r="F17">
-        <v>0.896399632413181</v>
+        <v>0.8991587049319123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021505087854026</v>
+        <v>1.02220625278229</v>
       </c>
       <c r="J17">
-        <v>0.9110113346338201</v>
+        <v>0.9143359480277677</v>
       </c>
       <c r="K17">
-        <v>0.9135755901239048</v>
+        <v>0.9166977642563996</v>
       </c>
       <c r="L17">
-        <v>0.9179006849903402</v>
+        <v>0.9208276577188479</v>
       </c>
       <c r="M17">
-        <v>0.9125057056193955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9152005135072785</v>
+      </c>
+      <c r="N17">
+        <v>0.9156344099497662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8823607084682676</v>
+        <v>0.8858493051891927</v>
       </c>
       <c r="D18">
-        <v>0.9014069465471384</v>
+        <v>0.9045776624912316</v>
       </c>
       <c r="E18">
-        <v>0.9056477042703907</v>
+        <v>0.9086190426732046</v>
       </c>
       <c r="F18">
-        <v>0.900765616247437</v>
+        <v>0.9034947324838202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022577149158409</v>
+        <v>1.023271442481836</v>
       </c>
       <c r="J18">
-        <v>0.9147444670988887</v>
+        <v>0.9180454763089192</v>
       </c>
       <c r="K18">
-        <v>0.9171762096279296</v>
+        <v>0.9202753716217165</v>
       </c>
       <c r="L18">
-        <v>0.9213214162720356</v>
+        <v>0.9242265128679561</v>
       </c>
       <c r="M18">
-        <v>0.9165494340518636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9192168049415488</v>
+      </c>
+      <c r="N18">
+        <v>0.9193492061865658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8838587892796309</v>
+        <v>0.8873371388255361</v>
       </c>
       <c r="D19">
-        <v>0.9027187782376316</v>
+        <v>0.9058811707486225</v>
       </c>
       <c r="E19">
-        <v>0.9068970013618802</v>
+        <v>0.9098604594321498</v>
       </c>
       <c r="F19">
-        <v>0.9022294204172165</v>
+        <v>0.9049487835351223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022936169789843</v>
+        <v>1.02362822701086</v>
       </c>
       <c r="J19">
-        <v>0.9159959209217277</v>
+        <v>0.9192892745539248</v>
       </c>
       <c r="K19">
-        <v>0.9183833352505892</v>
+        <v>0.9214750298414044</v>
       </c>
       <c r="L19">
-        <v>0.9224682899586216</v>
+        <v>0.9253662865332037</v>
       </c>
       <c r="M19">
-        <v>0.9179049764592688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9205634185143501</v>
+      </c>
+      <c r="N19">
+        <v>0.920594770767745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8770566372440946</v>
+        <v>0.8805828076813333</v>
       </c>
       <c r="D20">
-        <v>0.8967647270383813</v>
+        <v>0.8999659784330856</v>
       </c>
       <c r="E20">
-        <v>0.9012273182906092</v>
+        <v>0.9042275609756192</v>
       </c>
       <c r="F20">
-        <v>0.8955843209669131</v>
+        <v>0.8983491353054114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021304695923867</v>
+        <v>1.022007178490839</v>
       </c>
       <c r="J20">
-        <v>0.910314116611798</v>
+        <v>0.9136432692445065</v>
       </c>
       <c r="K20">
-        <v>0.9129031669152234</v>
+        <v>0.9160297644758397</v>
       </c>
       <c r="L20">
-        <v>0.9172618843728669</v>
+        <v>0.9201930615237643</v>
       </c>
       <c r="M20">
-        <v>0.9117504685905649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9144505374537744</v>
+      </c>
+      <c r="N20">
+        <v>0.9149407474831811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8528466780633881</v>
+        <v>0.8565734573595947</v>
       </c>
       <c r="D21">
-        <v>0.8756260785282106</v>
+        <v>0.8789906658479045</v>
       </c>
       <c r="E21">
-        <v>0.8811096828327283</v>
+        <v>0.8842644095214888</v>
       </c>
       <c r="F21">
-        <v>0.8719695338656843</v>
+        <v>0.8749235177292548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015480658790357</v>
+        <v>1.016226604897814</v>
       </c>
       <c r="J21">
-        <v>0.8901070350607947</v>
+        <v>0.8935879760312752</v>
       </c>
       <c r="K21">
-        <v>0.8934207404938825</v>
+        <v>0.8966949586400633</v>
       </c>
       <c r="L21">
-        <v>0.8987575419735898</v>
+        <v>0.9018289314894105</v>
       </c>
       <c r="M21">
-        <v>0.8898634840026224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8927371690832951</v>
+      </c>
+      <c r="N21">
+        <v>0.8948569734532128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8355361736186403</v>
+        <v>0.8394423023312173</v>
       </c>
       <c r="D22">
-        <v>0.8605660971485385</v>
+        <v>0.8640769753335711</v>
       </c>
       <c r="E22">
-        <v>0.8667883901781196</v>
+        <v>0.870081338530885</v>
       </c>
       <c r="F22">
-        <v>0.8551296887668419</v>
+        <v>0.8582512384759028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011314099510031</v>
+        <v>1.012098565936451</v>
       </c>
       <c r="J22">
-        <v>0.8756803677967246</v>
+        <v>0.8792985506330356</v>
       </c>
       <c r="K22">
-        <v>0.8795182191658404</v>
+        <v>0.8829255429861045</v>
       </c>
       <c r="L22">
-        <v>0.8855577709112363</v>
+        <v>0.8887554574623234</v>
       </c>
       <c r="M22">
-        <v>0.8742444701165193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8772722754724867</v>
+      </c>
+      <c r="N22">
+        <v>0.8805472554318882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8449505890607151</v>
+        <v>0.8487549079944107</v>
       </c>
       <c r="D23">
-        <v>0.8687506311627021</v>
+        <v>0.8721784444447763</v>
       </c>
       <c r="E23">
-        <v>0.8745702790402955</v>
+        <v>0.877784758116216</v>
       </c>
       <c r="F23">
-        <v>0.8642827496977744</v>
+        <v>0.8673093303004343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013579422298378</v>
+        <v>1.014342058259549</v>
       </c>
       <c r="J23">
-        <v>0.8835236733795687</v>
+        <v>0.8870638077595744</v>
       </c>
       <c r="K23">
-        <v>0.8870758871459654</v>
+        <v>0.8904075495080526</v>
       </c>
       <c r="L23">
-        <v>0.8927329014631098</v>
+        <v>0.8958588093380561</v>
       </c>
       <c r="M23">
-        <v>0.8827348984879455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8856753255091866</v>
+      </c>
+      <c r="N23">
+        <v>0.8883235401142339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8774343420094524</v>
+        <v>0.8809577684423496</v>
       </c>
       <c r="D24">
-        <v>0.8970951749459745</v>
+        <v>0.9002941955603426</v>
       </c>
       <c r="E24">
-        <v>0.9015419474158057</v>
+        <v>0.9045400787746881</v>
       </c>
       <c r="F24">
-        <v>0.8959532060921591</v>
+        <v>0.8987154166886581</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021395369836051</v>
+        <v>1.022097254874169</v>
       </c>
       <c r="J24">
-        <v>0.9106295741457002</v>
+        <v>0.9139566677923033</v>
       </c>
       <c r="K24">
-        <v>0.9132074042098876</v>
+        <v>0.9163319953913607</v>
       </c>
       <c r="L24">
-        <v>0.917550908056749</v>
+        <v>0.9204801781900452</v>
       </c>
       <c r="M24">
-        <v>0.9120921771905469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.914789860282193</v>
+      </c>
+      <c r="N24">
+        <v>0.9152545910928636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9087571243777786</v>
+        <v>0.9120861132769342</v>
       </c>
       <c r="D25">
-        <v>0.9245636639605401</v>
+        <v>0.927605014194804</v>
       </c>
       <c r="E25">
-        <v>0.9277102695858024</v>
+        <v>0.9305590423277265</v>
       </c>
       <c r="F25">
-        <v>0.9265773894051327</v>
+        <v>0.9291535821820701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028868719162771</v>
+        <v>1.029528059197718</v>
       </c>
       <c r="J25">
-        <v>0.9368001990644946</v>
+        <v>0.9399831767296849</v>
       </c>
       <c r="K25">
-        <v>0.9384579812687998</v>
+        <v>0.9414417529103932</v>
       </c>
       <c r="L25">
-        <v>0.9415450244450453</v>
+        <v>0.9443403259233101</v>
       </c>
       <c r="M25">
-        <v>0.9404335277696418</v>
+        <v>0.9429611926535769</v>
+      </c>
+      <c r="N25">
+        <v>0.9413180606582185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9336134084339839</v>
+        <v>0.9340304346064969</v>
       </c>
       <c r="D2">
-        <v>0.9465594322580917</v>
+        <v>0.9431757803465309</v>
       </c>
       <c r="E2">
-        <v>0.948633335090512</v>
+        <v>0.9490272596663279</v>
       </c>
       <c r="F2">
-        <v>0.9502193159078823</v>
+        <v>0.9505393804005393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034578887938331</v>
+        <v>1.034661199809627</v>
       </c>
       <c r="J2">
-        <v>0.9579787972915975</v>
+        <v>0.9583807366917586</v>
       </c>
       <c r="K2">
-        <v>0.9588171441610223</v>
+        <v>0.9554879507291373</v>
       </c>
       <c r="L2">
-        <v>0.9608579144817566</v>
+        <v>0.9612455667186562</v>
       </c>
       <c r="M2">
-        <v>0.9624186827974496</v>
+        <v>0.9627336722591133</v>
       </c>
       <c r="N2">
-        <v>0.9593392370654557</v>
+        <v>0.9597417472656682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9478407171647205</v>
+        <v>0.9479603688249187</v>
       </c>
       <c r="D3">
-        <v>0.9591135121527415</v>
+        <v>0.956257343560613</v>
       </c>
       <c r="E3">
-        <v>0.960611805416082</v>
+        <v>0.9607451982321045</v>
       </c>
       <c r="F3">
-        <v>0.9641366690539865</v>
+        <v>0.9642280400643802</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037854864574409</v>
+        <v>1.037878433781775</v>
       </c>
       <c r="J3">
-        <v>0.9698618630697543</v>
+        <v>0.969977736842546</v>
       </c>
       <c r="K3">
-        <v>0.9702977280320598</v>
+        <v>0.9674823028345544</v>
       </c>
       <c r="L3">
-        <v>0.971774770556775</v>
+        <v>0.9719062754850444</v>
       </c>
       <c r="M3">
-        <v>0.9752499689818653</v>
+        <v>0.9753400586755036</v>
       </c>
       <c r="N3">
-        <v>0.9712391781600235</v>
+        <v>0.971355216486864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9565136715782477</v>
+        <v>0.9564577393912994</v>
       </c>
       <c r="D4">
-        <v>0.9667763592819476</v>
+        <v>0.9642455435475529</v>
       </c>
       <c r="E4">
-        <v>0.9679261886020101</v>
+        <v>0.9679052710122663</v>
       </c>
       <c r="F4">
-        <v>0.9726152004572478</v>
+        <v>0.9725726128250528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039820428916699</v>
+        <v>1.039809423011767</v>
       </c>
       <c r="J4">
-        <v>0.9770991976967591</v>
+        <v>0.9770448804882635</v>
       </c>
       <c r="K4">
-        <v>0.977293022854911</v>
+        <v>0.9747955477228627</v>
       </c>
       <c r="L4">
-        <v>0.9784277766674631</v>
+        <v>0.978407132929159</v>
       </c>
       <c r="M4">
-        <v>0.983055772365079</v>
+        <v>0.9830137355949318</v>
       </c>
       <c r="N4">
-        <v>0.978486790632333</v>
+        <v>0.978432396287171</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9600459488991299</v>
+        <v>0.9599196323876446</v>
       </c>
       <c r="D5">
-        <v>0.9698993028211882</v>
+        <v>0.9675017454076916</v>
       </c>
       <c r="E5">
-        <v>0.9709077497323776</v>
+        <v>0.9708248835370501</v>
       </c>
       <c r="F5">
-        <v>0.9760665923324754</v>
+        <v>0.9759705241163563</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040613040508416</v>
+        <v>1.040588194700392</v>
       </c>
       <c r="J5">
-        <v>0.9800449793198652</v>
+        <v>0.9799221739697177</v>
       </c>
       <c r="K5">
-        <v>0.9801410101344633</v>
+        <v>0.977773984333382</v>
       </c>
       <c r="L5">
-        <v>0.9811366712515669</v>
+        <v>0.9810548544413238</v>
       </c>
       <c r="M5">
-        <v>0.9862306216235462</v>
+        <v>0.986135754019734</v>
       </c>
       <c r="N5">
-        <v>0.9814367556032297</v>
+        <v>0.981313775855399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9606327131650678</v>
+        <v>0.9604947651826277</v>
       </c>
       <c r="D6">
-        <v>0.9704181835710121</v>
+        <v>0.9680428026214964</v>
       </c>
       <c r="E6">
-        <v>0.9714031752916135</v>
+        <v>0.9713100668530721</v>
       </c>
       <c r="F6">
-        <v>0.9766398099298692</v>
+        <v>0.9765349155134584</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040744229383453</v>
+        <v>1.040717097434449</v>
       </c>
       <c r="J6">
-        <v>0.9805342057124955</v>
+        <v>0.980400067689813</v>
       </c>
       <c r="K6">
-        <v>0.9806140371832354</v>
+        <v>0.9782687327191855</v>
       </c>
       <c r="L6">
-        <v>0.9815866110056349</v>
+        <v>0.9814946750507253</v>
       </c>
       <c r="M6">
-        <v>0.986757750744965</v>
+        <v>0.9866541596611523</v>
       </c>
       <c r="N6">
-        <v>0.9819266767534526</v>
+        <v>0.9817923482393917</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9565613009674779</v>
+        <v>0.9565044155076479</v>
       </c>
       <c r="D7">
-        <v>0.9668184613862413</v>
+        <v>0.9642894397107095</v>
       </c>
       <c r="E7">
-        <v>0.967966382210299</v>
+        <v>0.9679446259399727</v>
       </c>
       <c r="F7">
-        <v>0.9726617464279136</v>
+        <v>0.9726184336397876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039831148477153</v>
+        <v>1.039819955055735</v>
       </c>
       <c r="J7">
-        <v>0.9771389262046711</v>
+        <v>0.9770836824167412</v>
       </c>
       <c r="K7">
-        <v>0.9773314295997305</v>
+        <v>0.9748357098597452</v>
       </c>
       <c r="L7">
-        <v>0.9784643066502071</v>
+        <v>0.9784428350852969</v>
       </c>
       <c r="M7">
-        <v>0.9830985996010895</v>
+        <v>0.9830558467983732</v>
       </c>
       <c r="N7">
-        <v>0.978526575559283</v>
+        <v>0.9784712533188379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9385411337283894</v>
+        <v>0.9388537633633296</v>
       </c>
       <c r="D8">
-        <v>0.9509052754407673</v>
+        <v>0.947703385510787</v>
       </c>
       <c r="E8">
-        <v>0.9527792589175461</v>
+        <v>0.9530818434812235</v>
       </c>
       <c r="F8">
-        <v>0.9550405977740293</v>
+        <v>0.9552801131342152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035720076442588</v>
+        <v>1.035781737692671</v>
       </c>
       <c r="J8">
-        <v>0.9620958366941291</v>
+        <v>0.9623976625004776</v>
       </c>
       <c r="K8">
-        <v>0.9627940590682347</v>
+        <v>0.959641655033727</v>
       </c>
       <c r="L8">
-        <v>0.9646392765728852</v>
+        <v>0.9649372299414147</v>
       </c>
       <c r="M8">
-        <v>0.9668660950990576</v>
+        <v>0.9671019663538201</v>
       </c>
       <c r="N8">
-        <v>0.9634621231361695</v>
+        <v>0.9637643775697829</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9019022115603781</v>
+        <v>0.9030331161336345</v>
       </c>
       <c r="D9">
-        <v>0.9186567843380097</v>
+        <v>0.9141319542941313</v>
       </c>
       <c r="E9">
-        <v>0.9220309630392659</v>
+        <v>0.9230455557788748</v>
       </c>
       <c r="F9">
-        <v>0.9191902907054373</v>
+        <v>0.9200689231582294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027109609032648</v>
+        <v>1.027334024403872</v>
       </c>
       <c r="J9">
-        <v>0.9314674398712987</v>
+        <v>0.932544900342403</v>
       </c>
       <c r="K9">
-        <v>0.9332235630222652</v>
+        <v>0.9287908703419679</v>
       </c>
       <c r="L9">
-        <v>0.9365298089778796</v>
+        <v>0.9375241025331454</v>
       </c>
       <c r="M9">
-        <v>0.9337462845286392</v>
+        <v>0.9346071912652195</v>
       </c>
       <c r="N9">
-        <v>0.9327902304767248</v>
+        <v>0.9338692210652846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8726143762538503</v>
+        <v>0.8744883559151784</v>
       </c>
       <c r="D10">
-        <v>0.8929954504441756</v>
+        <v>0.8874750353305048</v>
       </c>
       <c r="E10">
-        <v>0.8975914465696655</v>
+        <v>0.8992441135429836</v>
       </c>
       <c r="F10">
-        <v>0.8905680121098616</v>
+        <v>0.8920421821347758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020091011307868</v>
+        <v>1.020464969361337</v>
       </c>
       <c r="J10">
-        <v>0.906984280522332</v>
+        <v>0.9087484699126537</v>
       </c>
       <c r="K10">
-        <v>0.9096087400763971</v>
+        <v>0.9042239038014205</v>
       </c>
       <c r="L10">
-        <v>0.9140935685985349</v>
+        <v>0.9157066337486719</v>
       </c>
       <c r="M10">
-        <v>0.9072406398119228</v>
+        <v>0.9086787223437864</v>
       </c>
       <c r="N10">
-        <v>0.9082723022332245</v>
+        <v>0.9100389969748361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8582016920092793</v>
+        <v>0.8604812935249049</v>
       </c>
       <c r="D11">
-        <v>0.8804105008941564</v>
+        <v>0.8744289898851523</v>
       </c>
       <c r="E11">
-        <v>0.8856151704906293</v>
+        <v>0.8876125442061202</v>
       </c>
       <c r="F11">
-        <v>0.8765101776643361</v>
+        <v>0.8783151262878042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016619072871852</v>
+        <v>1.017075272057461</v>
       </c>
       <c r="J11">
-        <v>0.8949471380360957</v>
+        <v>0.8970795165808902</v>
       </c>
       <c r="K11">
-        <v>0.8980049402946184</v>
+        <v>0.8921832681842442</v>
       </c>
       <c r="L11">
-        <v>0.9030729093690274</v>
+        <v>0.9050183983901025</v>
       </c>
       <c r="M11">
-        <v>0.8942085057554499</v>
+        <v>0.8959652221183301</v>
       </c>
       <c r="N11">
-        <v>0.8962180656239788</v>
+        <v>0.8983534723908937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8525090597978893</v>
+        <v>0.8549578281488228</v>
       </c>
       <c r="D12">
-        <v>0.87544822622726</v>
+        <v>0.869291214665471</v>
       </c>
       <c r="E12">
-        <v>0.8808946697475796</v>
+        <v>0.88303505571855</v>
       </c>
       <c r="F12">
-        <v>0.8709643536052094</v>
+        <v>0.8729083588527552</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015246902639132</v>
+        <v>1.015737508843297</v>
       </c>
       <c r="J12">
-        <v>0.890195951090907</v>
+        <v>0.8924805731920137</v>
       </c>
       <c r="K12">
-        <v>0.8934258878121291</v>
+        <v>0.8874387780911697</v>
       </c>
       <c r="L12">
-        <v>0.8987247280333717</v>
+        <v>0.9008077846552857</v>
       </c>
       <c r="M12">
-        <v>0.8890654227263897</v>
+        <v>0.890955711786552</v>
       </c>
       <c r="N12">
-        <v>0.8914601314483589</v>
+        <v>0.8937479979748986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8537471946733554</v>
+        <v>0.8561586999789784</v>
       </c>
       <c r="D13">
-        <v>0.8765270907039039</v>
+        <v>0.8704078997866914</v>
       </c>
       <c r="E13">
-        <v>0.8819208827839369</v>
+        <v>0.8840298044654764</v>
       </c>
       <c r="F13">
-        <v>0.8721702066501068</v>
+        <v>0.874083527536892</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015545346401933</v>
+        <v>1.016028368614184</v>
       </c>
       <c r="J13">
-        <v>0.8912291505102785</v>
+        <v>0.8934803017319491</v>
       </c>
       <c r="K13">
-        <v>0.8944216033163793</v>
+        <v>0.8884701035576521</v>
       </c>
       <c r="L13">
-        <v>0.8996702036965565</v>
+        <v>0.9017230107548037</v>
       </c>
       <c r="M13">
-        <v>0.8901837870442132</v>
+        <v>0.8920446203176148</v>
       </c>
       <c r="N13">
-        <v>0.8924947981294153</v>
+        <v>0.8947491462440315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8577386514082054</v>
+        <v>0.8600318105791325</v>
       </c>
       <c r="D14">
-        <v>0.8800066848847984</v>
+        <v>0.8740107478971983</v>
       </c>
       <c r="E14">
-        <v>0.8852309914524064</v>
+        <v>0.8872398428669271</v>
       </c>
       <c r="F14">
-        <v>0.8760589270787915</v>
+        <v>0.8778749969255403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01650746370111</v>
+        <v>1.016966418195525</v>
       </c>
       <c r="J14">
-        <v>0.8945606007569209</v>
+        <v>0.8967052084935149</v>
       </c>
       <c r="K14">
-        <v>0.8976323845349573</v>
+        <v>0.8917970951829615</v>
       </c>
       <c r="L14">
-        <v>0.9027191213451194</v>
+        <v>0.904675658406267</v>
       </c>
       <c r="M14">
-        <v>0.8937900617884638</v>
+        <v>0.8955574687732427</v>
       </c>
       <c r="N14">
-        <v>0.8958309794175311</v>
+        <v>0.8979786327431007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8601499712559443</v>
+        <v>0.8623729070370055</v>
       </c>
       <c r="D15">
-        <v>0.8821099387841314</v>
+        <v>0.8761894073681396</v>
       </c>
       <c r="E15">
-        <v>0.8872320404116448</v>
+        <v>0.8891814111847416</v>
       </c>
       <c r="F15">
-        <v>0.8784091326103427</v>
+        <v>0.8801676434481815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017088656183628</v>
+        <v>1.017533343539536</v>
       </c>
       <c r="J15">
-        <v>0.8965736604291189</v>
+        <v>0.8986548725489657</v>
       </c>
       <c r="K15">
-        <v>0.8995726737341685</v>
+        <v>0.8938085978041228</v>
       </c>
       <c r="L15">
-        <v>0.9045616983659452</v>
+        <v>0.9064609673287284</v>
       </c>
       <c r="M15">
-        <v>0.8959693292875019</v>
+        <v>0.8976813906260813</v>
       </c>
       <c r="N15">
-        <v>0.8978468978653645</v>
+        <v>0.8999310655451397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8735284780590231</v>
+        <v>0.8753777294210442</v>
       </c>
       <c r="D16">
-        <v>0.8937946322444488</v>
+        <v>0.888304190849914</v>
       </c>
       <c r="E16">
-        <v>0.8983521900818198</v>
+        <v>0.8999837598734658</v>
       </c>
       <c r="F16">
-        <v>0.8914603350966482</v>
+        <v>0.8929144649067025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020310989990929</v>
+        <v>1.020679947137508</v>
       </c>
       <c r="J16">
-        <v>0.9077480466489748</v>
+        <v>0.9094896418386386</v>
       </c>
       <c r="K16">
-        <v>0.9103451473418448</v>
+        <v>0.9049888077812265</v>
       </c>
       <c r="L16">
-        <v>0.9147930592095185</v>
+        <v>0.9163857386370282</v>
       </c>
       <c r="M16">
-        <v>0.908067592945258</v>
+        <v>0.9094863285133767</v>
       </c>
       <c r="N16">
-        <v>0.9090371529953725</v>
+        <v>0.9107812214499695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.881411545270304</v>
+        <v>0.883052004459645</v>
       </c>
       <c r="D17">
-        <v>0.9006914286452742</v>
+        <v>0.8954626984880482</v>
       </c>
       <c r="E17">
-        <v>0.9049183169728726</v>
+        <v>0.9063713755508068</v>
       </c>
       <c r="F17">
-        <v>0.8991587049319123</v>
+        <v>0.9004442210213899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02220625278229</v>
+        <v>1.022533048612803</v>
       </c>
       <c r="J17">
-        <v>0.9143359480277677</v>
+        <v>0.9158860726578301</v>
       </c>
       <c r="K17">
-        <v>0.9166977642563996</v>
+        <v>0.9115907155084513</v>
       </c>
       <c r="L17">
-        <v>0.9208276577188479</v>
+        <v>0.9222476516088789</v>
       </c>
       <c r="M17">
-        <v>0.9152005135072785</v>
+        <v>0.9164562670214739</v>
       </c>
       <c r="N17">
-        <v>0.9156344099497662</v>
+        <v>0.9171867359346049</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8858493051891927</v>
+        <v>0.8873755508771347</v>
       </c>
       <c r="D18">
-        <v>0.9045776624912316</v>
+        <v>0.8994986491077193</v>
       </c>
       <c r="E18">
-        <v>0.9086190426732046</v>
+        <v>0.9099741666812987</v>
       </c>
       <c r="F18">
-        <v>0.9034947324838202</v>
+        <v>0.904688471202503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023271442481836</v>
+        <v>1.02357522517473</v>
       </c>
       <c r="J18">
-        <v>0.9180454763089192</v>
+        <v>0.9194903275650944</v>
       </c>
       <c r="K18">
-        <v>0.9202753716217165</v>
+        <v>0.91531130164448</v>
       </c>
       <c r="L18">
-        <v>0.9242265128679561</v>
+        <v>0.9255516173766162</v>
       </c>
       <c r="M18">
-        <v>0.9192168049415488</v>
+        <v>0.9203836917866958</v>
       </c>
       <c r="N18">
-        <v>0.9193492061865658</v>
+        <v>0.9207961092972515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8873371388255361</v>
+        <v>0.8888255984466855</v>
       </c>
       <c r="D19">
-        <v>0.9058811707486225</v>
+        <v>0.9008527130023259</v>
       </c>
       <c r="E19">
-        <v>0.9098604594321498</v>
+        <v>0.911183138829686</v>
       </c>
       <c r="F19">
-        <v>0.9049487835351223</v>
+        <v>0.9061122313036581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02362822701086</v>
+        <v>1.023924404158584</v>
       </c>
       <c r="J19">
-        <v>0.9192892745539248</v>
+        <v>0.9206992130381983</v>
       </c>
       <c r="K19">
-        <v>0.9214750298414044</v>
+        <v>0.9165592980314138</v>
       </c>
       <c r="L19">
-        <v>0.9253662865332037</v>
+        <v>0.9266599311691512</v>
       </c>
       <c r="M19">
-        <v>0.9205634185143501</v>
+        <v>0.9217009505981436</v>
       </c>
       <c r="N19">
-        <v>0.920594770767745</v>
+        <v>0.9220067115263885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8805828076813333</v>
+        <v>0.8822448534761427</v>
       </c>
       <c r="D20">
-        <v>0.8999659784330856</v>
+        <v>0.8947094733466683</v>
       </c>
       <c r="E20">
-        <v>0.9042275609756192</v>
+        <v>0.9056991067751964</v>
       </c>
       <c r="F20">
-        <v>0.8983491353054114</v>
+        <v>0.8996520342075602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022007178490839</v>
+        <v>1.022338327900381</v>
       </c>
       <c r="J20">
-        <v>0.9136432692445065</v>
+        <v>0.9152132479482668</v>
       </c>
       <c r="K20">
-        <v>0.9160297644758397</v>
+        <v>0.9108962195400631</v>
       </c>
       <c r="L20">
-        <v>0.9201930615237643</v>
+        <v>0.9216309556571204</v>
       </c>
       <c r="M20">
-        <v>0.9144505374537744</v>
+        <v>0.9157231100601223</v>
       </c>
       <c r="N20">
-        <v>0.9149407474831811</v>
+        <v>0.9165129557367802</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8565734573595947</v>
+        <v>0.8589008886105497</v>
       </c>
       <c r="D21">
-        <v>0.8789906658479045</v>
+        <v>0.8729585429928184</v>
       </c>
       <c r="E21">
-        <v>0.8842644095214888</v>
+        <v>0.886302262552464</v>
       </c>
       <c r="F21">
-        <v>0.8749235177292548</v>
+        <v>0.8767677189034612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016226604897814</v>
+        <v>1.016692526212608</v>
       </c>
       <c r="J21">
-        <v>0.8935879760312752</v>
+        <v>0.8957634758853872</v>
       </c>
       <c r="K21">
-        <v>0.8966949586400633</v>
+        <v>0.8908255262851573</v>
       </c>
       <c r="L21">
-        <v>0.9018289314894105</v>
+        <v>0.9038133787746742</v>
       </c>
       <c r="M21">
-        <v>0.8927371690832951</v>
+        <v>0.8945316119286799</v>
       </c>
       <c r="N21">
-        <v>0.8948569734532128</v>
+        <v>0.8970355627666513</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8394423023312173</v>
+        <v>0.8423017311879485</v>
       </c>
       <c r="D22">
-        <v>0.8640769753335711</v>
+        <v>0.8575339275120082</v>
       </c>
       <c r="E22">
-        <v>0.870081338530885</v>
+        <v>0.8725670923745332</v>
       </c>
       <c r="F22">
-        <v>0.8582512384759028</v>
+        <v>0.8605353330772266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012098565936451</v>
+        <v>1.012672922664925</v>
       </c>
       <c r="J22">
-        <v>0.8792985506330356</v>
+        <v>0.8819497124056469</v>
       </c>
       <c r="K22">
-        <v>0.8829255429861045</v>
+        <v>0.8765764232476048</v>
       </c>
       <c r="L22">
-        <v>0.8887554574623234</v>
+        <v>0.8911699524847833</v>
       </c>
       <c r="M22">
-        <v>0.8772722754724867</v>
+        <v>0.8794883676222527</v>
       </c>
       <c r="N22">
-        <v>0.8805472554318882</v>
+        <v>0.8832021821583088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8487549079944107</v>
+        <v>0.8513183294049821</v>
       </c>
       <c r="D23">
-        <v>0.8721784444447763</v>
+        <v>0.8659080068027804</v>
       </c>
       <c r="E23">
-        <v>0.877784758116216</v>
+        <v>0.8800218228370149</v>
       </c>
       <c r="F23">
-        <v>0.8673093303004343</v>
+        <v>0.8693479337737274</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014342058259549</v>
+        <v>1.014856016306996</v>
       </c>
       <c r="J23">
-        <v>0.8870638077595744</v>
+        <v>0.889451190447225</v>
       </c>
       <c r="K23">
-        <v>0.8904075495080526</v>
+        <v>0.8843137891662388</v>
       </c>
       <c r="L23">
-        <v>0.8958588093380561</v>
+        <v>0.898034754163722</v>
       </c>
       <c r="M23">
-        <v>0.8856753255091866</v>
+        <v>0.8876563607395584</v>
       </c>
       <c r="N23">
-        <v>0.8883235401142339</v>
+        <v>0.8907143131591376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8809577684423496</v>
+        <v>0.8826100371694107</v>
       </c>
       <c r="D24">
-        <v>0.9002941955603426</v>
+        <v>0.8950502498418215</v>
       </c>
       <c r="E24">
-        <v>0.9045400787746881</v>
+        <v>0.9060032521812051</v>
       </c>
       <c r="F24">
-        <v>0.8987154166886581</v>
+        <v>0.9000104410801573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022097254874169</v>
+        <v>1.022426432290751</v>
       </c>
       <c r="J24">
-        <v>0.9139566677923033</v>
+        <v>0.9155176558106644</v>
       </c>
       <c r="K24">
-        <v>0.9163319953913607</v>
+        <v>0.9112104304665182</v>
       </c>
       <c r="L24">
-        <v>0.9204801781900452</v>
+        <v>0.9219099662316979</v>
       </c>
       <c r="M24">
-        <v>0.914789860282193</v>
+        <v>0.9160548142328857</v>
       </c>
       <c r="N24">
-        <v>0.9152545910928636</v>
+        <v>0.9168177958932584</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9120861132769342</v>
+        <v>0.9129790156273737</v>
       </c>
       <c r="D25">
-        <v>0.927605014194804</v>
+        <v>0.9234406882945213</v>
       </c>
       <c r="E25">
-        <v>0.9305590423277265</v>
+        <v>0.9313675051595314</v>
       </c>
       <c r="F25">
-        <v>0.9291535821820701</v>
+        <v>0.9298444856561381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029528059197718</v>
+        <v>1.02970492232113</v>
       </c>
       <c r="J25">
-        <v>0.9399831767296849</v>
+        <v>0.9408371745293187</v>
       </c>
       <c r="K25">
-        <v>0.9414417529103932</v>
+        <v>0.9373563911171119</v>
       </c>
       <c r="L25">
-        <v>0.9443403259233101</v>
+        <v>0.9451336917214994</v>
       </c>
       <c r="M25">
-        <v>0.9429611926535769</v>
+        <v>0.9436391412393206</v>
       </c>
       <c r="N25">
-        <v>0.9413180606582185</v>
+        <v>0.9421732712326829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9340304346064969</v>
+        <v>1.008871149744665</v>
       </c>
       <c r="D2">
-        <v>0.9431757803465309</v>
+        <v>1.02026612881903</v>
       </c>
       <c r="E2">
-        <v>0.9490272596663279</v>
+        <v>1.013465824296025</v>
       </c>
       <c r="F2">
-        <v>0.9505393804005393</v>
+        <v>1.022429018914313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034661199809627</v>
+        <v>1.050959320659645</v>
       </c>
       <c r="J2">
-        <v>0.9583807366917586</v>
+        <v>1.030789725488113</v>
       </c>
       <c r="K2">
-        <v>0.9554879507291373</v>
+        <v>1.031450163699944</v>
       </c>
       <c r="L2">
-        <v>0.9612455667186562</v>
+        <v>1.024740693075761</v>
       </c>
       <c r="M2">
-        <v>0.9627336722591133</v>
+        <v>1.033584480981258</v>
       </c>
       <c r="N2">
-        <v>0.9597417472656682</v>
+        <v>1.03225356513154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9479603688249187</v>
+        <v>1.017196481500779</v>
       </c>
       <c r="D3">
-        <v>0.956257343560613</v>
+        <v>1.027781848263558</v>
       </c>
       <c r="E3">
-        <v>0.9607451982321045</v>
+        <v>1.020446053505684</v>
       </c>
       <c r="F3">
-        <v>0.9642280400643802</v>
+        <v>1.030679057838087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037878433781775</v>
+        <v>1.053607404932253</v>
       </c>
       <c r="J3">
-        <v>0.969977736842546</v>
+        <v>1.037229083370869</v>
       </c>
       <c r="K3">
-        <v>0.9674823028345544</v>
+        <v>1.038071179456822</v>
       </c>
       <c r="L3">
-        <v>0.9719062754850444</v>
+        <v>1.030823840006986</v>
       </c>
       <c r="M3">
-        <v>0.9753400586755036</v>
+        <v>1.040933884228922</v>
       </c>
       <c r="N3">
-        <v>0.971355216486864</v>
+        <v>1.038702067641094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9564577393912994</v>
+        <v>1.022404156245359</v>
       </c>
       <c r="D4">
-        <v>0.9642455435475529</v>
+        <v>1.032488648298742</v>
       </c>
       <c r="E4">
-        <v>0.9679052710122663</v>
+        <v>1.024818330274744</v>
       </c>
       <c r="F4">
-        <v>0.9725726128250528</v>
+        <v>1.035848172995339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039809423011767</v>
+        <v>1.055245140504135</v>
       </c>
       <c r="J4">
-        <v>0.9770448804882635</v>
+        <v>1.041251619793611</v>
       </c>
       <c r="K4">
-        <v>0.9747955477228627</v>
+        <v>1.042210160075248</v>
       </c>
       <c r="L4">
-        <v>0.978407132929159</v>
+        <v>1.034626170473325</v>
       </c>
       <c r="M4">
-        <v>0.9830137355949318</v>
+        <v>1.045532368847424</v>
       </c>
       <c r="N4">
-        <v>0.978432396287171</v>
+        <v>1.042730316526948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9599196323876446</v>
+        <v>1.024553179842894</v>
       </c>
       <c r="D5">
-        <v>0.9675017454076916</v>
+        <v>1.034432226367013</v>
       </c>
       <c r="E5">
-        <v>0.9708248835370501</v>
+        <v>1.026623947317984</v>
       </c>
       <c r="F5">
-        <v>0.9759705241163563</v>
+        <v>1.037983268358452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040588194700392</v>
+        <v>1.055916411737036</v>
       </c>
       <c r="J5">
-        <v>0.9799221739697177</v>
+        <v>1.042910205471741</v>
       </c>
       <c r="K5">
-        <v>0.977773984333382</v>
+        <v>1.043917472603251</v>
       </c>
       <c r="L5">
-        <v>0.9810548544413238</v>
+        <v>1.036194503192283</v>
       </c>
       <c r="M5">
-        <v>0.986135754019734</v>
+        <v>1.0474302379011</v>
       </c>
       <c r="N5">
-        <v>0.981313775855399</v>
+        <v>1.044391257586984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9604947651826277</v>
+        <v>1.024911720774085</v>
       </c>
       <c r="D6">
-        <v>0.9680428026214964</v>
+        <v>1.034756562032608</v>
       </c>
       <c r="E6">
-        <v>0.9713100668530721</v>
+        <v>1.026925270147215</v>
       </c>
       <c r="F6">
-        <v>0.9765349155134584</v>
+        <v>1.038339600454439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040717097434449</v>
+        <v>1.05602813524809</v>
       </c>
       <c r="J6">
-        <v>0.980400067689813</v>
+        <v>1.043186839446915</v>
       </c>
       <c r="K6">
-        <v>0.9782687327191855</v>
+        <v>1.044202275782721</v>
       </c>
       <c r="L6">
-        <v>0.9814946750507253</v>
+        <v>1.036456115599954</v>
       </c>
       <c r="M6">
-        <v>0.9866541596611523</v>
+        <v>1.047746888484811</v>
       </c>
       <c r="N6">
-        <v>0.9817923482393917</v>
+        <v>1.044668284414133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9565044155076479</v>
+        <v>1.022433026560832</v>
       </c>
       <c r="D7">
-        <v>0.9642894397107095</v>
+        <v>1.032514753791992</v>
       </c>
       <c r="E7">
-        <v>0.9679446259399727</v>
+        <v>1.024842582067214</v>
       </c>
       <c r="F7">
-        <v>0.9726184336397876</v>
+        <v>1.035876848419397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039819955055735</v>
+        <v>1.055254176646083</v>
       </c>
       <c r="J7">
-        <v>0.9770836824167412</v>
+        <v>1.04127390702137</v>
       </c>
       <c r="K7">
-        <v>0.9748357098597452</v>
+        <v>1.042233099236005</v>
       </c>
       <c r="L7">
-        <v>0.9784428350852969</v>
+        <v>1.034647242790222</v>
       </c>
       <c r="M7">
-        <v>0.9830558467983732</v>
+        <v>1.045557864263363</v>
       </c>
       <c r="N7">
-        <v>0.9784712533188379</v>
+        <v>1.042752635405128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9388537633633296</v>
+        <v>1.011723559127862</v>
       </c>
       <c r="D8">
-        <v>0.947703385510787</v>
+        <v>1.022839919859268</v>
       </c>
       <c r="E8">
-        <v>0.9530818434812235</v>
+        <v>1.015856041225921</v>
       </c>
       <c r="F8">
-        <v>0.9552801131342152</v>
+        <v>1.02525378315481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035781737692671</v>
+        <v>1.051870509471876</v>
       </c>
       <c r="J8">
-        <v>0.9623976625004776</v>
+        <v>1.032997066677143</v>
       </c>
       <c r="K8">
-        <v>0.959641655033727</v>
+        <v>1.033719148366444</v>
       </c>
       <c r="L8">
-        <v>0.9649372299414147</v>
+        <v>1.02682543179246</v>
       </c>
       <c r="M8">
-        <v>0.9671019663538201</v>
+        <v>1.036102205435913</v>
       </c>
       <c r="N8">
-        <v>0.9637643775697829</v>
+        <v>1.034464040998244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9030331161336345</v>
+        <v>0.9913434564004378</v>
       </c>
       <c r="D9">
-        <v>0.9141319542941313</v>
+        <v>1.004478785064301</v>
       </c>
       <c r="E9">
-        <v>0.9230455557788748</v>
+        <v>0.9988093721692584</v>
       </c>
       <c r="F9">
-        <v>0.9200689231582294</v>
+        <v>1.005111527839318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027334024403872</v>
+        <v>1.045282178881752</v>
       </c>
       <c r="J9">
-        <v>0.932544900342403</v>
+        <v>1.017205646966424</v>
       </c>
       <c r="K9">
-        <v>0.9287908703419679</v>
+        <v>1.017499612655578</v>
       </c>
       <c r="L9">
-        <v>0.9375241025331454</v>
+        <v>1.01192179606079</v>
       </c>
       <c r="M9">
-        <v>0.9346071912652195</v>
+        <v>1.018122214890284</v>
       </c>
       <c r="N9">
-        <v>0.9338692210652846</v>
+        <v>1.018650195660235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8744883559151784</v>
+        <v>0.9765247114453263</v>
       </c>
       <c r="D10">
-        <v>0.8874750353305048</v>
+        <v>0.991169819166304</v>
       </c>
       <c r="E10">
-        <v>0.8992441135429836</v>
+        <v>0.9864610776653285</v>
       </c>
       <c r="F10">
-        <v>0.8920421821347758</v>
+        <v>0.9905217832408195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020464969361337</v>
+        <v>1.040395563212451</v>
       </c>
       <c r="J10">
-        <v>0.9087484699126537</v>
+        <v>1.005701708468978</v>
       </c>
       <c r="K10">
-        <v>0.9042239038014205</v>
+        <v>1.005700356754774</v>
       </c>
       <c r="L10">
-        <v>0.9157066337486719</v>
+        <v>1.001079161271334</v>
       </c>
       <c r="M10">
-        <v>0.9086787223437864</v>
+        <v>1.005064304866576</v>
       </c>
       <c r="N10">
-        <v>0.9100389969748361</v>
+        <v>1.007129920250602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8604812935249049</v>
+        <v>0.9697566292749024</v>
       </c>
       <c r="D11">
-        <v>0.8744289898851523</v>
+        <v>0.9851032280477663</v>
       </c>
       <c r="E11">
-        <v>0.8876125442061202</v>
+        <v>0.9808348696291468</v>
       </c>
       <c r="F11">
-        <v>0.8783151262878042</v>
+        <v>0.9838731877179985</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017075272057461</v>
+        <v>1.038142406105321</v>
       </c>
       <c r="J11">
-        <v>0.8970795165808902</v>
+        <v>1.000444030942261</v>
       </c>
       <c r="K11">
-        <v>0.8921832681842442</v>
+        <v>1.000311651924499</v>
       </c>
       <c r="L11">
-        <v>0.9050183983901025</v>
+        <v>0.9961274944647097</v>
       </c>
       <c r="M11">
-        <v>0.8959652221183301</v>
+        <v>0.9991057779456921</v>
       </c>
       <c r="N11">
-        <v>0.8983534723908937</v>
+        <v>1.001864776218733</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8549578281488228</v>
+        <v>0.9671838187815256</v>
       </c>
       <c r="D12">
-        <v>0.869291214665471</v>
+        <v>0.9827990756548265</v>
       </c>
       <c r="E12">
-        <v>0.88303505571855</v>
+        <v>0.9786984125214824</v>
       </c>
       <c r="F12">
-        <v>0.8729083588527552</v>
+        <v>0.9813481933013753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015737508843297</v>
+        <v>1.037282840344936</v>
       </c>
       <c r="J12">
-        <v>0.8924805731920137</v>
+        <v>0.9984450114406567</v>
       </c>
       <c r="K12">
-        <v>0.8874387780911697</v>
+        <v>0.998263408226032</v>
       </c>
       <c r="L12">
-        <v>0.9008077846552857</v>
+        <v>0.9942454216177904</v>
       </c>
       <c r="M12">
-        <v>0.890955711786552</v>
+        <v>0.9968416742220451</v>
       </c>
       <c r="N12">
-        <v>0.8937479979748986</v>
+        <v>0.9998629178801459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8561586999789784</v>
+        <v>0.9677384659620935</v>
       </c>
       <c r="D13">
-        <v>0.8704078997866914</v>
+        <v>0.9832957119910565</v>
       </c>
       <c r="E13">
-        <v>0.8840298044654764</v>
+        <v>0.9791588832601711</v>
       </c>
       <c r="F13">
-        <v>0.874083527536892</v>
+        <v>0.9818924215343817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016028368614184</v>
+        <v>1.037468280865538</v>
       </c>
       <c r="J13">
-        <v>0.8934803017319491</v>
+        <v>0.9988759745772712</v>
       </c>
       <c r="K13">
-        <v>0.8884701035576521</v>
+        <v>0.9987049566694638</v>
       </c>
       <c r="L13">
-        <v>0.9017230107548037</v>
+        <v>0.9946511449990167</v>
       </c>
       <c r="M13">
-        <v>0.8920446203176148</v>
+        <v>0.9973297240265793</v>
       </c>
       <c r="N13">
-        <v>0.8947491462440315</v>
+        <v>1.000294493033847</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8600318105791325</v>
+        <v>0.9695451987972186</v>
       </c>
       <c r="D14">
-        <v>0.8740107478971983</v>
+        <v>0.9849138339397399</v>
       </c>
       <c r="E14">
-        <v>0.8872398428669271</v>
+        <v>0.980659250394783</v>
       </c>
       <c r="F14">
-        <v>0.8778749969255403</v>
+        <v>0.983665637244685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016966418195525</v>
+        <v>1.038071828920711</v>
       </c>
       <c r="J14">
-        <v>0.8967052084935149</v>
+        <v>1.000279760455944</v>
       </c>
       <c r="K14">
-        <v>0.8917970951829615</v>
+        <v>1.000143324383626</v>
       </c>
       <c r="L14">
-        <v>0.904675658406267</v>
+        <v>0.9959728218168101</v>
       </c>
       <c r="M14">
-        <v>0.8955574687732427</v>
+        <v>0.9989196961033685</v>
       </c>
       <c r="N14">
-        <v>0.8979786327431007</v>
+        <v>1.001700272449484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8623729070370055</v>
+        <v>0.97065039180185</v>
       </c>
       <c r="D15">
-        <v>0.8761894073681396</v>
+        <v>0.985903920216702</v>
       </c>
       <c r="E15">
-        <v>0.8891814111847416</v>
+        <v>0.9815773444071669</v>
       </c>
       <c r="F15">
-        <v>0.8801676434481815</v>
+        <v>0.9847506467511448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017533343539536</v>
+        <v>1.038440628256168</v>
       </c>
       <c r="J15">
-        <v>0.8986548725489657</v>
+        <v>1.0011384238534</v>
       </c>
       <c r="K15">
-        <v>0.8938085978041228</v>
+        <v>1.001023218628872</v>
       </c>
       <c r="L15">
-        <v>0.9064609673287284</v>
+        <v>0.9967813405279321</v>
       </c>
       <c r="M15">
-        <v>0.8976813906260813</v>
+        <v>0.9998924263885541</v>
       </c>
       <c r="N15">
-        <v>0.8999310655451397</v>
+        <v>1.002560155247453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8753777294210442</v>
+        <v>0.9769659880305092</v>
       </c>
       <c r="D16">
-        <v>0.888304190849914</v>
+        <v>0.9915656210103936</v>
       </c>
       <c r="E16">
-        <v>0.8999837598734658</v>
+        <v>0.9868282037368066</v>
       </c>
       <c r="F16">
-        <v>0.8929144649067025</v>
+        <v>0.9909555890028585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020679947137508</v>
+        <v>1.040542040892098</v>
       </c>
       <c r="J16">
-        <v>0.9094896418386386</v>
+        <v>1.006044446997368</v>
       </c>
       <c r="K16">
-        <v>0.9049888077812265</v>
+        <v>1.006051718061584</v>
       </c>
       <c r="L16">
-        <v>0.9163857386370282</v>
+        <v>1.001402031807907</v>
       </c>
       <c r="M16">
-        <v>0.9094863285133767</v>
+        <v>1.005452921763816</v>
       </c>
       <c r="N16">
-        <v>0.9107812214499695</v>
+        <v>1.007473145507015</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.883052004459645</v>
+        <v>0.9808295270601554</v>
       </c>
       <c r="D17">
-        <v>0.8954626984880482</v>
+        <v>0.9950323731556338</v>
       </c>
       <c r="E17">
-        <v>0.9063713755508068</v>
+        <v>0.9900440756772375</v>
       </c>
       <c r="F17">
-        <v>0.9004442210213899</v>
+        <v>0.9947554069542573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022533048612803</v>
+        <v>1.041822129358562</v>
       </c>
       <c r="J17">
-        <v>0.9158860726578301</v>
+        <v>1.009044867529858</v>
       </c>
       <c r="K17">
-        <v>0.9115907155084513</v>
+        <v>1.009128067127917</v>
       </c>
       <c r="L17">
-        <v>0.9222476516088789</v>
+        <v>1.004228949609204</v>
       </c>
       <c r="M17">
-        <v>0.9164562670214739</v>
+        <v>1.008856022048819</v>
       </c>
       <c r="N17">
-        <v>0.9171867359346049</v>
+        <v>1.010477826980815</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8873755508771347</v>
+        <v>0.9830496077623132</v>
       </c>
       <c r="D18">
-        <v>0.8994986491077193</v>
+        <v>0.9970255518222242</v>
       </c>
       <c r="E18">
-        <v>0.9099741666812987</v>
+        <v>0.9918932409206136</v>
       </c>
       <c r="F18">
-        <v>0.904688471202503</v>
+        <v>0.9969402526002151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02357522517473</v>
+        <v>1.042555696064231</v>
       </c>
       <c r="J18">
-        <v>0.9194903275650944</v>
+        <v>1.010768637092256</v>
       </c>
       <c r="K18">
-        <v>0.91531130164448</v>
+        <v>1.010895826400078</v>
       </c>
       <c r="L18">
-        <v>0.9255516173766162</v>
+        <v>1.005853390363042</v>
       </c>
       <c r="M18">
-        <v>0.9203836917866958</v>
+        <v>1.010812011112599</v>
       </c>
       <c r="N18">
-        <v>0.9207961092972515</v>
+        <v>1.01220404449371</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8888255984466855</v>
+        <v>0.9838010911859634</v>
       </c>
       <c r="D19">
-        <v>0.9008527130023259</v>
+        <v>0.9977004116561866</v>
       </c>
       <c r="E19">
-        <v>0.911183138829686</v>
+        <v>0.9925193770326752</v>
       </c>
       <c r="F19">
-        <v>0.9061122313036581</v>
+        <v>0.9976800391191631</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023924404158584</v>
+        <v>1.042803660034761</v>
       </c>
       <c r="J19">
-        <v>0.9206992130381983</v>
+        <v>1.011352059769901</v>
       </c>
       <c r="K19">
-        <v>0.9165592980314138</v>
+        <v>1.011494200131049</v>
       </c>
       <c r="L19">
-        <v>0.9266599311691512</v>
+        <v>1.006403253004403</v>
       </c>
       <c r="M19">
-        <v>0.9217009505981436</v>
+        <v>1.011474179460212</v>
       </c>
       <c r="N19">
-        <v>0.9220067115263885</v>
+        <v>1.012788295698477</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8822448534761427</v>
+        <v>0.9804185069971604</v>
       </c>
       <c r="D20">
-        <v>0.8947094733466683</v>
+        <v>0.9946634491384291</v>
       </c>
       <c r="E20">
-        <v>0.9056991067751964</v>
+        <v>0.9897018256639729</v>
       </c>
       <c r="F20">
-        <v>0.8996520342075602</v>
+        <v>0.9943510211636051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022338327900381</v>
+        <v>1.041686155295197</v>
       </c>
       <c r="J20">
-        <v>0.9152132479482668</v>
+        <v>1.008725704371872</v>
       </c>
       <c r="K20">
-        <v>0.9108962195400631</v>
+        <v>1.008800788939356</v>
       </c>
       <c r="L20">
-        <v>0.9216309556571204</v>
+        <v>1.003928205790257</v>
       </c>
       <c r="M20">
-        <v>0.9157231100601223</v>
+        <v>1.008493933700358</v>
       </c>
       <c r="N20">
-        <v>0.9165129557367802</v>
+        <v>1.010158210574535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8589008886105497</v>
+        <v>0.969014838838143</v>
       </c>
       <c r="D21">
-        <v>0.8729585429928184</v>
+        <v>0.9844387835789706</v>
       </c>
       <c r="E21">
-        <v>0.886302262552464</v>
+        <v>0.9802187582310126</v>
       </c>
       <c r="F21">
-        <v>0.8767677189034612</v>
+        <v>0.9831450490623921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016692526212608</v>
+        <v>1.037894742025691</v>
       </c>
       <c r="J21">
-        <v>0.8957634758853872</v>
+        <v>0.9998676929532966</v>
       </c>
       <c r="K21">
-        <v>0.8908255262851573</v>
+        <v>0.9997210894237872</v>
       </c>
       <c r="L21">
-        <v>0.9038133787746742</v>
+        <v>0.995584839926165</v>
       </c>
       <c r="M21">
-        <v>0.8945316119286799</v>
+        <v>0.9984529376537912</v>
       </c>
       <c r="N21">
-        <v>0.8970355627666513</v>
+        <v>1.001287619763717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8423017311879485</v>
+        <v>0.9615006900113001</v>
       </c>
       <c r="D22">
-        <v>0.8575339275120082</v>
+        <v>0.9777133263770534</v>
       </c>
       <c r="E22">
-        <v>0.8725670923745332</v>
+        <v>0.9739836775606057</v>
       </c>
       <c r="F22">
-        <v>0.8605353330772266</v>
+        <v>0.9757753075656365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012672922664925</v>
+        <v>1.035378668917513</v>
       </c>
       <c r="J22">
-        <v>0.8819497124056469</v>
+        <v>0.9940288514530501</v>
       </c>
       <c r="K22">
-        <v>0.8765764232476048</v>
+        <v>0.9937396036845259</v>
       </c>
       <c r="L22">
-        <v>0.8911699524847833</v>
+        <v>0.9900887616947537</v>
       </c>
       <c r="M22">
-        <v>0.8794883676222527</v>
+        <v>0.9918424353482235</v>
       </c>
       <c r="N22">
-        <v>0.8832021821583088</v>
+        <v>0.9954404864388163</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8513183294049821</v>
+        <v>0.9655189975397922</v>
       </c>
       <c r="D23">
-        <v>0.8659080068027804</v>
+        <v>0.9813086884184544</v>
       </c>
       <c r="E23">
-        <v>0.8800218228370149</v>
+        <v>0.9773166255670208</v>
       </c>
       <c r="F23">
-        <v>0.8693479337737274</v>
+        <v>0.9797150098451127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014856016306996</v>
+        <v>1.036725789646098</v>
       </c>
       <c r="J23">
-        <v>0.889451190447225</v>
+        <v>0.9971513976073977</v>
       </c>
       <c r="K23">
-        <v>0.8843137891662388</v>
+        <v>0.9969381078636478</v>
       </c>
       <c r="L23">
-        <v>0.898034754163722</v>
+        <v>0.9930276599233954</v>
       </c>
       <c r="M23">
-        <v>0.8876563607395584</v>
+        <v>0.9953769057605186</v>
       </c>
       <c r="N23">
-        <v>0.8907143131591376</v>
+        <v>0.9985674669668639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8826100371694107</v>
+        <v>0.9806043322161474</v>
       </c>
       <c r="D24">
-        <v>0.8950502498418215</v>
+        <v>0.9948302390132679</v>
       </c>
       <c r="E24">
-        <v>0.9060032521812051</v>
+        <v>0.9898565555659775</v>
       </c>
       <c r="F24">
-        <v>0.9000104410801573</v>
+        <v>0.9945338426968825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022426432290751</v>
+        <v>1.041747636415322</v>
       </c>
       <c r="J24">
-        <v>0.9155176558106644</v>
+        <v>1.008870001480647</v>
       </c>
       <c r="K24">
-        <v>0.9112104304665182</v>
+        <v>1.008948753796461</v>
       </c>
       <c r="L24">
-        <v>0.9219099662316979</v>
+        <v>1.00406417423039</v>
       </c>
       <c r="M24">
-        <v>0.9160548142328857</v>
+        <v>1.008657635024412</v>
       </c>
       <c r="N24">
-        <v>0.9168177958932584</v>
+        <v>1.010302712601756</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9129790156273737</v>
+        <v>0.9968115942173262</v>
       </c>
       <c r="D25">
-        <v>0.9234406882945213</v>
+        <v>1.009398743713932</v>
       </c>
       <c r="E25">
-        <v>0.9313675051595314</v>
+        <v>1.003375953988674</v>
       </c>
       <c r="F25">
-        <v>0.9298444856561381</v>
+        <v>1.010506829471582</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02970492232113</v>
+        <v>1.047066567388242</v>
       </c>
       <c r="J25">
-        <v>0.9408371745293187</v>
+        <v>1.021446739444707</v>
       </c>
       <c r="K25">
-        <v>0.9373563911171119</v>
+        <v>1.021852887545677</v>
       </c>
       <c r="L25">
-        <v>0.9451336917214994</v>
+        <v>1.015922087703031</v>
       </c>
       <c r="M25">
-        <v>0.9436391412393206</v>
+        <v>1.022944200947261</v>
       </c>
       <c r="N25">
-        <v>0.9421732712326829</v>
+        <v>1.022897310976297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008871149744665</v>
+        <v>1.057391338460802</v>
       </c>
       <c r="D2">
-        <v>1.02026612881903</v>
+        <v>1.063181363228568</v>
       </c>
       <c r="E2">
-        <v>1.013465824296025</v>
+        <v>1.053512598422141</v>
       </c>
       <c r="F2">
-        <v>1.022429018914313</v>
+        <v>1.071075376557564</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050959320659645</v>
+        <v>1.042061356881811</v>
       </c>
       <c r="J2">
-        <v>1.030789725488113</v>
+        <v>1.062388005046422</v>
       </c>
       <c r="K2">
-        <v>1.031450163699944</v>
+        <v>1.065900697402111</v>
       </c>
       <c r="L2">
-        <v>1.024740693075761</v>
+        <v>1.056258361411837</v>
       </c>
       <c r="M2">
-        <v>1.033584480981258</v>
+        <v>1.073773515731665</v>
       </c>
       <c r="N2">
-        <v>1.03225356513154</v>
+        <v>1.063896717871195</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017196481500779</v>
+        <v>1.059000970849544</v>
       </c>
       <c r="D3">
-        <v>1.027781848263558</v>
+        <v>1.064682206650664</v>
       </c>
       <c r="E3">
-        <v>1.020446053505684</v>
+        <v>1.05490389588881</v>
       </c>
       <c r="F3">
-        <v>1.030679057838087</v>
+        <v>1.07274677526203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053607404932253</v>
+        <v>1.042437486610388</v>
       </c>
       <c r="J3">
-        <v>1.037229083370869</v>
+        <v>1.063646914115719</v>
       </c>
       <c r="K3">
-        <v>1.038071179456822</v>
+        <v>1.067214780274688</v>
       </c>
       <c r="L3">
-        <v>1.030823840006986</v>
+        <v>1.05746123813221</v>
       </c>
       <c r="M3">
-        <v>1.040933884228922</v>
+        <v>1.075259286954092</v>
       </c>
       <c r="N3">
-        <v>1.038702067641094</v>
+        <v>1.065157414735769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022404156245359</v>
+        <v>1.060040198023495</v>
       </c>
       <c r="D4">
-        <v>1.032488648298742</v>
+        <v>1.065651419754685</v>
       </c>
       <c r="E4">
-        <v>1.024818330274744</v>
+        <v>1.055802333060478</v>
       </c>
       <c r="F4">
-        <v>1.035848172995339</v>
+        <v>1.073826563228899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055245140504135</v>
+        <v>1.042678012325772</v>
       </c>
       <c r="J4">
-        <v>1.041251619793611</v>
+        <v>1.064458835509638</v>
       </c>
       <c r="K4">
-        <v>1.042210160075248</v>
+        <v>1.068062641458161</v>
       </c>
       <c r="L4">
-        <v>1.034626170473325</v>
+        <v>1.058237230014548</v>
       </c>
       <c r="M4">
-        <v>1.045532368847424</v>
+        <v>1.076218487476548</v>
       </c>
       <c r="N4">
-        <v>1.042730316526948</v>
+        <v>1.065970489151197</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024553179842894</v>
+        <v>1.060476546200029</v>
       </c>
       <c r="D5">
-        <v>1.034432226367013</v>
+        <v>1.066058423471067</v>
       </c>
       <c r="E5">
-        <v>1.026623947317984</v>
+        <v>1.056179607440711</v>
       </c>
       <c r="F5">
-        <v>1.037983268358452</v>
+        <v>1.074280105011825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055916411737036</v>
+        <v>1.042778448724185</v>
       </c>
       <c r="J5">
-        <v>1.042910205471741</v>
+        <v>1.06479953468371</v>
       </c>
       <c r="K5">
-        <v>1.043917472603251</v>
+        <v>1.068418507116492</v>
       </c>
       <c r="L5">
-        <v>1.036194503192283</v>
+        <v>1.058562902222986</v>
       </c>
       <c r="M5">
-        <v>1.0474302379011</v>
+        <v>1.076621219918624</v>
       </c>
       <c r="N5">
-        <v>1.044391257586984</v>
+        <v>1.066311672157175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024911720774085</v>
+        <v>1.06054977945117</v>
       </c>
       <c r="D6">
-        <v>1.034756562032608</v>
+        <v>1.066126734862315</v>
       </c>
       <c r="E6">
-        <v>1.026925270147215</v>
+        <v>1.056242928577723</v>
       </c>
       <c r="F6">
-        <v>1.038339600454439</v>
+        <v>1.074356233453975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05602813524809</v>
+        <v>1.04279527261156</v>
       </c>
       <c r="J6">
-        <v>1.043186839446915</v>
+        <v>1.064856702718864</v>
       </c>
       <c r="K6">
-        <v>1.044202275782721</v>
+        <v>1.068478225044539</v>
       </c>
       <c r="L6">
-        <v>1.036456115599954</v>
+        <v>1.058617551711726</v>
       </c>
       <c r="M6">
-        <v>1.047746888484811</v>
+        <v>1.076688810515823</v>
       </c>
       <c r="N6">
-        <v>1.044668284414133</v>
+        <v>1.066368921377496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022433026560832</v>
+        <v>1.060046030647672</v>
       </c>
       <c r="D7">
-        <v>1.032514753791992</v>
+        <v>1.065656859927203</v>
       </c>
       <c r="E7">
-        <v>1.024842582067214</v>
+        <v>1.055807375891678</v>
       </c>
       <c r="F7">
-        <v>1.035876848419397</v>
+        <v>1.07383262503794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055254176646083</v>
+        <v>1.042679357032001</v>
       </c>
       <c r="J7">
-        <v>1.04127390702137</v>
+        <v>1.064463390422756</v>
       </c>
       <c r="K7">
-        <v>1.042233099236005</v>
+        <v>1.068067398800694</v>
       </c>
       <c r="L7">
-        <v>1.034647242790222</v>
+        <v>1.058241583831633</v>
       </c>
       <c r="M7">
-        <v>1.045557864263363</v>
+        <v>1.076223870819347</v>
       </c>
       <c r="N7">
-        <v>1.042752635405128</v>
+        <v>1.065975050532813</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011723559127862</v>
+        <v>1.057935806580592</v>
       </c>
       <c r="D8">
-        <v>1.022839919859268</v>
+        <v>1.063688986126953</v>
       </c>
       <c r="E8">
-        <v>1.015856041225921</v>
+        <v>1.053983176923624</v>
       </c>
       <c r="F8">
-        <v>1.02525378315481</v>
+        <v>1.071640595736441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051870509471876</v>
+        <v>1.042189064705721</v>
       </c>
       <c r="J8">
-        <v>1.032997066677143</v>
+        <v>1.062814018551665</v>
       </c>
       <c r="K8">
-        <v>1.033719148366444</v>
+        <v>1.066345307896932</v>
       </c>
       <c r="L8">
-        <v>1.02682543179246</v>
+        <v>1.056665370463861</v>
       </c>
       <c r="M8">
-        <v>1.036102205435913</v>
+        <v>1.074276098852031</v>
       </c>
       <c r="N8">
-        <v>1.034464040998244</v>
+        <v>1.06432333636448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9913434564004378</v>
+        <v>1.054199127487079</v>
       </c>
       <c r="D9">
-        <v>1.004478785064301</v>
+        <v>1.060206118832131</v>
       </c>
       <c r="E9">
-        <v>0.9988093721692584</v>
+        <v>1.050754347831511</v>
       </c>
       <c r="F9">
-        <v>1.005111527839318</v>
+        <v>1.067764328128944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045282178881752</v>
+        <v>1.041303103694254</v>
       </c>
       <c r="J9">
-        <v>1.017205646966424</v>
+        <v>1.059886738520595</v>
       </c>
       <c r="K9">
-        <v>1.017499612655578</v>
+        <v>1.063291703701372</v>
       </c>
       <c r="L9">
-        <v>1.01192179606079</v>
+        <v>1.053869534480582</v>
       </c>
       <c r="M9">
-        <v>1.018122214890284</v>
+        <v>1.070826653164856</v>
       </c>
       <c r="N9">
-        <v>1.018650195660235</v>
+        <v>1.061391899260003</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9765247114453263</v>
+        <v>1.051695096387346</v>
       </c>
       <c r="D10">
-        <v>0.991169819166304</v>
+        <v>1.057873384561093</v>
       </c>
       <c r="E10">
-        <v>0.9864610776653285</v>
+        <v>1.048591610589057</v>
       </c>
       <c r="F10">
-        <v>0.9905217832408195</v>
+        <v>1.065170326149167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040395563212451</v>
+        <v>1.040697478459387</v>
       </c>
       <c r="J10">
-        <v>1.005701708468978</v>
+        <v>1.057920656372442</v>
       </c>
       <c r="K10">
-        <v>1.005700356754774</v>
+        <v>1.061242610292282</v>
       </c>
       <c r="L10">
-        <v>1.001079161271334</v>
+        <v>1.051992815934503</v>
       </c>
       <c r="M10">
-        <v>1.005064304866576</v>
+        <v>1.06851484080385</v>
       </c>
       <c r="N10">
-        <v>1.007129920250602</v>
+        <v>1.059423025049686</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9697566292749024</v>
+        <v>1.050607608772679</v>
       </c>
       <c r="D11">
-        <v>0.9851032280477663</v>
+        <v>1.056860585976367</v>
       </c>
       <c r="E11">
-        <v>0.9808348696291468</v>
+        <v>1.047652586649429</v>
       </c>
       <c r="F11">
-        <v>0.9838731877179985</v>
+        <v>1.064044617168927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038142406105321</v>
+        <v>1.040431638664477</v>
       </c>
       <c r="J11">
-        <v>1.000444030942261</v>
+        <v>1.057065749011765</v>
       </c>
       <c r="K11">
-        <v>1.000311651924499</v>
+        <v>1.060352040376714</v>
       </c>
       <c r="L11">
-        <v>0.9961274944647097</v>
+        <v>1.051177022937083</v>
       </c>
       <c r="M11">
-        <v>0.9991057779456921</v>
+        <v>1.067510776102008</v>
       </c>
       <c r="N11">
-        <v>1.001864776218733</v>
+        <v>1.058566903622498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671838187815256</v>
+        <v>1.050203169638549</v>
       </c>
       <c r="D12">
-        <v>0.9827990756548265</v>
+        <v>1.05648396898901</v>
       </c>
       <c r="E12">
-        <v>0.9786984125214824</v>
+        <v>1.047303398705877</v>
       </c>
       <c r="F12">
-        <v>0.9813481933013753</v>
+        <v>1.06362609198489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037282840344936</v>
+        <v>1.040332349235973</v>
       </c>
       <c r="J12">
-        <v>0.9984450114406567</v>
+        <v>1.056747650085097</v>
       </c>
       <c r="K12">
-        <v>0.998263408226032</v>
+        <v>1.060020736839528</v>
       </c>
       <c r="L12">
-        <v>0.9942454216177904</v>
+        <v>1.050873516493597</v>
       </c>
       <c r="M12">
-        <v>0.9968416742220451</v>
+        <v>1.067137354099525</v>
       </c>
       <c r="N12">
-        <v>0.9998629178801459</v>
+        <v>1.058248352958867</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9677384659620935</v>
+        <v>1.050289945946203</v>
       </c>
       <c r="D13">
-        <v>0.9832957119910565</v>
+        <v>1.05656477373449</v>
       </c>
       <c r="E13">
-        <v>0.9791588832601711</v>
+        <v>1.047378318640625</v>
       </c>
       <c r="F13">
-        <v>0.9818924215343817</v>
+        <v>1.0637158847656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037468280865538</v>
+        <v>1.040353671865792</v>
       </c>
       <c r="J13">
-        <v>0.9988759745772712</v>
+        <v>1.056815908361359</v>
       </c>
       <c r="K13">
-        <v>0.9987049566694638</v>
+        <v>1.06009182565149</v>
       </c>
       <c r="L13">
-        <v>0.9946511449990167</v>
+        <v>1.050938641740803</v>
       </c>
       <c r="M13">
-        <v>0.9973297240265793</v>
+        <v>1.067217475739289</v>
       </c>
       <c r="N13">
-        <v>1.000294493033847</v>
+        <v>1.058316708169712</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9695451987972186</v>
+        <v>1.05057418793978</v>
       </c>
       <c r="D14">
-        <v>0.9849138339397399</v>
+        <v>1.056829463302683</v>
       </c>
       <c r="E14">
-        <v>0.980659250394783</v>
+        <v>1.047623730735237</v>
       </c>
       <c r="F14">
-        <v>0.983665637244685</v>
+        <v>1.064010029710692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038071828920711</v>
+        <v>1.040423442503189</v>
       </c>
       <c r="J14">
-        <v>1.000279760455944</v>
+        <v>1.057039466099688</v>
       </c>
       <c r="K14">
-        <v>1.000143324383626</v>
+        <v>1.060324665111322</v>
       </c>
       <c r="L14">
-        <v>0.9959728218168101</v>
+        <v>1.051151944941535</v>
       </c>
       <c r="M14">
-        <v>0.9989196961033685</v>
+        <v>1.067479918531379</v>
       </c>
       <c r="N14">
-        <v>1.001700272449484</v>
+        <v>1.058540583385671</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.97065039180185</v>
+        <v>1.050749252450841</v>
       </c>
       <c r="D15">
-        <v>0.985903920216702</v>
+        <v>1.056992491481459</v>
       </c>
       <c r="E15">
-        <v>0.9815773444071669</v>
+        <v>1.047774884885394</v>
       </c>
       <c r="F15">
-        <v>0.9847506467511448</v>
+        <v>1.064191210486487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038440628256168</v>
+        <v>1.040466358203412</v>
       </c>
       <c r="J15">
-        <v>1.0011384238534</v>
+        <v>1.057177134439999</v>
       </c>
       <c r="K15">
-        <v>1.001023218628872</v>
+        <v>1.060468057789749</v>
       </c>
       <c r="L15">
-        <v>0.9967813405279321</v>
+        <v>1.05128330357942</v>
       </c>
       <c r="M15">
-        <v>0.9998924263885541</v>
+        <v>1.067641555873751</v>
       </c>
       <c r="N15">
-        <v>1.002560155247453</v>
+        <v>1.058678447230815</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9769659880305092</v>
+        <v>1.051767200274957</v>
       </c>
       <c r="D16">
-        <v>0.9915656210103936</v>
+        <v>1.05794054261098</v>
       </c>
       <c r="E16">
-        <v>0.9868282037368066</v>
+        <v>1.048653876024288</v>
       </c>
       <c r="F16">
-        <v>0.9909555890028585</v>
+        <v>1.065244982216542</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040542040892098</v>
+        <v>1.040715045196583</v>
       </c>
       <c r="J16">
-        <v>1.006044446997368</v>
+        <v>1.057977317438832</v>
       </c>
       <c r="K16">
-        <v>1.006051718061584</v>
+        <v>1.06130164407827</v>
       </c>
       <c r="L16">
-        <v>1.001402031807907</v>
+        <v>1.05204689000101</v>
       </c>
       <c r="M16">
-        <v>1.005452921763816</v>
+        <v>1.068581412334663</v>
       </c>
       <c r="N16">
-        <v>1.007473145507015</v>
+        <v>1.05947976658129</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9808295270601554</v>
+        <v>1.052404859183113</v>
       </c>
       <c r="D17">
-        <v>0.9950323731556338</v>
+        <v>1.058534496637523</v>
       </c>
       <c r="E17">
-        <v>0.9900440756772375</v>
+        <v>1.049204555437132</v>
       </c>
       <c r="F17">
-        <v>0.9947554069542573</v>
+        <v>1.065905310007958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041822129358562</v>
+        <v>1.040870073453024</v>
       </c>
       <c r="J17">
-        <v>1.009044867529858</v>
+        <v>1.058478285176326</v>
       </c>
       <c r="K17">
-        <v>1.009128067127917</v>
+        <v>1.06182364007138</v>
       </c>
       <c r="L17">
-        <v>1.004228949609204</v>
+        <v>1.052525014407823</v>
       </c>
       <c r="M17">
-        <v>1.008856022048819</v>
+        <v>1.069170138739254</v>
       </c>
       <c r="N17">
-        <v>1.010477826980815</v>
+        <v>1.059981445750433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9830496077623132</v>
+        <v>1.052776484508767</v>
       </c>
       <c r="D18">
-        <v>0.9970255518222242</v>
+        <v>1.058880679349615</v>
       </c>
       <c r="E18">
-        <v>0.9918932409206136</v>
+        <v>1.049525512626469</v>
       </c>
       <c r="F18">
-        <v>0.9969402526002151</v>
+        <v>1.066290228755655</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042555696064231</v>
+        <v>1.040960151718563</v>
       </c>
       <c r="J18">
-        <v>1.010768637092256</v>
+        <v>1.058770146386245</v>
       </c>
       <c r="K18">
-        <v>1.010895826400078</v>
+        <v>1.062127793923362</v>
       </c>
       <c r="L18">
-        <v>1.005853390363042</v>
+        <v>1.05280359190348</v>
       </c>
       <c r="M18">
-        <v>1.010812011112599</v>
+        <v>1.069513240886062</v>
       </c>
       <c r="N18">
-        <v>1.01220404449371</v>
+        <v>1.060273721436747</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9838010911859634</v>
+        <v>1.052903146901447</v>
       </c>
       <c r="D19">
-        <v>0.9977004116561866</v>
+        <v>1.05899867484699</v>
       </c>
       <c r="E19">
-        <v>0.9925193770326752</v>
+        <v>1.049634909524082</v>
       </c>
       <c r="F19">
-        <v>0.9976800391191631</v>
+        <v>1.066421435900349</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042803660034761</v>
+        <v>1.040990807320916</v>
       </c>
       <c r="J19">
-        <v>1.011352059769901</v>
+        <v>1.058869605342623</v>
       </c>
       <c r="K19">
-        <v>1.011494200131049</v>
+        <v>1.062231448978373</v>
       </c>
       <c r="L19">
-        <v>1.006403253004403</v>
+        <v>1.052898528291482</v>
       </c>
       <c r="M19">
-        <v>1.011474179460212</v>
+        <v>1.069630180675642</v>
       </c>
       <c r="N19">
-        <v>1.012788295698477</v>
+        <v>1.06037332163625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804185069971604</v>
+        <v>1.052336476611014</v>
       </c>
       <c r="D20">
-        <v>0.9946634491384291</v>
+        <v>1.058470798031908</v>
       </c>
       <c r="E20">
-        <v>0.9897018256639729</v>
+        <v>1.049145498143024</v>
       </c>
       <c r="F20">
-        <v>0.9943510211636051</v>
+        <v>1.065834487927743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041686155295197</v>
+        <v>1.040853476317421</v>
       </c>
       <c r="J20">
-        <v>1.008725704371872</v>
+        <v>1.058424571817428</v>
       </c>
       <c r="K20">
-        <v>1.008800788939356</v>
+        <v>1.061767667766707</v>
       </c>
       <c r="L20">
-        <v>1.003928205790257</v>
+        <v>1.052473747737096</v>
       </c>
       <c r="M20">
-        <v>1.008493933700358</v>
+        <v>1.069107004255947</v>
       </c>
       <c r="N20">
-        <v>1.010158210574535</v>
+        <v>1.059927656112404</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.969014838838143</v>
+        <v>1.050490499605989</v>
       </c>
       <c r="D21">
-        <v>0.9844387835789706</v>
+        <v>1.056751530467313</v>
       </c>
       <c r="E21">
-        <v>0.9802187582310126</v>
+        <v>1.047551473912764</v>
       </c>
       <c r="F21">
-        <v>0.9831450490623921</v>
+        <v>1.063923422135286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037894742025691</v>
+        <v>1.040402911856574</v>
       </c>
       <c r="J21">
-        <v>0.9998676929532966</v>
+        <v>1.056973649135857</v>
       </c>
       <c r="K21">
-        <v>0.9997210894237872</v>
+        <v>1.060256113753447</v>
       </c>
       <c r="L21">
-        <v>0.995584839926165</v>
+        <v>1.05108914592051</v>
       </c>
       <c r="M21">
-        <v>0.9984529376537912</v>
+        <v>1.067402648675065</v>
       </c>
       <c r="N21">
-        <v>1.001287619763717</v>
+        <v>1.058474672954202</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9615006900113001</v>
+        <v>1.049326973763648</v>
       </c>
       <c r="D22">
-        <v>0.9777133263770534</v>
+        <v>1.055668131646471</v>
       </c>
       <c r="E22">
-        <v>0.9739836775606057</v>
+        <v>1.046546970691136</v>
       </c>
       <c r="F22">
-        <v>0.9757753075656365</v>
+        <v>1.062719615189651</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035378668917513</v>
+        <v>1.040116470746879</v>
       </c>
       <c r="J22">
-        <v>0.9940288514530501</v>
+        <v>1.056058219171145</v>
       </c>
       <c r="K22">
-        <v>0.9937396036845259</v>
+        <v>1.059302805606176</v>
       </c>
       <c r="L22">
-        <v>0.9900887616947537</v>
+        <v>1.050215783211534</v>
       </c>
       <c r="M22">
-        <v>0.9918424353482235</v>
+        <v>1.066328341001178</v>
       </c>
       <c r="N22">
-        <v>0.9954404864388163</v>
+        <v>1.057557942973938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9655189975397922</v>
+        <v>1.049944058907176</v>
       </c>
       <c r="D23">
-        <v>0.9813086884184544</v>
+        <v>1.056242695775238</v>
       </c>
       <c r="E23">
-        <v>0.9773166255670208</v>
+        <v>1.04707969616969</v>
       </c>
       <c r="F23">
-        <v>0.9797150098451127</v>
+        <v>1.063357993043789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036725789646098</v>
+        <v>1.040268618788717</v>
       </c>
       <c r="J23">
-        <v>0.9971513976073977</v>
+        <v>1.056543810549967</v>
       </c>
       <c r="K23">
-        <v>0.9969381078636478</v>
+        <v>1.059808453978576</v>
       </c>
       <c r="L23">
-        <v>0.9930276599233954</v>
+        <v>1.05067903876889</v>
       </c>
       <c r="M23">
-        <v>0.9953769057605186</v>
+        <v>1.066898112810744</v>
       </c>
       <c r="N23">
-        <v>0.9985674669668639</v>
+        <v>1.058044223948216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9806043322161474</v>
+        <v>1.052367376710764</v>
       </c>
       <c r="D24">
-        <v>0.9948302390132679</v>
+        <v>1.058499581495292</v>
       </c>
       <c r="E24">
-        <v>0.9898565555659775</v>
+        <v>1.049172184348631</v>
       </c>
       <c r="F24">
-        <v>0.9945338426968825</v>
+        <v>1.065866490116716</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041747636415322</v>
+        <v>1.040860976921132</v>
       </c>
       <c r="J24">
-        <v>1.008870001480647</v>
+        <v>1.058448843637703</v>
       </c>
       <c r="K24">
-        <v>1.008948753796461</v>
+        <v>1.061792960223244</v>
       </c>
       <c r="L24">
-        <v>1.00406417423039</v>
+        <v>1.05249691387943</v>
       </c>
       <c r="M24">
-        <v>1.008657635024412</v>
+        <v>1.069135532913692</v>
       </c>
       <c r="N24">
-        <v>1.010302712601756</v>
+        <v>1.059951962401448</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9968115942173262</v>
+        <v>1.055167374222427</v>
       </c>
       <c r="D25">
-        <v>1.009398743713932</v>
+        <v>1.061108387619726</v>
       </c>
       <c r="E25">
-        <v>1.003375953988674</v>
+        <v>1.051590833358221</v>
       </c>
       <c r="F25">
-        <v>1.010506829471582</v>
+        <v>1.068768119048183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047066567388242</v>
+        <v>1.041534772835732</v>
       </c>
       <c r="J25">
-        <v>1.021446739444707</v>
+        <v>1.060646038336018</v>
       </c>
       <c r="K25">
-        <v>1.021852887545677</v>
+        <v>1.064083447794249</v>
       </c>
       <c r="L25">
-        <v>1.015922087703031</v>
+        <v>1.054594549682719</v>
       </c>
       <c r="M25">
-        <v>1.022944200947261</v>
+        <v>1.071720520177829</v>
       </c>
       <c r="N25">
-        <v>1.022897310976297</v>
+        <v>1.062152277368256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057391338460802</v>
+        <v>1.008871149744663</v>
       </c>
       <c r="D2">
-        <v>1.063181363228568</v>
+        <v>1.020266128819028</v>
       </c>
       <c r="E2">
-        <v>1.053512598422141</v>
+        <v>1.013465824296023</v>
       </c>
       <c r="F2">
-        <v>1.071075376557564</v>
+        <v>1.022429018914311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042061356881811</v>
+        <v>1.050959320659644</v>
       </c>
       <c r="J2">
-        <v>1.062388005046422</v>
+        <v>1.030789725488111</v>
       </c>
       <c r="K2">
-        <v>1.065900697402111</v>
+        <v>1.031450163699943</v>
       </c>
       <c r="L2">
-        <v>1.056258361411837</v>
+        <v>1.024740693075759</v>
       </c>
       <c r="M2">
-        <v>1.073773515731665</v>
+        <v>1.033584480981257</v>
       </c>
       <c r="N2">
-        <v>1.063896717871195</v>
+        <v>1.032253565131538</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059000970849544</v>
+        <v>1.017196481500779</v>
       </c>
       <c r="D3">
-        <v>1.064682206650664</v>
+        <v>1.027781848263558</v>
       </c>
       <c r="E3">
-        <v>1.05490389588881</v>
+        <v>1.020446053505684</v>
       </c>
       <c r="F3">
-        <v>1.07274677526203</v>
+        <v>1.030679057838087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042437486610388</v>
+        <v>1.053607404932253</v>
       </c>
       <c r="J3">
-        <v>1.063646914115719</v>
+        <v>1.037229083370869</v>
       </c>
       <c r="K3">
-        <v>1.067214780274688</v>
+        <v>1.038071179456822</v>
       </c>
       <c r="L3">
-        <v>1.05746123813221</v>
+        <v>1.030823840006986</v>
       </c>
       <c r="M3">
-        <v>1.075259286954092</v>
+        <v>1.040933884228922</v>
       </c>
       <c r="N3">
-        <v>1.065157414735769</v>
+        <v>1.038702067641094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060040198023495</v>
+        <v>1.022404156245359</v>
       </c>
       <c r="D4">
-        <v>1.065651419754685</v>
+        <v>1.032488648298743</v>
       </c>
       <c r="E4">
-        <v>1.055802333060478</v>
+        <v>1.024818330274745</v>
       </c>
       <c r="F4">
-        <v>1.073826563228899</v>
+        <v>1.03584817299534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042678012325772</v>
+        <v>1.055245140504135</v>
       </c>
       <c r="J4">
-        <v>1.064458835509638</v>
+        <v>1.041251619793612</v>
       </c>
       <c r="K4">
-        <v>1.068062641458161</v>
+        <v>1.042210160075248</v>
       </c>
       <c r="L4">
-        <v>1.058237230014548</v>
+        <v>1.034626170473326</v>
       </c>
       <c r="M4">
-        <v>1.076218487476548</v>
+        <v>1.045532368847425</v>
       </c>
       <c r="N4">
-        <v>1.065970489151197</v>
+        <v>1.042730316526949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060476546200029</v>
+        <v>1.024553179842893</v>
       </c>
       <c r="D5">
-        <v>1.066058423471067</v>
+        <v>1.034432226367011</v>
       </c>
       <c r="E5">
-        <v>1.056179607440711</v>
+        <v>1.026623947317983</v>
       </c>
       <c r="F5">
-        <v>1.074280105011825</v>
+        <v>1.037983268358451</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042778448724185</v>
+        <v>1.055916411737036</v>
       </c>
       <c r="J5">
-        <v>1.06479953468371</v>
+        <v>1.04291020547174</v>
       </c>
       <c r="K5">
-        <v>1.068418507116492</v>
+        <v>1.043917472603249</v>
       </c>
       <c r="L5">
-        <v>1.058562902222986</v>
+        <v>1.036194503192282</v>
       </c>
       <c r="M5">
-        <v>1.076621219918624</v>
+        <v>1.047430237901098</v>
       </c>
       <c r="N5">
-        <v>1.066311672157175</v>
+        <v>1.044391257586982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06054977945117</v>
+        <v>1.024911720774084</v>
       </c>
       <c r="D6">
-        <v>1.066126734862315</v>
+        <v>1.034756562032608</v>
       </c>
       <c r="E6">
-        <v>1.056242928577723</v>
+        <v>1.026925270147215</v>
       </c>
       <c r="F6">
-        <v>1.074356233453975</v>
+        <v>1.038339600454439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04279527261156</v>
+        <v>1.05602813524809</v>
       </c>
       <c r="J6">
-        <v>1.064856702718864</v>
+        <v>1.043186839446915</v>
       </c>
       <c r="K6">
-        <v>1.068478225044539</v>
+        <v>1.044202275782721</v>
       </c>
       <c r="L6">
-        <v>1.058617551711726</v>
+        <v>1.036456115599954</v>
       </c>
       <c r="M6">
-        <v>1.076688810515823</v>
+        <v>1.047746888484811</v>
       </c>
       <c r="N6">
-        <v>1.066368921377496</v>
+        <v>1.044668284414133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060046030647672</v>
+        <v>1.022433026560833</v>
       </c>
       <c r="D7">
-        <v>1.065656859927203</v>
+        <v>1.032514753791994</v>
       </c>
       <c r="E7">
-        <v>1.055807375891678</v>
+        <v>1.024842582067216</v>
       </c>
       <c r="F7">
-        <v>1.07383262503794</v>
+        <v>1.035876848419398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042679357032001</v>
+        <v>1.055254176646083</v>
       </c>
       <c r="J7">
-        <v>1.064463390422756</v>
+        <v>1.041273907021372</v>
       </c>
       <c r="K7">
-        <v>1.068067398800694</v>
+        <v>1.042233099236006</v>
       </c>
       <c r="L7">
-        <v>1.058241583831633</v>
+        <v>1.034647242790223</v>
       </c>
       <c r="M7">
-        <v>1.076223870819347</v>
+        <v>1.045557864263364</v>
       </c>
       <c r="N7">
-        <v>1.065975050532813</v>
+        <v>1.042752635405129</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057935806580592</v>
+        <v>1.011723559127862</v>
       </c>
       <c r="D8">
-        <v>1.063688986126953</v>
+        <v>1.022839919859267</v>
       </c>
       <c r="E8">
-        <v>1.053983176923624</v>
+        <v>1.01585604122592</v>
       </c>
       <c r="F8">
-        <v>1.071640595736441</v>
+        <v>1.025253783154809</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042189064705721</v>
+        <v>1.051870509471875</v>
       </c>
       <c r="J8">
-        <v>1.062814018551665</v>
+        <v>1.032997066677142</v>
       </c>
       <c r="K8">
-        <v>1.066345307896932</v>
+        <v>1.033719148366443</v>
       </c>
       <c r="L8">
-        <v>1.056665370463861</v>
+        <v>1.026825431792459</v>
       </c>
       <c r="M8">
-        <v>1.074276098852031</v>
+        <v>1.036102205435912</v>
       </c>
       <c r="N8">
-        <v>1.06432333636448</v>
+        <v>1.034464040998244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054199127487079</v>
+        <v>0.9913434564004382</v>
       </c>
       <c r="D9">
-        <v>1.060206118832131</v>
+        <v>1.004478785064301</v>
       </c>
       <c r="E9">
-        <v>1.050754347831511</v>
+        <v>0.9988093721692587</v>
       </c>
       <c r="F9">
-        <v>1.067764328128944</v>
+        <v>1.005111527839318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041303103694254</v>
+        <v>1.045282178881752</v>
       </c>
       <c r="J9">
-        <v>1.059886738520595</v>
+        <v>1.017205646966425</v>
       </c>
       <c r="K9">
-        <v>1.063291703701372</v>
+        <v>1.017499612655579</v>
       </c>
       <c r="L9">
-        <v>1.053869534480582</v>
+        <v>1.01192179606079</v>
       </c>
       <c r="M9">
-        <v>1.070826653164856</v>
+        <v>1.018122214890284</v>
       </c>
       <c r="N9">
-        <v>1.061391899260003</v>
+        <v>1.018650195660236</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051695096387346</v>
+        <v>0.9765247114453257</v>
       </c>
       <c r="D10">
-        <v>1.057873384561093</v>
+        <v>0.9911698191663038</v>
       </c>
       <c r="E10">
-        <v>1.048591610589057</v>
+        <v>0.9864610776653279</v>
       </c>
       <c r="F10">
-        <v>1.065170326149167</v>
+        <v>0.9905217832408194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040697478459387</v>
+        <v>1.040395563212451</v>
       </c>
       <c r="J10">
-        <v>1.057920656372442</v>
+        <v>1.005701708468978</v>
       </c>
       <c r="K10">
-        <v>1.061242610292282</v>
+        <v>1.005700356754774</v>
       </c>
       <c r="L10">
-        <v>1.051992815934503</v>
+        <v>1.001079161271334</v>
       </c>
       <c r="M10">
-        <v>1.06851484080385</v>
+        <v>1.005064304866576</v>
       </c>
       <c r="N10">
-        <v>1.059423025049686</v>
+        <v>1.007129920250602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050607608772679</v>
+        <v>0.9697566292749032</v>
       </c>
       <c r="D11">
-        <v>1.056860585976367</v>
+        <v>0.9851032280477671</v>
       </c>
       <c r="E11">
-        <v>1.047652586649429</v>
+        <v>0.980834869629147</v>
       </c>
       <c r="F11">
-        <v>1.064044617168927</v>
+        <v>0.9838731877179993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040431638664477</v>
+        <v>1.038142406105321</v>
       </c>
       <c r="J11">
-        <v>1.057065749011765</v>
+        <v>1.000444030942262</v>
       </c>
       <c r="K11">
-        <v>1.060352040376714</v>
+        <v>1.0003116519245</v>
       </c>
       <c r="L11">
-        <v>1.051177022937083</v>
+        <v>0.9961274944647101</v>
       </c>
       <c r="M11">
-        <v>1.067510776102008</v>
+        <v>0.9991057779456927</v>
       </c>
       <c r="N11">
-        <v>1.058566903622498</v>
+        <v>1.001864776218734</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050203169638549</v>
+        <v>0.9671838187815267</v>
       </c>
       <c r="D12">
-        <v>1.05648396898901</v>
+        <v>0.9827990756548275</v>
       </c>
       <c r="E12">
-        <v>1.047303398705877</v>
+        <v>0.9786984125214829</v>
       </c>
       <c r="F12">
-        <v>1.06362609198489</v>
+        <v>0.9813481933013769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040332349235973</v>
+        <v>1.037282840344937</v>
       </c>
       <c r="J12">
-        <v>1.056747650085097</v>
+        <v>0.9984450114406576</v>
       </c>
       <c r="K12">
-        <v>1.060020736839528</v>
+        <v>0.998263408226033</v>
       </c>
       <c r="L12">
-        <v>1.050873516493597</v>
+        <v>0.9942454216177912</v>
       </c>
       <c r="M12">
-        <v>1.067137354099525</v>
+        <v>0.9968416742220463</v>
       </c>
       <c r="N12">
-        <v>1.058248352958867</v>
+        <v>0.9998629178801468</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050289945946203</v>
+        <v>0.9677384659620912</v>
       </c>
       <c r="D13">
-        <v>1.05656477373449</v>
+        <v>0.9832957119910545</v>
       </c>
       <c r="E13">
-        <v>1.047378318640625</v>
+        <v>0.9791588832601689</v>
       </c>
       <c r="F13">
-        <v>1.0637158847656</v>
+        <v>0.9818924215343796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040353671865792</v>
+        <v>1.037468280865537</v>
       </c>
       <c r="J13">
-        <v>1.056815908361359</v>
+        <v>0.9988759745772691</v>
       </c>
       <c r="K13">
-        <v>1.06009182565149</v>
+        <v>0.9987049566694619</v>
       </c>
       <c r="L13">
-        <v>1.050938641740803</v>
+        <v>0.9946511449990145</v>
       </c>
       <c r="M13">
-        <v>1.067217475739289</v>
+        <v>0.9973297240265773</v>
       </c>
       <c r="N13">
-        <v>1.058316708169712</v>
+        <v>1.000294493033844</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05057418793978</v>
+        <v>0.9695451987972182</v>
       </c>
       <c r="D14">
-        <v>1.056829463302683</v>
+        <v>0.9849138339397396</v>
       </c>
       <c r="E14">
-        <v>1.047623730735237</v>
+        <v>0.9806592503947826</v>
       </c>
       <c r="F14">
-        <v>1.064010029710692</v>
+        <v>0.983665637244685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040423442503189</v>
+        <v>1.03807182892071</v>
       </c>
       <c r="J14">
-        <v>1.057039466099688</v>
+        <v>1.000279760455944</v>
       </c>
       <c r="K14">
-        <v>1.060324665111322</v>
+        <v>1.000143324383626</v>
       </c>
       <c r="L14">
-        <v>1.051151944941535</v>
+        <v>0.9959728218168098</v>
       </c>
       <c r="M14">
-        <v>1.067479918531379</v>
+        <v>0.9989196961033685</v>
       </c>
       <c r="N14">
-        <v>1.058540583385671</v>
+        <v>1.001700272449484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050749252450841</v>
+        <v>0.9706503918018501</v>
       </c>
       <c r="D15">
-        <v>1.056992491481459</v>
+        <v>0.9859039202167023</v>
       </c>
       <c r="E15">
-        <v>1.047774884885394</v>
+        <v>0.9815773444071667</v>
       </c>
       <c r="F15">
-        <v>1.064191210486487</v>
+        <v>0.9847506467511447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040466358203412</v>
+        <v>1.038440628256168</v>
       </c>
       <c r="J15">
-        <v>1.057177134439999</v>
+        <v>1.0011384238534</v>
       </c>
       <c r="K15">
-        <v>1.060468057789749</v>
+        <v>1.001023218628872</v>
       </c>
       <c r="L15">
-        <v>1.05128330357942</v>
+        <v>0.996781340527932</v>
       </c>
       <c r="M15">
-        <v>1.067641555873751</v>
+        <v>0.999892426388554</v>
       </c>
       <c r="N15">
-        <v>1.058678447230815</v>
+        <v>1.002560155247453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051767200274957</v>
+        <v>0.9769659880305106</v>
       </c>
       <c r="D16">
-        <v>1.05794054261098</v>
+        <v>0.9915656210103955</v>
       </c>
       <c r="E16">
-        <v>1.048653876024288</v>
+        <v>0.986828203736808</v>
       </c>
       <c r="F16">
-        <v>1.065244982216542</v>
+        <v>0.9909555890028601</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040715045196583</v>
+        <v>1.040542040892099</v>
       </c>
       <c r="J16">
-        <v>1.057977317438832</v>
+        <v>1.00604444699737</v>
       </c>
       <c r="K16">
-        <v>1.06130164407827</v>
+        <v>1.006051718061586</v>
       </c>
       <c r="L16">
-        <v>1.05204689000101</v>
+        <v>1.001402031807908</v>
       </c>
       <c r="M16">
-        <v>1.068581412334663</v>
+        <v>1.005452921763818</v>
       </c>
       <c r="N16">
-        <v>1.05947976658129</v>
+        <v>1.007473145507017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052404859183113</v>
+        <v>0.980829527060154</v>
       </c>
       <c r="D17">
-        <v>1.058534496637523</v>
+        <v>0.9950323731556324</v>
       </c>
       <c r="E17">
-        <v>1.049204555437132</v>
+        <v>0.9900440756772366</v>
       </c>
       <c r="F17">
-        <v>1.065905310007958</v>
+        <v>0.9947554069542557</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040870073453024</v>
+        <v>1.041822129358561</v>
       </c>
       <c r="J17">
-        <v>1.058478285176326</v>
+        <v>1.009044867529857</v>
       </c>
       <c r="K17">
-        <v>1.06182364007138</v>
+        <v>1.009128067127916</v>
       </c>
       <c r="L17">
-        <v>1.052525014407823</v>
+        <v>1.004228949609203</v>
       </c>
       <c r="M17">
-        <v>1.069170138739254</v>
+        <v>1.008856022048818</v>
       </c>
       <c r="N17">
-        <v>1.059981445750433</v>
+        <v>1.010477826980813</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052776484508767</v>
+        <v>0.9830496077623125</v>
       </c>
       <c r="D18">
-        <v>1.058880679349615</v>
+        <v>0.9970255518222233</v>
       </c>
       <c r="E18">
-        <v>1.049525512626469</v>
+        <v>0.9918932409206128</v>
       </c>
       <c r="F18">
-        <v>1.066290228755655</v>
+        <v>0.9969402526002138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040960151718563</v>
+        <v>1.042555696064231</v>
       </c>
       <c r="J18">
-        <v>1.058770146386245</v>
+        <v>1.010768637092255</v>
       </c>
       <c r="K18">
-        <v>1.062127793923362</v>
+        <v>1.010895826400077</v>
       </c>
       <c r="L18">
-        <v>1.05280359190348</v>
+        <v>1.005853390363042</v>
       </c>
       <c r="M18">
-        <v>1.069513240886062</v>
+        <v>1.010812011112598</v>
       </c>
       <c r="N18">
-        <v>1.060273721436747</v>
+        <v>1.012204044493709</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052903146901447</v>
+        <v>0.9838010911859625</v>
       </c>
       <c r="D19">
-        <v>1.05899867484699</v>
+        <v>0.9977004116561862</v>
       </c>
       <c r="E19">
-        <v>1.049634909524082</v>
+        <v>0.9925193770326743</v>
       </c>
       <c r="F19">
-        <v>1.066421435900349</v>
+        <v>0.9976800391191624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040990807320916</v>
+        <v>1.042803660034761</v>
       </c>
       <c r="J19">
-        <v>1.058869605342623</v>
+        <v>1.0113520597699</v>
       </c>
       <c r="K19">
-        <v>1.062231448978373</v>
+        <v>1.011494200131048</v>
       </c>
       <c r="L19">
-        <v>1.052898528291482</v>
+        <v>1.006403253004402</v>
       </c>
       <c r="M19">
-        <v>1.069630180675642</v>
+        <v>1.011474179460211</v>
       </c>
       <c r="N19">
-        <v>1.06037332163625</v>
+        <v>1.012788295698476</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052336476611014</v>
+        <v>0.9804185069971625</v>
       </c>
       <c r="D20">
-        <v>1.058470798031908</v>
+        <v>0.9946634491384309</v>
       </c>
       <c r="E20">
-        <v>1.049145498143024</v>
+        <v>0.9897018256639747</v>
       </c>
       <c r="F20">
-        <v>1.065834487927743</v>
+        <v>0.9943510211636066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040853476317421</v>
+        <v>1.041686155295197</v>
       </c>
       <c r="J20">
-        <v>1.058424571817428</v>
+        <v>1.008725704371873</v>
       </c>
       <c r="K20">
-        <v>1.061767667766707</v>
+        <v>1.008800788939358</v>
       </c>
       <c r="L20">
-        <v>1.052473747737096</v>
+        <v>1.003928205790259</v>
       </c>
       <c r="M20">
-        <v>1.069107004255947</v>
+        <v>1.00849393370036</v>
       </c>
       <c r="N20">
-        <v>1.059927656112404</v>
+        <v>1.010158210574537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050490499605989</v>
+        <v>0.9690148388381449</v>
       </c>
       <c r="D21">
-        <v>1.056751530467313</v>
+        <v>0.9844387835789723</v>
       </c>
       <c r="E21">
-        <v>1.047551473912764</v>
+        <v>0.9802187582310139</v>
       </c>
       <c r="F21">
-        <v>1.063923422135286</v>
+        <v>0.9831450490623934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040402911856574</v>
+        <v>1.037894742025692</v>
       </c>
       <c r="J21">
-        <v>1.056973649135857</v>
+        <v>0.999867692953298</v>
       </c>
       <c r="K21">
-        <v>1.060256113753447</v>
+        <v>0.9997210894237888</v>
       </c>
       <c r="L21">
-        <v>1.05108914592051</v>
+        <v>0.9955848399261663</v>
       </c>
       <c r="M21">
-        <v>1.067402648675065</v>
+        <v>0.9984529376537923</v>
       </c>
       <c r="N21">
-        <v>1.058474672954202</v>
+        <v>1.001287619763719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049326973763648</v>
+        <v>0.9615006900112983</v>
       </c>
       <c r="D22">
-        <v>1.055668131646471</v>
+        <v>0.9777133263770518</v>
       </c>
       <c r="E22">
-        <v>1.046546970691136</v>
+        <v>0.9739836775606038</v>
       </c>
       <c r="F22">
-        <v>1.062719615189651</v>
+        <v>0.9757753075656344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040116470746879</v>
+        <v>1.035378668917512</v>
       </c>
       <c r="J22">
-        <v>1.056058219171145</v>
+        <v>0.9940288514530486</v>
       </c>
       <c r="K22">
-        <v>1.059302805606176</v>
+        <v>0.9937396036845241</v>
       </c>
       <c r="L22">
-        <v>1.050215783211534</v>
+        <v>0.990088761694752</v>
       </c>
       <c r="M22">
-        <v>1.066328341001178</v>
+        <v>0.9918424353482214</v>
       </c>
       <c r="N22">
-        <v>1.057557942973938</v>
+        <v>0.9954404864388147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049944058907176</v>
+        <v>0.9655189975397921</v>
       </c>
       <c r="D23">
-        <v>1.056242695775238</v>
+        <v>0.9813086884184542</v>
       </c>
       <c r="E23">
-        <v>1.04707969616969</v>
+        <v>0.9773166255670201</v>
       </c>
       <c r="F23">
-        <v>1.063357993043789</v>
+        <v>0.9797150098451123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040268618788717</v>
+        <v>1.036725789646097</v>
       </c>
       <c r="J23">
-        <v>1.056543810549967</v>
+        <v>0.9971513976073975</v>
       </c>
       <c r="K23">
-        <v>1.059808453978576</v>
+        <v>0.9969381078636474</v>
       </c>
       <c r="L23">
-        <v>1.05067903876889</v>
+        <v>0.9930276599233951</v>
       </c>
       <c r="M23">
-        <v>1.066898112810744</v>
+        <v>0.9953769057605182</v>
       </c>
       <c r="N23">
-        <v>1.058044223948216</v>
+        <v>0.9985674669668639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052367376710764</v>
+        <v>0.9806043322161454</v>
       </c>
       <c r="D24">
-        <v>1.058499581495292</v>
+        <v>0.9948302390132658</v>
       </c>
       <c r="E24">
-        <v>1.049172184348631</v>
+        <v>0.9898565555659756</v>
       </c>
       <c r="F24">
-        <v>1.065866490116716</v>
+        <v>0.9945338426968802</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040860976921132</v>
+        <v>1.041747636415321</v>
       </c>
       <c r="J24">
-        <v>1.058448843637703</v>
+        <v>1.008870001480645</v>
       </c>
       <c r="K24">
-        <v>1.061792960223244</v>
+        <v>1.008948753796459</v>
       </c>
       <c r="L24">
-        <v>1.05249691387943</v>
+        <v>1.004064174230389</v>
       </c>
       <c r="M24">
-        <v>1.069135532913692</v>
+        <v>1.00865763502441</v>
       </c>
       <c r="N24">
-        <v>1.059951962401448</v>
+        <v>1.010302712601754</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055167374222427</v>
+        <v>0.996811594217327</v>
       </c>
       <c r="D25">
-        <v>1.061108387619726</v>
+        <v>1.009398743713933</v>
       </c>
       <c r="E25">
-        <v>1.051590833358221</v>
+        <v>1.003375953988675</v>
       </c>
       <c r="F25">
-        <v>1.068768119048183</v>
+        <v>1.010506829471583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041534772835732</v>
+        <v>1.047066567388242</v>
       </c>
       <c r="J25">
-        <v>1.060646038336018</v>
+        <v>1.021446739444707</v>
       </c>
       <c r="K25">
-        <v>1.064083447794249</v>
+        <v>1.021852887545678</v>
       </c>
       <c r="L25">
-        <v>1.054594549682719</v>
+        <v>1.015922087703032</v>
       </c>
       <c r="M25">
-        <v>1.071720520177829</v>
+        <v>1.022944200947262</v>
       </c>
       <c r="N25">
-        <v>1.062152277368256</v>
+        <v>1.022897310976298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008871149744663</v>
+        <v>0.999982211099547</v>
       </c>
       <c r="D2">
-        <v>1.020266128819028</v>
+        <v>1.012754918226742</v>
       </c>
       <c r="E2">
-        <v>1.013465824296023</v>
+        <v>1.006480631468447</v>
       </c>
       <c r="F2">
-        <v>1.022429018914311</v>
+        <v>1.025848933708639</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050959320659644</v>
+        <v>1.04877913629914</v>
       </c>
       <c r="J2">
-        <v>1.030789725488111</v>
+        <v>1.022163454242838</v>
       </c>
       <c r="K2">
-        <v>1.031450163699943</v>
+        <v>1.024039371355773</v>
       </c>
       <c r="L2">
-        <v>1.024740693075759</v>
+        <v>1.01785041314466</v>
       </c>
       <c r="M2">
-        <v>1.033584480981257</v>
+        <v>1.036959525099983</v>
       </c>
       <c r="N2">
-        <v>1.032253565131538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011386215384187</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037823370388593</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028067967088693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017196481500779</v>
+        <v>1.003491010806156</v>
       </c>
       <c r="D3">
-        <v>1.027781848263558</v>
+        <v>1.015278919039623</v>
       </c>
       <c r="E3">
-        <v>1.020446053505684</v>
+        <v>1.0092071568379</v>
       </c>
       <c r="F3">
-        <v>1.030679057838087</v>
+        <v>1.028499270797898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053607404932253</v>
+        <v>1.049518450994839</v>
       </c>
       <c r="J3">
-        <v>1.037229083370869</v>
+        <v>1.023886957653239</v>
       </c>
       <c r="K3">
-        <v>1.038071179456822</v>
+        <v>1.025719965645603</v>
       </c>
       <c r="L3">
-        <v>1.030823840006986</v>
+        <v>1.019723570382679</v>
       </c>
       <c r="M3">
-        <v>1.040933884228922</v>
+        <v>1.038780035275261</v>
       </c>
       <c r="N3">
-        <v>1.038702067641094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011961382941419</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039264186055579</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.029253625266579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022404156245359</v>
+        <v>1.005721555245441</v>
       </c>
       <c r="D4">
-        <v>1.032488648298743</v>
+        <v>1.016890029650805</v>
       </c>
       <c r="E4">
-        <v>1.024818330274745</v>
+        <v>1.010946167346309</v>
       </c>
       <c r="F4">
-        <v>1.03584817299534</v>
+        <v>1.030189218901803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055245140504135</v>
+        <v>1.049973182998441</v>
       </c>
       <c r="J4">
-        <v>1.041251619793612</v>
+        <v>1.024980026847933</v>
       </c>
       <c r="K4">
-        <v>1.042210160075248</v>
+        <v>1.026788792677807</v>
       </c>
       <c r="L4">
-        <v>1.034626170473326</v>
+        <v>1.020914252793197</v>
       </c>
       <c r="M4">
-        <v>1.045532368847425</v>
+        <v>1.039936444319102</v>
       </c>
       <c r="N4">
-        <v>1.042730316526949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012326210706966</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040179407268474</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030010307335953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024553179842893</v>
+        <v>1.00665328762014</v>
       </c>
       <c r="D5">
-        <v>1.034432226367011</v>
+        <v>1.017567457973092</v>
       </c>
       <c r="E5">
-        <v>1.026623947317983</v>
+        <v>1.011674298231505</v>
       </c>
       <c r="F5">
-        <v>1.037983268358451</v>
+        <v>1.030895239343364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055916411737036</v>
+        <v>1.050160090197453</v>
       </c>
       <c r="J5">
-        <v>1.04291020547174</v>
+        <v>1.025437579846995</v>
       </c>
       <c r="K5">
-        <v>1.043917472603249</v>
+        <v>1.027238980406207</v>
       </c>
       <c r="L5">
-        <v>1.036194503192282</v>
+        <v>1.021412718378318</v>
       </c>
       <c r="M5">
-        <v>1.047430237901098</v>
+        <v>1.040418932510893</v>
       </c>
       <c r="N5">
-        <v>1.044391257586982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01247918398931</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040561264391101</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030335901798804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024911720774084</v>
+        <v>1.006813211127157</v>
       </c>
       <c r="D6">
-        <v>1.034756562032608</v>
+        <v>1.017687318792845</v>
       </c>
       <c r="E6">
-        <v>1.026925270147215</v>
+        <v>1.011799796273143</v>
       </c>
       <c r="F6">
-        <v>1.038339600454439</v>
+        <v>1.031015166084977</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05602813524809</v>
+        <v>1.05019278002185</v>
       </c>
       <c r="J6">
-        <v>1.043186839446915</v>
+        <v>1.025518025268997</v>
       </c>
       <c r="K6">
-        <v>1.044202275782721</v>
+        <v>1.027320660539029</v>
       </c>
       <c r="L6">
-        <v>1.036456115599954</v>
+        <v>1.021499664845786</v>
       </c>
       <c r="M6">
-        <v>1.047746888484811</v>
+        <v>1.040501353510376</v>
       </c>
       <c r="N6">
-        <v>1.044668284414133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012506380243425</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040626495077529</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030402517207949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022433026560833</v>
+        <v>1.005744866112543</v>
       </c>
       <c r="D7">
-        <v>1.032514753791994</v>
+        <v>1.016916328327068</v>
       </c>
       <c r="E7">
-        <v>1.024842582067216</v>
+        <v>1.010965572197228</v>
       </c>
       <c r="F7">
-        <v>1.035876848419398</v>
+        <v>1.030203313939837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055254176646083</v>
+        <v>1.049980100247896</v>
       </c>
       <c r="J7">
-        <v>1.041273907021372</v>
+        <v>1.024996713221834</v>
       </c>
       <c r="K7">
-        <v>1.042233099236006</v>
+        <v>1.026811852465719</v>
       </c>
       <c r="L7">
-        <v>1.034647242790223</v>
+        <v>1.020930472049803</v>
       </c>
       <c r="M7">
-        <v>1.045557864263364</v>
+        <v>1.03994749747836</v>
       </c>
       <c r="N7">
-        <v>1.042752635405129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012332605774807</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040188155106773</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030046991335646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011723559127862</v>
+        <v>1.00119003924464</v>
       </c>
       <c r="D8">
-        <v>1.022839919859267</v>
+        <v>1.013633971713279</v>
       </c>
       <c r="E8">
-        <v>1.01585604122592</v>
+        <v>1.007419520137102</v>
       </c>
       <c r="F8">
-        <v>1.025253783154809</v>
+        <v>1.026755715423726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051870509471875</v>
+        <v>1.049039430242506</v>
       </c>
       <c r="J8">
-        <v>1.032997066677142</v>
+        <v>1.022763777223662</v>
       </c>
       <c r="K8">
-        <v>1.033719148366443</v>
+        <v>1.024632375678596</v>
       </c>
       <c r="L8">
-        <v>1.026825431792459</v>
+        <v>1.018499918556569</v>
       </c>
       <c r="M8">
-        <v>1.036102205435912</v>
+        <v>1.037585061002226</v>
       </c>
       <c r="N8">
-        <v>1.034464040998244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01158761008499</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038318441790071</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.028510510356162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9913434564004382</v>
+        <v>0.9928287507855734</v>
       </c>
       <c r="D9">
-        <v>1.004478785064301</v>
+        <v>1.007647157080239</v>
       </c>
       <c r="E9">
-        <v>0.9988093721692587</v>
+        <v>1.000955074689799</v>
       </c>
       <c r="F9">
-        <v>1.005111527839318</v>
+        <v>1.020475289529506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045282178881752</v>
+        <v>1.047190836167506</v>
       </c>
       <c r="J9">
-        <v>1.017205646966425</v>
+        <v>1.018637310882515</v>
       </c>
       <c r="K9">
-        <v>1.017499612655579</v>
+        <v>1.020617371043006</v>
       </c>
       <c r="L9">
-        <v>1.01192179606079</v>
+        <v>1.014032675455393</v>
       </c>
       <c r="M9">
-        <v>1.018122214890284</v>
+        <v>1.033244679917742</v>
       </c>
       <c r="N9">
-        <v>1.018650195660236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01020990343896</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034883302452088</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.025668330964965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765247114453257</v>
+        <v>0.9870654689498345</v>
       </c>
       <c r="D10">
-        <v>0.9911698191663038</v>
+        <v>1.003566756759003</v>
       </c>
       <c r="E10">
-        <v>0.9864610776653279</v>
+        <v>0.9965386440738075</v>
       </c>
       <c r="F10">
-        <v>0.9905217832408194</v>
+        <v>1.016353788682531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040395563212451</v>
+        <v>1.045863991663887</v>
       </c>
       <c r="J10">
-        <v>1.005701708468978</v>
+        <v>1.015801838863613</v>
       </c>
       <c r="K10">
-        <v>1.005700356754774</v>
+        <v>1.017871909554421</v>
       </c>
       <c r="L10">
-        <v>1.001079161271334</v>
+        <v>1.010970676874131</v>
       </c>
       <c r="M10">
-        <v>1.005064304866576</v>
+        <v>1.030433917587242</v>
       </c>
       <c r="N10">
-        <v>1.007129920250602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009268019403794</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032710552418496</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023744130440403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9697566292749032</v>
+        <v>0.9848104404732241</v>
       </c>
       <c r="D11">
-        <v>0.9851032280477671</v>
+        <v>1.002028789377773</v>
       </c>
       <c r="E11">
-        <v>0.980834869629147</v>
+        <v>0.9948601325261154</v>
       </c>
       <c r="F11">
-        <v>0.9838731877179993</v>
+        <v>1.016144111985516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038142406105321</v>
+        <v>1.045502263947344</v>
       </c>
       <c r="J11">
-        <v>1.000444030942262</v>
+        <v>1.014829065947685</v>
       </c>
       <c r="K11">
-        <v>1.0003116519245</v>
+        <v>1.016912546853693</v>
       </c>
       <c r="L11">
-        <v>0.9961274944647101</v>
+        <v>1.009879634557415</v>
       </c>
       <c r="M11">
-        <v>0.9991057779456927</v>
+        <v>1.030767863543465</v>
       </c>
       <c r="N11">
-        <v>1.001864776218734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008980588101337</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033413607373395</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.023099169813611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9671838187815267</v>
+        <v>0.9840261340412594</v>
       </c>
       <c r="D12">
-        <v>0.9827990756548275</v>
+        <v>1.001500591826348</v>
       </c>
       <c r="E12">
-        <v>0.9786984125214829</v>
+        <v>0.9942894213913606</v>
       </c>
       <c r="F12">
-        <v>0.9813481933013769</v>
+        <v>1.016590824930416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037282840344937</v>
+        <v>1.045423749521196</v>
       </c>
       <c r="J12">
-        <v>0.9984450114406576</v>
+        <v>1.014522267138379</v>
       </c>
       <c r="K12">
-        <v>0.998263408226033</v>
+        <v>1.016599099223081</v>
       </c>
       <c r="L12">
-        <v>0.9942454216177912</v>
+        <v>1.00952685099785</v>
       </c>
       <c r="M12">
-        <v>0.9968416742220463</v>
+        <v>1.03140692711901</v>
       </c>
       <c r="N12">
-        <v>0.9998629178801468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008906084722169</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034247030288443</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022877545384925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677384659620912</v>
+        <v>0.9843385105445784</v>
       </c>
       <c r="D13">
-        <v>0.9832957119910545</v>
+        <v>1.001735749717338</v>
       </c>
       <c r="E13">
-        <v>0.9791588832601689</v>
+        <v>0.9945458068863726</v>
       </c>
       <c r="F13">
-        <v>0.9818924215343796</v>
+        <v>1.017600867345064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037468280865537</v>
+        <v>1.045572282308551</v>
       </c>
       <c r="J13">
-        <v>0.9988759745772691</v>
+        <v>1.014725701146976</v>
       </c>
       <c r="K13">
-        <v>0.9987049566694619</v>
+        <v>1.016785848465193</v>
       </c>
       <c r="L13">
-        <v>0.9946511449990145</v>
+        <v>1.00973386402356</v>
       </c>
       <c r="M13">
-        <v>0.9973297240265773</v>
+        <v>1.032355527688252</v>
       </c>
       <c r="N13">
-        <v>1.000294493033844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008997694870265</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035274787687875</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02300705369658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695451987972182</v>
+        <v>0.9850521141039792</v>
       </c>
       <c r="D14">
-        <v>0.9849138339397396</v>
+        <v>1.002246374170728</v>
       </c>
       <c r="E14">
-        <v>0.9806592503947826</v>
+        <v>0.9950982234660581</v>
       </c>
       <c r="F14">
-        <v>0.983665637244685</v>
+        <v>1.018550457443248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03807182892071</v>
+        <v>1.045775947047408</v>
       </c>
       <c r="J14">
-        <v>1.000279760455944</v>
+        <v>1.015096804957794</v>
       </c>
       <c r="K14">
-        <v>1.000143324383626</v>
+        <v>1.017142964568572</v>
       </c>
       <c r="L14">
-        <v>0.9959728218168098</v>
+        <v>1.01013026704669</v>
       </c>
       <c r="M14">
-        <v>0.9989196961033685</v>
+        <v>1.033147339774445</v>
       </c>
       <c r="N14">
-        <v>1.001700272449484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009136258632625</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036074537844546</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.023261002259655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706503918018501</v>
+        <v>0.9854737191367919</v>
       </c>
       <c r="D15">
-        <v>0.9859039202167023</v>
+        <v>1.002547628559874</v>
       </c>
       <c r="E15">
-        <v>0.9815773444071667</v>
+        <v>0.9954213691031597</v>
       </c>
       <c r="F15">
-        <v>0.9847506467511447</v>
+        <v>1.018937900868777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038440628256168</v>
+        <v>1.045882241668801</v>
       </c>
       <c r="J15">
-        <v>1.0011384238534</v>
+        <v>1.015308717117499</v>
       </c>
       <c r="K15">
-        <v>1.001023218628872</v>
+        <v>1.017349998335296</v>
       </c>
       <c r="L15">
-        <v>0.996781340527932</v>
+        <v>1.010357740316265</v>
       </c>
       <c r="M15">
-        <v>0.999892426388554</v>
+        <v>1.033441305330307</v>
       </c>
       <c r="N15">
-        <v>1.002560155247453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009210066295991</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036344520273603</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023413353179609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769659880305106</v>
+        <v>0.9878576164712886</v>
       </c>
       <c r="D16">
-        <v>0.9915656210103955</v>
+        <v>1.004231486540198</v>
       </c>
       <c r="E16">
-        <v>0.986828203736808</v>
+        <v>0.9972389495851751</v>
       </c>
       <c r="F16">
-        <v>0.9909555890028601</v>
+        <v>1.020543262605105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040542040892099</v>
+        <v>1.046439749687532</v>
       </c>
       <c r="J16">
-        <v>1.00604444699737</v>
+        <v>1.01648305473443</v>
       </c>
       <c r="K16">
-        <v>1.006051718061586</v>
+        <v>1.018488303731962</v>
       </c>
       <c r="L16">
-        <v>1.001402031807908</v>
+        <v>1.011621410319538</v>
       </c>
       <c r="M16">
-        <v>1.005452921763818</v>
+        <v>1.034515632101124</v>
       </c>
       <c r="N16">
-        <v>1.007473145507017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009595955771363</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037154846209594</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024221416672903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.980829527060154</v>
+        <v>0.9893173264790032</v>
       </c>
       <c r="D17">
-        <v>0.9950323731556324</v>
+        <v>1.005261436063606</v>
       </c>
       <c r="E17">
-        <v>0.9900440756772366</v>
+        <v>0.9983495684665636</v>
       </c>
       <c r="F17">
-        <v>0.9947554069542557</v>
+        <v>1.021275262562418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041822129358561</v>
+        <v>1.046759051330322</v>
       </c>
       <c r="J17">
-        <v>1.009044867529857</v>
+        <v>1.01719230552037</v>
       </c>
       <c r="K17">
-        <v>1.009128067127916</v>
+        <v>1.019177837896388</v>
       </c>
       <c r="L17">
-        <v>1.004228949609203</v>
+        <v>1.012386597741733</v>
       </c>
       <c r="M17">
-        <v>1.008856022048818</v>
+        <v>1.034920266479085</v>
       </c>
       <c r="N17">
-        <v>1.010477826980813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009820284142447</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037345281284171</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024711584497547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9830496077623125</v>
+        <v>0.9900969674077578</v>
       </c>
       <c r="D18">
-        <v>0.9970255518222233</v>
+        <v>1.0057970481403</v>
       </c>
       <c r="E18">
-        <v>0.9918932409206128</v>
+        <v>0.9989325712789406</v>
       </c>
       <c r="F18">
-        <v>0.9969402526002138</v>
+        <v>1.021213821097016</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042555696064231</v>
+        <v>1.046884770173973</v>
       </c>
       <c r="J18">
-        <v>1.010768637092255</v>
+        <v>1.017539391399396</v>
       </c>
       <c r="K18">
-        <v>1.010895826400077</v>
+        <v>1.019516461658345</v>
       </c>
       <c r="L18">
-        <v>1.005853390363042</v>
+        <v>1.01276975540572</v>
       </c>
       <c r="M18">
-        <v>1.010812011112598</v>
+        <v>1.034676154744885</v>
       </c>
       <c r="N18">
-        <v>1.012204044493709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009915571952468</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03691381592776</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024939190637918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9838010911859625</v>
+        <v>0.9902419276348871</v>
       </c>
       <c r="D19">
-        <v>0.9977004116561862</v>
+        <v>1.005881888759153</v>
       </c>
       <c r="E19">
-        <v>0.9925193770326743</v>
+        <v>0.999021034912395</v>
       </c>
       <c r="F19">
-        <v>0.9976800391191624</v>
+        <v>1.020371425271269</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042803660034761</v>
+        <v>1.046819996940513</v>
       </c>
       <c r="J19">
-        <v>1.0113520597699</v>
+        <v>1.017541904150643</v>
       </c>
       <c r="K19">
-        <v>1.011494200131048</v>
+        <v>1.019535856826219</v>
       </c>
       <c r="L19">
-        <v>1.006403253004402</v>
+        <v>1.012792053701171</v>
       </c>
       <c r="M19">
-        <v>1.011474179460211</v>
+        <v>1.033784838918486</v>
       </c>
       <c r="N19">
-        <v>1.012788295698476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009890737084806</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035882155685155</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02495939730525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9804185069971625</v>
+        <v>0.9885875345276524</v>
       </c>
       <c r="D20">
-        <v>0.9946634491384309</v>
+        <v>1.004665220691869</v>
       </c>
       <c r="E20">
-        <v>0.9897018256639747</v>
+        <v>0.9977062378927143</v>
       </c>
       <c r="F20">
-        <v>0.9943510211636066</v>
+        <v>1.017439981111953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041686155295197</v>
+        <v>1.046225745585286</v>
       </c>
       <c r="J20">
-        <v>1.008725704371873</v>
+        <v>1.016565588442482</v>
       </c>
       <c r="K20">
-        <v>1.008800788939358</v>
+        <v>1.018626530864795</v>
       </c>
       <c r="L20">
-        <v>1.003928205790259</v>
+        <v>1.011789540610383</v>
       </c>
       <c r="M20">
-        <v>1.00849393370036</v>
+        <v>1.031182948079156</v>
       </c>
       <c r="N20">
-        <v>1.010158210574537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009524282853943</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033292712351406</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024320429821981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690148388381449</v>
+        <v>0.984197978577914</v>
       </c>
       <c r="D21">
-        <v>0.9844387835789723</v>
+        <v>1.001557048955071</v>
       </c>
       <c r="E21">
-        <v>0.9802187582310139</v>
+        <v>0.9943460717307385</v>
       </c>
       <c r="F21">
-        <v>0.9831450490623934</v>
+        <v>1.014040159613602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037894742025692</v>
+        <v>1.045153188287603</v>
       </c>
       <c r="J21">
-        <v>0.999867692953298</v>
+        <v>1.014371561906501</v>
       </c>
       <c r="K21">
-        <v>0.9997210894237888</v>
+        <v>1.01650898248939</v>
       </c>
       <c r="L21">
-        <v>0.9955848399261663</v>
+        <v>1.009435357103949</v>
       </c>
       <c r="M21">
-        <v>0.9984529376537923</v>
+        <v>1.028760331144274</v>
       </c>
       <c r="N21">
-        <v>1.001287619763719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008788751389309</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031334204165766</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02282648064839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9615006900112983</v>
+        <v>0.9813918172770721</v>
       </c>
       <c r="D22">
-        <v>0.9777133263770518</v>
+        <v>0.9995721441410803</v>
       </c>
       <c r="E22">
-        <v>0.9739836775606038</v>
+        <v>0.9922069433188118</v>
       </c>
       <c r="F22">
-        <v>0.9757753075656344</v>
+        <v>1.011967199198242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035378668917512</v>
+        <v>1.044462197585545</v>
       </c>
       <c r="J22">
-        <v>0.9940288514530486</v>
+        <v>1.012971040155284</v>
       </c>
       <c r="K22">
-        <v>0.9937396036845241</v>
+        <v>1.015152081707184</v>
       </c>
       <c r="L22">
-        <v>0.990088761694752</v>
+        <v>1.007934379289435</v>
       </c>
       <c r="M22">
-        <v>0.9918424353482214</v>
+        <v>1.027305253797901</v>
       </c>
       <c r="N22">
-        <v>0.9954404864388147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00832038484684</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030182592161224</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021853336702918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9655189975397921</v>
+        <v>0.9828742948179363</v>
       </c>
       <c r="D23">
-        <v>0.9813086884184542</v>
+        <v>1.000611570059628</v>
       </c>
       <c r="E23">
-        <v>0.9773166255670201</v>
+        <v>0.993334933541719</v>
       </c>
       <c r="F23">
-        <v>0.9797150098451123</v>
+        <v>1.013064814600275</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036725789646097</v>
+        <v>1.044827031872489</v>
       </c>
       <c r="J23">
-        <v>0.9971513976073975</v>
+        <v>1.013706330899101</v>
       </c>
       <c r="K23">
-        <v>0.9969381078636474</v>
+        <v>1.015858390517619</v>
       </c>
       <c r="L23">
-        <v>0.9930276599233951</v>
+        <v>1.0087236901562</v>
       </c>
       <c r="M23">
-        <v>0.9953769057605182</v>
+        <v>1.028074900103238</v>
       </c>
       <c r="N23">
-        <v>0.9985674669668639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008565389744042</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030791724227181</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022342947494518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9806043322161454</v>
+        <v>0.988612897590546</v>
       </c>
       <c r="D24">
-        <v>0.9948302390132658</v>
+        <v>1.00466567328943</v>
       </c>
       <c r="E24">
-        <v>0.9898565555659756</v>
+        <v>0.997719536701225</v>
       </c>
       <c r="F24">
-        <v>0.9945338426968802</v>
+        <v>1.017324287808835</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041747636415321</v>
+        <v>1.046211153325899</v>
       </c>
       <c r="J24">
-        <v>1.008870001480645</v>
+        <v>1.016556442259505</v>
       </c>
       <c r="K24">
-        <v>1.008948753796459</v>
+        <v>1.01861134690976</v>
       </c>
       <c r="L24">
-        <v>1.004064174230389</v>
+        <v>1.011786818535676</v>
       </c>
       <c r="M24">
-        <v>1.00865763502441</v>
+        <v>1.031053849885163</v>
       </c>
       <c r="N24">
-        <v>1.010302712601754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00951667547096</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033149391588222</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024281857225243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.996811594217327</v>
+        <v>0.9950472957242279</v>
       </c>
       <c r="D25">
-        <v>1.009398743713933</v>
+        <v>1.0092437856429</v>
       </c>
       <c r="E25">
-        <v>1.003375953988675</v>
+        <v>1.002666688477031</v>
       </c>
       <c r="F25">
-        <v>1.010506829471583</v>
+        <v>1.022130823851215</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047066567388242</v>
+        <v>1.047698015696545</v>
       </c>
       <c r="J25">
-        <v>1.021446739444707</v>
+        <v>1.019742495500783</v>
       </c>
       <c r="K25">
-        <v>1.021852887545678</v>
+        <v>1.021700278712314</v>
       </c>
       <c r="L25">
-        <v>1.015922087703032</v>
+        <v>1.015223748110387</v>
       </c>
       <c r="M25">
-        <v>1.022944200947262</v>
+        <v>1.034395033529109</v>
       </c>
       <c r="N25">
-        <v>1.022897310976298</v>
+        <v>1.010580252503941</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.0357937367879</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026463048145802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.999982211099547</v>
+        <v>1.000599207235904</v>
       </c>
       <c r="D2">
-        <v>1.012754918226742</v>
+        <v>1.013393501828269</v>
       </c>
       <c r="E2">
-        <v>1.006480631468447</v>
+        <v>1.007018440991893</v>
       </c>
       <c r="F2">
-        <v>1.025848933708639</v>
+        <v>1.026113473485625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04877913629914</v>
+        <v>1.049028754005447</v>
       </c>
       <c r="J2">
-        <v>1.022163454242838</v>
+        <v>1.022762010877013</v>
       </c>
       <c r="K2">
-        <v>1.024039371355773</v>
+        <v>1.024669344878307</v>
       </c>
       <c r="L2">
-        <v>1.01785041314466</v>
+        <v>1.018380856138972</v>
       </c>
       <c r="M2">
-        <v>1.036959525099983</v>
+        <v>1.037220609619384</v>
       </c>
       <c r="N2">
-        <v>1.011386215384187</v>
+        <v>1.013308971544551</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037823370388593</v>
+        <v>1.038030002021659</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028067967088693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.028522321406617</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018690805605981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003491010806156</v>
+        <v>1.003958692588004</v>
       </c>
       <c r="D3">
-        <v>1.015278919039623</v>
+        <v>1.015688896127364</v>
       </c>
       <c r="E3">
-        <v>1.0092071568379</v>
+        <v>1.009615584875076</v>
       </c>
       <c r="F3">
-        <v>1.028499270797898</v>
+        <v>1.028699717467936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049518450994839</v>
+        <v>1.049708147819218</v>
       </c>
       <c r="J3">
-        <v>1.023886957653239</v>
+        <v>1.024342018331639</v>
       </c>
       <c r="K3">
-        <v>1.025719965645603</v>
+        <v>1.026124894223755</v>
       </c>
       <c r="L3">
-        <v>1.019723570382679</v>
+        <v>1.020126893284928</v>
       </c>
       <c r="M3">
-        <v>1.038780035275261</v>
+        <v>1.038978091066892</v>
       </c>
       <c r="N3">
-        <v>1.011961382941419</v>
+        <v>1.013727374474855</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039264186055579</v>
+        <v>1.039420934187634</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.029253625266579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029548568666637</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018982203603173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005721555245441</v>
+        <v>1.006095234177994</v>
       </c>
       <c r="D4">
-        <v>1.016890029650805</v>
+        <v>1.017155177170546</v>
       </c>
       <c r="E4">
-        <v>1.010946167346309</v>
+        <v>1.011273003191417</v>
       </c>
       <c r="F4">
-        <v>1.030189218901803</v>
+        <v>1.030349338027698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049973182998441</v>
+        <v>1.050124999428636</v>
       </c>
       <c r="J4">
-        <v>1.024980026847933</v>
+        <v>1.025344297989045</v>
       </c>
       <c r="K4">
-        <v>1.026788792677807</v>
+        <v>1.02705087114631</v>
       </c>
       <c r="L4">
-        <v>1.020914252793197</v>
+        <v>1.021237250596856</v>
       </c>
       <c r="M4">
-        <v>1.039936444319102</v>
+        <v>1.040094768316788</v>
       </c>
       <c r="N4">
-        <v>1.012326210706966</v>
+        <v>1.013992861504577</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040179407268474</v>
+        <v>1.040304710142187</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030010307335953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.0302043202478</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019165326738402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00665328762014</v>
+        <v>1.00698781535533</v>
       </c>
       <c r="D5">
-        <v>1.017567457973092</v>
+        <v>1.017772149407372</v>
       </c>
       <c r="E5">
-        <v>1.011674298231505</v>
+        <v>1.011967114909424</v>
       </c>
       <c r="F5">
-        <v>1.030895239343364</v>
+        <v>1.03103856804623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050160090197453</v>
+        <v>1.050296093187038</v>
       </c>
       <c r="J5">
-        <v>1.025437579846995</v>
+        <v>1.025763935043989</v>
       </c>
       <c r="K5">
-        <v>1.027238980406207</v>
+        <v>1.027441365384821</v>
       </c>
       <c r="L5">
-        <v>1.021412718378318</v>
+        <v>1.021702188377225</v>
       </c>
       <c r="M5">
-        <v>1.040418932510893</v>
+        <v>1.040560696940996</v>
       </c>
       <c r="N5">
-        <v>1.01247918398931</v>
+        <v>1.014104220126678</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040561264391101</v>
+        <v>1.040673461414234</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030335901798804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030488414757751</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019242547347569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006813211127157</v>
+        <v>1.007140917234366</v>
       </c>
       <c r="D6">
-        <v>1.017687318792845</v>
+        <v>1.017881551915501</v>
       </c>
       <c r="E6">
-        <v>1.011799796273143</v>
+        <v>1.012086675049186</v>
       </c>
       <c r="F6">
-        <v>1.031015166084977</v>
+        <v>1.031155569704211</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05019278002185</v>
+        <v>1.050326024905844</v>
       </c>
       <c r="J6">
-        <v>1.025518025268997</v>
+        <v>1.02583776633544</v>
       </c>
       <c r="K6">
-        <v>1.027320660539029</v>
+        <v>1.027512715047062</v>
       </c>
       <c r="L6">
-        <v>1.021499664845786</v>
+        <v>1.021783279877563</v>
       </c>
       <c r="M6">
-        <v>1.040501353510376</v>
+        <v>1.040640231763945</v>
       </c>
       <c r="N6">
-        <v>1.012506380243425</v>
+        <v>1.014124040087218</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040626495077529</v>
+        <v>1.040736407876053</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030402517207949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030548593542089</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019257283567995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005744866112543</v>
+        <v>1.006123693114794</v>
       </c>
       <c r="D7">
-        <v>1.016916328327068</v>
+        <v>1.017184797426876</v>
       </c>
       <c r="E7">
-        <v>1.010965572197228</v>
+        <v>1.011296988783891</v>
       </c>
       <c r="F7">
-        <v>1.030203313939837</v>
+        <v>1.030365638814408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049980100247896</v>
+        <v>1.050134009752739</v>
       </c>
       <c r="J7">
-        <v>1.024996713221834</v>
+        <v>1.025366006972607</v>
       </c>
       <c r="K7">
-        <v>1.026811852465719</v>
+        <v>1.027077215318212</v>
       </c>
       <c r="L7">
-        <v>1.020930472049803</v>
+        <v>1.021257998314219</v>
       </c>
       <c r="M7">
-        <v>1.03994749747836</v>
+        <v>1.040108003168458</v>
       </c>
       <c r="N7">
-        <v>1.012332605774807</v>
+        <v>1.014025066347567</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040188155106773</v>
+        <v>1.040315184642676</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030046991335646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030245323783539</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019172894418735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00119003924464</v>
+        <v>1.001774730256184</v>
       </c>
       <c r="D8">
-        <v>1.013633971713279</v>
+        <v>1.014208970211524</v>
       </c>
       <c r="E8">
-        <v>1.007419520137102</v>
+        <v>1.007929799036184</v>
       </c>
       <c r="F8">
-        <v>1.026755715423726</v>
+        <v>1.027006373215039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049039430242506</v>
+        <v>1.049276185769944</v>
       </c>
       <c r="J8">
-        <v>1.022763777223662</v>
+        <v>1.023331576320461</v>
       </c>
       <c r="K8">
-        <v>1.024632375678596</v>
+        <v>1.02519985118869</v>
       </c>
       <c r="L8">
-        <v>1.018499918556569</v>
+        <v>1.019003416937516</v>
       </c>
       <c r="M8">
-        <v>1.037585061002226</v>
+        <v>1.037832541861181</v>
       </c>
       <c r="N8">
-        <v>1.01158761008499</v>
+        <v>1.013539087943561</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038318441790071</v>
+        <v>1.038514306865172</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.028510510356162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028922933699448</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018801461339537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928287507855734</v>
+        <v>0.993778183984511</v>
       </c>
       <c r="D9">
-        <v>1.007647157080239</v>
+        <v>1.008772519377552</v>
       </c>
       <c r="E9">
-        <v>1.000955074689799</v>
+        <v>1.001780538355502</v>
       </c>
       <c r="F9">
-        <v>1.020475289529506</v>
+        <v>1.02088265512648</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047190836167506</v>
+        <v>1.0475729368372</v>
       </c>
       <c r="J9">
-        <v>1.018637310882515</v>
+        <v>1.019552580028391</v>
       </c>
       <c r="K9">
-        <v>1.020617371043006</v>
+        <v>1.021724854088482</v>
       </c>
       <c r="L9">
-        <v>1.014032675455393</v>
+        <v>1.01484479347058</v>
       </c>
       <c r="M9">
-        <v>1.033244679917742</v>
+        <v>1.033645773774864</v>
       </c>
       <c r="N9">
-        <v>1.01020990343896</v>
+        <v>1.012547553533967</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034883302452088</v>
+        <v>1.035200743775257</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025668330964965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.026462320490161</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018091450074343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9870654689498345</v>
+        <v>0.9882983398939053</v>
       </c>
       <c r="D10">
-        <v>1.003566756759003</v>
+        <v>1.005094608605902</v>
       </c>
       <c r="E10">
-        <v>0.9965386440738075</v>
+        <v>0.9976083654934133</v>
       </c>
       <c r="F10">
-        <v>1.016353788682531</v>
+        <v>1.016882756241771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045863991663887</v>
+        <v>1.046358008728094</v>
       </c>
       <c r="J10">
-        <v>1.015801838863613</v>
+        <v>1.016984044604723</v>
       </c>
       <c r="K10">
-        <v>1.017871909554421</v>
+        <v>1.019372483563275</v>
       </c>
       <c r="L10">
-        <v>1.010970676874131</v>
+        <v>1.012020936323442</v>
       </c>
       <c r="M10">
-        <v>1.030433917587242</v>
+        <v>1.03095373415886</v>
       </c>
       <c r="N10">
-        <v>1.009268019403794</v>
+        <v>1.011987534611007</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032710552418496</v>
+        <v>1.033121930774742</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023744130440403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024817750973376</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01760596786586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9848104404732241</v>
+        <v>0.9861810591003735</v>
       </c>
       <c r="D11">
-        <v>1.002028789377773</v>
+        <v>1.003730595314945</v>
       </c>
       <c r="E11">
-        <v>0.9948601325261154</v>
+        <v>0.9960468888369606</v>
       </c>
       <c r="F11">
-        <v>1.016144111985516</v>
+        <v>1.016729606860945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045502263947344</v>
+        <v>1.046050115864694</v>
       </c>
       <c r="J11">
-        <v>1.014829065947685</v>
+        <v>1.016140240388793</v>
       </c>
       <c r="K11">
-        <v>1.016912546853693</v>
+        <v>1.018582499337266</v>
       </c>
       <c r="L11">
-        <v>1.009879634557415</v>
+        <v>1.01104374209112</v>
       </c>
       <c r="M11">
-        <v>1.030767863543465</v>
+        <v>1.031342776267973</v>
       </c>
       <c r="N11">
-        <v>1.008980588101337</v>
+        <v>1.012017549486363</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033413607373395</v>
+        <v>1.033868356608302</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023099169813611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024295757363141</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01747386041601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9840261340412594</v>
+        <v>0.9854419557902137</v>
       </c>
       <c r="D12">
-        <v>1.001500591826348</v>
+        <v>1.003259521922004</v>
       </c>
       <c r="E12">
-        <v>0.9942894213913606</v>
+        <v>0.9955132382943376</v>
       </c>
       <c r="F12">
-        <v>1.016590824930416</v>
+        <v>1.017193743659766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045423749521196</v>
+        <v>1.045989044197365</v>
       </c>
       <c r="J12">
-        <v>1.014522267138379</v>
+        <v>1.015875477948808</v>
       </c>
       <c r="K12">
-        <v>1.016599099223081</v>
+        <v>1.01832453993908</v>
       </c>
       <c r="L12">
-        <v>1.00952685099785</v>
+        <v>1.010726905378567</v>
       </c>
       <c r="M12">
-        <v>1.03140692711901</v>
+        <v>1.031998789255411</v>
       </c>
       <c r="N12">
-        <v>1.008906084722169</v>
+        <v>1.012067481081049</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034247030288443</v>
+        <v>1.034715026379635</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022877545384925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024113370625305</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017440425854763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9843385105445784</v>
+        <v>0.9857217993987957</v>
       </c>
       <c r="D13">
-        <v>1.001735749717338</v>
+        <v>1.003457757791014</v>
       </c>
       <c r="E13">
-        <v>0.9945458068863726</v>
+        <v>0.9957395754855071</v>
       </c>
       <c r="F13">
-        <v>1.017600867345064</v>
+        <v>1.018188519017257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045572282308551</v>
+        <v>1.04612451795282</v>
       </c>
       <c r="J13">
-        <v>1.014725701146976</v>
+        <v>1.01604809483878</v>
       </c>
       <c r="K13">
-        <v>1.016785848465193</v>
+        <v>1.018475198731209</v>
       </c>
       <c r="L13">
-        <v>1.00973386402356</v>
+        <v>1.010904546251002</v>
       </c>
       <c r="M13">
-        <v>1.032355527688252</v>
+        <v>1.032932466298609</v>
       </c>
       <c r="N13">
-        <v>1.008997694870265</v>
+        <v>1.012106254782796</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035274787687875</v>
+        <v>1.035730868101101</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02300705369658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024217117189478</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017486686882145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9850521141039792</v>
+        <v>0.9863782539403355</v>
       </c>
       <c r="D14">
-        <v>1.002246374170728</v>
+        <v>1.003900777789647</v>
       </c>
       <c r="E14">
-        <v>0.9950982234660581</v>
+        <v>0.9962414614440462</v>
       </c>
       <c r="F14">
-        <v>1.018550457443248</v>
+        <v>1.019113092790077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045775947047408</v>
+        <v>1.046305559589943</v>
       </c>
       <c r="J14">
-        <v>1.015096804957794</v>
+        <v>1.016365383758345</v>
       </c>
       <c r="K14">
-        <v>1.017142964568572</v>
+        <v>1.01876637701581</v>
       </c>
       <c r="L14">
-        <v>1.01013026704669</v>
+        <v>1.011251670516653</v>
       </c>
       <c r="M14">
-        <v>1.033147339774445</v>
+        <v>1.03369985495763</v>
       </c>
       <c r="N14">
-        <v>1.009136258632625</v>
+        <v>1.012129059388724</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036074537844546</v>
+        <v>1.036511251904618</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.023261002259655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024424576918232</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017555494345596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9854737191367919</v>
+        <v>0.9867690778093089</v>
       </c>
       <c r="D15">
-        <v>1.002547628559874</v>
+        <v>1.004164709558769</v>
       </c>
       <c r="E15">
-        <v>0.9954213691031597</v>
+        <v>0.996537810449556</v>
       </c>
       <c r="F15">
-        <v>1.018937900868777</v>
+        <v>1.019487340442333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045882241668801</v>
+        <v>1.046399709332094</v>
       </c>
       <c r="J15">
-        <v>1.015308717117499</v>
+        <v>1.016548338126102</v>
       </c>
       <c r="K15">
-        <v>1.017349998335296</v>
+        <v>1.018937017183306</v>
       </c>
       <c r="L15">
-        <v>1.010357740316265</v>
+        <v>1.011453022729368</v>
       </c>
       <c r="M15">
-        <v>1.033441305330307</v>
+        <v>1.033980939087005</v>
       </c>
       <c r="N15">
-        <v>1.009210066295991</v>
+        <v>1.012138005432035</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036344520273603</v>
+        <v>1.036771041458891</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023413353179609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024551760968834</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017592833235071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9878576164712886</v>
+        <v>0.9889977337654958</v>
       </c>
       <c r="D16">
-        <v>1.004231486540198</v>
+        <v>1.005652732498513</v>
       </c>
       <c r="E16">
-        <v>0.9972389495851751</v>
+        <v>0.9982219277790729</v>
       </c>
       <c r="F16">
-        <v>1.020543262605105</v>
+        <v>1.02102703136542</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046439749687532</v>
+        <v>1.04689604143645</v>
       </c>
       <c r="J16">
-        <v>1.01648305473443</v>
+        <v>1.017576569121489</v>
       </c>
       <c r="K16">
-        <v>1.018488303731962</v>
+        <v>1.019884289620458</v>
       </c>
       <c r="L16">
-        <v>1.011621410319538</v>
+        <v>1.012586587864</v>
       </c>
       <c r="M16">
-        <v>1.034515632101124</v>
+        <v>1.034991144056129</v>
       </c>
       <c r="N16">
-        <v>1.009595955771363</v>
+        <v>1.012200436944357</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037154846209594</v>
+        <v>1.037530696906262</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024221416672903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025225046069</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017786047374983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9893173264790032</v>
+        <v>0.9903747353053605</v>
       </c>
       <c r="D17">
-        <v>1.005261436063606</v>
+        <v>1.006572572345905</v>
       </c>
       <c r="E17">
-        <v>0.9983495684665636</v>
+        <v>0.999262011107994</v>
       </c>
       <c r="F17">
-        <v>1.021275262562418</v>
+        <v>1.021724371716976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046759051330322</v>
+        <v>1.047182760269243</v>
       </c>
       <c r="J17">
-        <v>1.01719230552037</v>
+        <v>1.018207890246377</v>
       </c>
       <c r="K17">
-        <v>1.019177837896388</v>
+        <v>1.020466333679108</v>
       </c>
       <c r="L17">
-        <v>1.012386597741733</v>
+        <v>1.013282992327585</v>
       </c>
       <c r="M17">
-        <v>1.034920266479085</v>
+        <v>1.035361922159162</v>
       </c>
       <c r="N17">
-        <v>1.009820284142447</v>
+        <v>1.012265433565544</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037345281284171</v>
+        <v>1.03769440644812</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024711584497547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025639455032721</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01789979108808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9900969674077578</v>
+        <v>0.9911194139768973</v>
       </c>
       <c r="D18">
-        <v>1.0057970481403</v>
+        <v>1.007057470261593</v>
       </c>
       <c r="E18">
-        <v>0.9989325712789406</v>
+        <v>0.9998160865290201</v>
       </c>
       <c r="F18">
-        <v>1.021213821097016</v>
+        <v>1.021648898636355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046884770173973</v>
+        <v>1.04729482419344</v>
       </c>
       <c r="J18">
-        <v>1.017539391399396</v>
+        <v>1.018522168812099</v>
       </c>
       <c r="K18">
-        <v>1.019516461658345</v>
+        <v>1.020755484492226</v>
       </c>
       <c r="L18">
-        <v>1.01276975540572</v>
+        <v>1.013637995314308</v>
       </c>
       <c r="M18">
-        <v>1.034676154744885</v>
+        <v>1.035104121901089</v>
       </c>
       <c r="N18">
-        <v>1.009915571952468</v>
+        <v>1.012293717795594</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03691381592776</v>
+        <v>1.037252191320702</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024939190637918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025830947654353</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017946134709426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9902419276348871</v>
+        <v>0.991268279950964</v>
       </c>
       <c r="D19">
-        <v>1.005881888759153</v>
+        <v>1.007143083634713</v>
       </c>
       <c r="E19">
-        <v>0.999021034912395</v>
+        <v>0.999909446533489</v>
       </c>
       <c r="F19">
-        <v>1.020371425271269</v>
+        <v>1.020809420122313</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046819996940513</v>
+        <v>1.047231852076782</v>
       </c>
       <c r="J19">
-        <v>1.017541904150643</v>
+        <v>1.018528685843084</v>
       </c>
       <c r="K19">
-        <v>1.019535856826219</v>
+        <v>1.020775758701391</v>
       </c>
       <c r="L19">
-        <v>1.012792053701171</v>
+        <v>1.013665191408045</v>
       </c>
       <c r="M19">
-        <v>1.033784838918486</v>
+        <v>1.03421569882113</v>
       </c>
       <c r="N19">
-        <v>1.009890737084806</v>
+        <v>1.012266226357412</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035882155685155</v>
+        <v>1.036222930436697</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02495939730525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025852396378902</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017932448278303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9885875345276524</v>
+        <v>0.9897263041046629</v>
       </c>
       <c r="D20">
-        <v>1.004665220691869</v>
+        <v>1.006071571631348</v>
       </c>
       <c r="E20">
-        <v>0.9977062378927143</v>
+        <v>0.9986943189048481</v>
       </c>
       <c r="F20">
-        <v>1.017439981111953</v>
+        <v>1.017928567173315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046225745585286</v>
+        <v>1.046682570730073</v>
       </c>
       <c r="J20">
-        <v>1.016565588442482</v>
+        <v>1.017659085804811</v>
       </c>
       <c r="K20">
-        <v>1.018626530864795</v>
+        <v>1.020008493374589</v>
       </c>
       <c r="L20">
-        <v>1.011789540610383</v>
+        <v>1.012760166060467</v>
       </c>
       <c r="M20">
-        <v>1.031182948079156</v>
+        <v>1.031663323634587</v>
       </c>
       <c r="N20">
-        <v>1.009524282853943</v>
+        <v>1.01206908205882</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033292712351406</v>
+        <v>1.033672882055882</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024320429821981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025314263932563</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01774097585249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.984197978577914</v>
+        <v>0.9856435485649331</v>
       </c>
       <c r="D21">
-        <v>1.001557048955071</v>
+        <v>1.003342093812282</v>
       </c>
       <c r="E21">
-        <v>0.9943460717307385</v>
+        <v>0.995601130798988</v>
       </c>
       <c r="F21">
-        <v>1.014040159613602</v>
+        <v>1.014660886700832</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045153188287603</v>
+        <v>1.04573125553679</v>
       </c>
       <c r="J21">
-        <v>1.014371561906501</v>
+        <v>1.015754016511895</v>
       </c>
       <c r="K21">
-        <v>1.01650898248939</v>
+        <v>1.018260424633105</v>
       </c>
       <c r="L21">
-        <v>1.009435357103949</v>
+        <v>1.010666323102653</v>
       </c>
       <c r="M21">
-        <v>1.028760331144274</v>
+        <v>1.029369727498871</v>
       </c>
       <c r="N21">
-        <v>1.008788751389309</v>
+        <v>1.0119790896887</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031334204165766</v>
+        <v>1.031816506591793</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02282648064839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024081893173571</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01737802448237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813918172770721</v>
+        <v>0.983032135093768</v>
       </c>
       <c r="D22">
-        <v>0.9995721441410803</v>
+        <v>1.001597666526437</v>
       </c>
       <c r="E22">
-        <v>0.9922069433188118</v>
+        <v>0.9936312007415931</v>
       </c>
       <c r="F22">
-        <v>1.011967199198242</v>
+        <v>1.012671713060399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044462197585545</v>
+        <v>1.04511677933064</v>
       </c>
       <c r="J22">
-        <v>1.012971040155284</v>
+        <v>1.014535562135258</v>
       </c>
       <c r="K22">
-        <v>1.015152081707184</v>
+        <v>1.017137539633683</v>
       </c>
       <c r="L22">
-        <v>1.007934379289435</v>
+        <v>1.00932988946125</v>
       </c>
       <c r="M22">
-        <v>1.027305253797901</v>
+        <v>1.027996252226695</v>
       </c>
       <c r="N22">
-        <v>1.00832038484684</v>
+        <v>1.011913104496964</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030182592161224</v>
+        <v>1.030729478849868</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021853336702918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023272926346833</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01714285352561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9828742948179363</v>
+        <v>0.9844019508420024</v>
       </c>
       <c r="D23">
-        <v>1.000611570059628</v>
+        <v>1.002502384531789</v>
       </c>
       <c r="E23">
-        <v>0.993334933541719</v>
+        <v>0.9946611120823753</v>
       </c>
       <c r="F23">
-        <v>1.013064814600275</v>
+        <v>1.013720860533305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044827031872489</v>
+        <v>1.045437329747691</v>
       </c>
       <c r="J23">
-        <v>1.013706330899101</v>
+        <v>1.015165470158446</v>
       </c>
       <c r="K23">
-        <v>1.015858390517619</v>
+        <v>1.017712764877277</v>
       </c>
       <c r="L23">
-        <v>1.0087236901562</v>
+        <v>1.010023797484894</v>
       </c>
       <c r="M23">
-        <v>1.028074900103238</v>
+        <v>1.028718685144056</v>
       </c>
       <c r="N23">
-        <v>1.008565389744042</v>
+        <v>1.011903779710259</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030791724227181</v>
+        <v>1.031301243721863</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022342947494518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023668912140993</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01726097712743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.988612897590546</v>
+        <v>0.9897521844015941</v>
       </c>
       <c r="D24">
-        <v>1.00466567328943</v>
+        <v>1.006072157491454</v>
       </c>
       <c r="E24">
-        <v>0.997719536701225</v>
+        <v>0.9987083202360758</v>
       </c>
       <c r="F24">
-        <v>1.017324287808835</v>
+        <v>1.017813305938042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046211153325899</v>
+        <v>1.046668235089133</v>
       </c>
       <c r="J24">
-        <v>1.016556442259505</v>
+        <v>1.017650503418679</v>
       </c>
       <c r="K24">
-        <v>1.01861134690976</v>
+        <v>1.019993471804785</v>
       </c>
       <c r="L24">
-        <v>1.011786818535676</v>
+        <v>1.012758157252746</v>
       </c>
       <c r="M24">
-        <v>1.031053849885163</v>
+        <v>1.031534658387518</v>
       </c>
       <c r="N24">
-        <v>1.00951667547096</v>
+        <v>1.01205964405898</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033149391588222</v>
+        <v>1.033529923110616</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024281857225243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025273145028731</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017732647053969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950472957242279</v>
+        <v>0.9958905031306196</v>
       </c>
       <c r="D25">
-        <v>1.0092437856429</v>
+        <v>1.010215876975897</v>
       </c>
       <c r="E25">
-        <v>1.002666688477031</v>
+        <v>1.003400267541368</v>
       </c>
       <c r="F25">
-        <v>1.022130823851215</v>
+        <v>1.022492534664659</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047698015696545</v>
+        <v>1.048037914701906</v>
       </c>
       <c r="J25">
-        <v>1.019742495500783</v>
+        <v>1.020556964153622</v>
       </c>
       <c r="K25">
-        <v>1.021700278712314</v>
+        <v>1.022657647868009</v>
       </c>
       <c r="L25">
-        <v>1.015223748110387</v>
+        <v>1.015946027065972</v>
       </c>
       <c r="M25">
-        <v>1.034395033529109</v>
+        <v>1.034751436150171</v>
       </c>
       <c r="N25">
-        <v>1.010580252503941</v>
+        <v>1.012781709739858</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.0357937367879</v>
+        <v>1.036075807367851</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026463048145802</v>
+        <v>1.027153686185405</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018286109974531</v>
       </c>
     </row>
   </sheetData>
